--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF213DC4-E4E5-4833-A072-69146A781BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55D3A1-650F-4783-9722-E1AA9888D5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="153_ZTE_UPGRADE" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7833" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7836" uniqueCount="1854">
   <si>
     <t>No.</t>
   </si>
@@ -7233,11 +7233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7326,7 +7325,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" hidden="1">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7396,7 +7395,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" hidden="1">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7572,7 +7571,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="15" hidden="1">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7606,7 +7605,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="15" hidden="1">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7712,7 +7711,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" hidden="1">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8104,7 +8103,7 @@
       </c>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" ht="15" hidden="1">
+    <row r="25" spans="1:11" ht="15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8280,7 +8279,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" hidden="1">
+    <row r="30" spans="1:11" ht="15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8314,7 +8313,7 @@
       </c>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" ht="15" hidden="1">
+    <row r="31" spans="1:11" ht="15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8348,7 +8347,7 @@
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" ht="15" hidden="1">
+    <row r="32" spans="1:11" ht="15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8594,7 +8593,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" hidden="1">
+    <row r="39" spans="1:11" ht="15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8660,7 +8659,9 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K40" s="8"/>
+      <c r="K40" s="8">
+        <v>45756</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="15">
       <c r="A41" s="1">
@@ -8698,7 +8699,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" hidden="1">
+    <row r="42" spans="1:11" ht="15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8732,7 +8733,7 @@
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" ht="15" hidden="1">
+    <row r="43" spans="1:11" ht="15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" hidden="1">
+    <row r="45" spans="1:11" ht="15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8836,7 +8837,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" ht="15" hidden="1">
+    <row r="46" spans="1:11" ht="15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" hidden="1">
+    <row r="49" spans="1:11" ht="15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" ht="15" hidden="1">
+    <row r="50" spans="1:11" ht="15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -9010,7 +9011,7 @@
       </c>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" ht="15" hidden="1">
+    <row r="51" spans="1:11" ht="15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -9044,7 +9045,7 @@
       </c>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" ht="15" hidden="1">
+    <row r="52" spans="1:11" ht="15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -9078,7 +9079,7 @@
       </c>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" ht="15" hidden="1">
+    <row r="53" spans="1:11" ht="15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" hidden="1">
+    <row r="55" spans="1:11" ht="15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -9326,7 +9327,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" hidden="1">
+    <row r="60" spans="1:11" ht="15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -9360,7 +9361,7 @@
       </c>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" ht="15" hidden="1">
+    <row r="61" spans="1:11" ht="15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9394,7 +9395,7 @@
       </c>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" ht="15" hidden="1">
+    <row r="62" spans="1:11" ht="15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9428,7 +9429,7 @@
       </c>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" ht="15" hidden="1">
+    <row r="63" spans="1:11" ht="15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9462,7 +9463,7 @@
       </c>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" ht="15" hidden="1">
+    <row r="64" spans="1:11" ht="15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9496,7 +9497,7 @@
       </c>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" ht="15" hidden="1">
+    <row r="65" spans="1:11" ht="15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9530,7 +9531,7 @@
       </c>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11" ht="15" hidden="1">
+    <row r="66" spans="1:11" ht="15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9564,7 +9565,7 @@
       </c>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" ht="15" hidden="1">
+    <row r="67" spans="1:11" ht="15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9598,7 +9599,7 @@
       </c>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" ht="15" hidden="1">
+    <row r="68" spans="1:11" ht="15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9632,7 +9633,7 @@
       </c>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" ht="15" hidden="1">
+    <row r="69" spans="1:11" ht="15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" ht="15" hidden="1">
+    <row r="70" spans="1:11" ht="15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9700,7 +9701,7 @@
       </c>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" ht="15" hidden="1">
+    <row r="71" spans="1:11" ht="15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9734,7 +9735,7 @@
       </c>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" ht="15" hidden="1">
+    <row r="72" spans="1:11" ht="15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9768,7 +9769,7 @@
       </c>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" ht="15" hidden="1">
+    <row r="73" spans="1:11" ht="15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9802,7 +9803,7 @@
       </c>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" ht="15" hidden="1">
+    <row r="74" spans="1:11" ht="15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9836,7 +9837,7 @@
       </c>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" ht="15" hidden="1">
+    <row r="75" spans="1:11" ht="15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9870,7 +9871,7 @@
       </c>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" ht="15" hidden="1">
+    <row r="76" spans="1:11" ht="15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9904,7 +9905,7 @@
       </c>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" ht="15" hidden="1">
+    <row r="77" spans="1:11" ht="15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9938,7 +9939,7 @@
       </c>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" ht="15" hidden="1">
+    <row r="78" spans="1:11" ht="15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9972,7 +9973,7 @@
       </c>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" ht="15" hidden="1">
+    <row r="79" spans="1:11" ht="15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10006,7 +10007,7 @@
       </c>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" ht="15" hidden="1">
+    <row r="80" spans="1:11" ht="15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10040,7 +10041,7 @@
       </c>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" ht="15" hidden="1">
+    <row r="81" spans="1:11" ht="15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10074,7 +10075,7 @@
       </c>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" ht="15" hidden="1">
+    <row r="82" spans="1:11" ht="15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10108,7 +10109,7 @@
       </c>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" ht="15" hidden="1">
+    <row r="83" spans="1:11" ht="15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10142,7 +10143,7 @@
       </c>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" ht="15" hidden="1">
+    <row r="84" spans="1:11" ht="15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10212,7 +10213,7 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15" hidden="1">
+    <row r="86" spans="1:11" ht="15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10282,7 +10283,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15" hidden="1">
+    <row r="88" spans="1:11" ht="15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10316,7 +10317,7 @@
       </c>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" ht="15" hidden="1">
+    <row r="89" spans="1:11" ht="15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10350,7 +10351,7 @@
       </c>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" ht="15" hidden="1">
+    <row r="90" spans="1:11" ht="15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10384,7 +10385,7 @@
       </c>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="1:11" ht="15" hidden="1">
+    <row r="91" spans="1:11" ht="15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10418,7 +10419,7 @@
       </c>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" ht="15" hidden="1">
+    <row r="92" spans="1:11" ht="15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10488,7 +10489,7 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15" hidden="1">
+    <row r="94" spans="1:11" ht="15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -10522,7 +10523,7 @@
       </c>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" ht="15" hidden="1">
+    <row r="95" spans="1:11" ht="15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10556,7 +10557,7 @@
       </c>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" ht="15" hidden="1">
+    <row r="96" spans="1:11" ht="15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -10590,7 +10591,7 @@
       </c>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="15" hidden="1">
+    <row r="97" spans="1:11" ht="15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10624,7 +10625,7 @@
       </c>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="15" hidden="1">
+    <row r="98" spans="1:11" ht="15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10658,7 +10659,7 @@
       </c>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" ht="15" hidden="1">
+    <row r="99" spans="1:11" ht="15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10728,7 +10729,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15" hidden="1">
+    <row r="101" spans="1:11" ht="15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10798,7 +10799,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15" hidden="1">
+    <row r="103" spans="1:11" ht="15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10832,7 +10833,7 @@
       </c>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="15" hidden="1">
+    <row r="104" spans="1:11" ht="15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -11078,7 +11079,9 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K110" s="8"/>
+      <c r="K110" s="8">
+        <v>45758</v>
+      </c>
     </row>
     <row r="111" spans="1:11" ht="15">
       <c r="A111" s="1">
@@ -11116,7 +11119,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15" hidden="1">
+    <row r="112" spans="1:11" ht="15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11150,7 +11153,7 @@
       </c>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="15" hidden="1">
+    <row r="113" spans="1:11" ht="15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11184,7 +11187,7 @@
       </c>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="15" hidden="1">
+    <row r="114" spans="1:11" ht="15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11290,7 +11293,7 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15" hidden="1">
+    <row r="117" spans="1:11" ht="15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11396,7 +11399,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15" hidden="1">
+    <row r="120" spans="1:11" ht="15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11466,7 +11469,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15" hidden="1">
+    <row r="122" spans="1:11" ht="15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11500,7 +11503,7 @@
       </c>
       <c r="K122" s="8"/>
     </row>
-    <row r="123" spans="1:11" ht="15" hidden="1">
+    <row r="123" spans="1:11" ht="15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11534,7 +11537,7 @@
       </c>
       <c r="K123" s="8"/>
     </row>
-    <row r="124" spans="1:11" ht="15" hidden="1">
+    <row r="124" spans="1:11" ht="15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11568,7 +11571,7 @@
       </c>
       <c r="K124" s="8"/>
     </row>
-    <row r="125" spans="1:11" ht="15" hidden="1">
+    <row r="125" spans="1:11" ht="15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11602,7 +11605,7 @@
       </c>
       <c r="K125" s="8"/>
     </row>
-    <row r="126" spans="1:11" ht="15" hidden="1">
+    <row r="126" spans="1:11" ht="15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11636,7 +11639,7 @@
       </c>
       <c r="K126" s="8"/>
     </row>
-    <row r="127" spans="1:11" ht="15" hidden="1">
+    <row r="127" spans="1:11" ht="15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -11706,7 +11709,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15" hidden="1">
+    <row r="129" spans="1:11" ht="15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -11740,7 +11743,7 @@
       </c>
       <c r="K129" s="8"/>
     </row>
-    <row r="130" spans="1:11" ht="15" hidden="1">
+    <row r="130" spans="1:11" ht="15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -11774,7 +11777,7 @@
       </c>
       <c r="K130" s="8"/>
     </row>
-    <row r="131" spans="1:11" ht="15" hidden="1">
+    <row r="131" spans="1:11" ht="15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -11808,7 +11811,7 @@
       </c>
       <c r="K131" s="8"/>
     </row>
-    <row r="132" spans="1:11" ht="15" hidden="1">
+    <row r="132" spans="1:11" ht="15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -11842,7 +11845,7 @@
       </c>
       <c r="K132" s="8"/>
     </row>
-    <row r="133" spans="1:11" ht="15" hidden="1">
+    <row r="133" spans="1:11" ht="15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -11876,7 +11879,7 @@
       </c>
       <c r="K133" s="8"/>
     </row>
-    <row r="134" spans="1:11" ht="15" hidden="1">
+    <row r="134" spans="1:11" ht="15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -11910,7 +11913,7 @@
       </c>
       <c r="K134" s="8"/>
     </row>
-    <row r="135" spans="1:11" ht="15" hidden="1">
+    <row r="135" spans="1:11" ht="15">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -11944,7 +11947,7 @@
       </c>
       <c r="K135" s="8"/>
     </row>
-    <row r="136" spans="1:11" ht="15" hidden="1">
+    <row r="136" spans="1:11" ht="15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -11978,7 +11981,7 @@
       </c>
       <c r="K136" s="8"/>
     </row>
-    <row r="137" spans="1:11" ht="15" hidden="1">
+    <row r="137" spans="1:11" ht="15">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12012,7 +12015,7 @@
       </c>
       <c r="K137" s="8"/>
     </row>
-    <row r="138" spans="1:11" ht="15" hidden="1">
+    <row r="138" spans="1:11" ht="15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12046,7 +12049,7 @@
       </c>
       <c r="K138" s="8"/>
     </row>
-    <row r="139" spans="1:11" ht="15" hidden="1">
+    <row r="139" spans="1:11" ht="15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12080,7 +12083,7 @@
       </c>
       <c r="K139" s="8"/>
     </row>
-    <row r="140" spans="1:11" ht="15" hidden="1">
+    <row r="140" spans="1:11" ht="15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -12114,7 +12117,7 @@
       </c>
       <c r="K140" s="8"/>
     </row>
-    <row r="141" spans="1:11" ht="15" hidden="1">
+    <row r="141" spans="1:11" ht="15">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -12148,7 +12151,7 @@
       </c>
       <c r="K141" s="8"/>
     </row>
-    <row r="142" spans="1:11" ht="15" hidden="1">
+    <row r="142" spans="1:11" ht="15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -12182,7 +12185,7 @@
       </c>
       <c r="K142" s="8"/>
     </row>
-    <row r="143" spans="1:11" ht="15" hidden="1">
+    <row r="143" spans="1:11" ht="15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -12216,7 +12219,7 @@
       </c>
       <c r="K143" s="8"/>
     </row>
-    <row r="144" spans="1:11" ht="15" hidden="1">
+    <row r="144" spans="1:11" ht="15">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -12250,7 +12253,7 @@
       </c>
       <c r="K144" s="8"/>
     </row>
-    <row r="145" spans="1:11" ht="15" hidden="1">
+    <row r="145" spans="1:11" ht="15">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -12284,7 +12287,7 @@
       </c>
       <c r="K145" s="8"/>
     </row>
-    <row r="146" spans="1:11" ht="15" hidden="1">
+    <row r="146" spans="1:11" ht="15">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -12318,7 +12321,7 @@
       </c>
       <c r="K146" s="8"/>
     </row>
-    <row r="147" spans="1:11" ht="15" hidden="1">
+    <row r="147" spans="1:11" ht="15">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -12352,7 +12355,7 @@
       </c>
       <c r="K147" s="8"/>
     </row>
-    <row r="148" spans="1:11" ht="15" hidden="1">
+    <row r="148" spans="1:11" ht="15">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -12386,7 +12389,7 @@
       </c>
       <c r="K148" s="8"/>
     </row>
-    <row r="149" spans="1:11" ht="15" hidden="1">
+    <row r="149" spans="1:11" ht="15">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -12420,7 +12423,7 @@
       </c>
       <c r="K149" s="8"/>
     </row>
-    <row r="150" spans="1:11" ht="15" hidden="1">
+    <row r="150" spans="1:11" ht="15">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -12454,7 +12457,7 @@
       </c>
       <c r="K150" s="8"/>
     </row>
-    <row r="151" spans="1:11" ht="15" hidden="1">
+    <row r="151" spans="1:11" ht="15">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -12488,7 +12491,7 @@
       </c>
       <c r="K151" s="8"/>
     </row>
-    <row r="152" spans="1:11" ht="15" hidden="1">
+    <row r="152" spans="1:11" ht="15">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -12522,7 +12525,7 @@
       </c>
       <c r="K152" s="8"/>
     </row>
-    <row r="153" spans="1:11" ht="15" hidden="1">
+    <row r="153" spans="1:11" ht="15">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -12556,7 +12559,7 @@
       </c>
       <c r="K153" s="8"/>
     </row>
-    <row r="154" spans="1:11" ht="15" hidden="1">
+    <row r="154" spans="1:11" ht="15">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -12594,13 +12597,7 @@
       <c r="I160" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K154" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Siem Reap"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K154" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12609,10 +12606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89E02D6-4111-4531-B9F3-268755ADB59C}">
-  <dimension ref="A1:Q186"/>
+  <dimension ref="A1:R186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12634,10 +12631,11 @@
     <col min="15" max="15" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="7"/>
+    <col min="18" max="18" width="11.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1">
+    <row r="1" spans="1:18" s="12" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1840</v>
       </c>
@@ -12677,8 +12675,8 @@
       <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>4</v>
+      <c r="N1" s="9" t="s">
+        <v>1810</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>1815</v>
@@ -12689,8 +12687,11 @@
       <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="10" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12740,8 +12741,9 @@
       <c r="Q2" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -12791,8 +12793,9 @@
       <c r="Q3" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12842,8 +12845,9 @@
       <c r="Q4" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -12893,8 +12897,9 @@
       <c r="Q5" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -12944,8 +12949,9 @@
       <c r="Q6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -12995,8 +13001,9 @@
       <c r="Q7" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -13046,8 +13053,9 @@
       <c r="Q8" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -13097,8 +13105,9 @@
       <c r="Q9" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13148,8 +13157,9 @@
       <c r="Q10" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -13199,8 +13209,9 @@
       <c r="Q11" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -13250,8 +13261,9 @@
       <c r="Q12" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -13301,8 +13313,9 @@
       <c r="Q13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -13352,8 +13365,9 @@
       <c r="Q14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -13403,8 +13417,9 @@
       <c r="Q15" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -13454,8 +13469,9 @@
       <c r="Q16" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -13505,8 +13521,9 @@
       <c r="Q17" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -13556,8 +13573,9 @@
       <c r="Q18" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -13607,8 +13625,9 @@
       <c r="Q19" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -13658,8 +13677,9 @@
       <c r="Q20" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -13709,8 +13729,9 @@
       <c r="Q21" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -13760,8 +13781,9 @@
       <c r="Q22" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -13811,8 +13833,9 @@
       <c r="Q23" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -13862,8 +13885,9 @@
       <c r="Q24" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -13913,8 +13937,9 @@
       <c r="Q25" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -13964,8 +13989,9 @@
       <c r="Q26" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -14015,8 +14041,9 @@
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -14066,8 +14093,9 @@
       <c r="Q28" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -14117,8 +14145,9 @@
       <c r="Q29" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -14168,8 +14197,9 @@
       <c r="Q30" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -14219,8 +14249,9 @@
       <c r="Q31" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -14270,8 +14301,9 @@
       <c r="Q32" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -14321,8 +14353,9 @@
       <c r="Q33" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -14372,8 +14405,9 @@
       <c r="Q34" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -14423,8 +14457,9 @@
       <c r="Q35" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -14474,8 +14509,9 @@
       <c r="Q36" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -14525,8 +14561,9 @@
       <c r="Q37" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -14576,8 +14613,9 @@
       <c r="Q38" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -14627,8 +14665,9 @@
       <c r="Q39" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -14678,8 +14717,9 @@
       <c r="Q40" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -14729,8 +14769,9 @@
       <c r="Q41" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -14780,8 +14821,9 @@
       <c r="Q42" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -14831,8 +14873,9 @@
       <c r="Q43" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -14882,8 +14925,9 @@
       <c r="Q44" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -14933,8 +14977,9 @@
       <c r="Q45" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -14984,8 +15029,9 @@
       <c r="Q46" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -15035,8 +15081,9 @@
       <c r="Q47" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -15086,8 +15133,9 @@
       <c r="Q48" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -15137,8 +15185,9 @@
       <c r="Q49" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -15188,8 +15237,9 @@
       <c r="Q50" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -15239,8 +15289,9 @@
       <c r="Q51" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -15290,8 +15341,9 @@
       <c r="Q52" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -15341,8 +15393,9 @@
       <c r="Q53" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -15392,8 +15445,9 @@
       <c r="Q54" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -15443,8 +15497,9 @@
       <c r="Q55" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -15494,8 +15549,9 @@
       <c r="Q56" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -15545,8 +15601,9 @@
       <c r="Q57" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -15596,8 +15653,9 @@
       <c r="Q58" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -15647,8 +15705,9 @@
       <c r="Q59" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -15698,8 +15757,9 @@
       <c r="Q60" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -15749,8 +15809,9 @@
       <c r="Q61" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -15800,8 +15861,9 @@
       <c r="Q62" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -15851,8 +15913,9 @@
       <c r="Q63" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -15902,8 +15965,9 @@
       <c r="Q64" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -15953,8 +16017,9 @@
       <c r="Q65" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -16004,8 +16069,9 @@
       <c r="Q66" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -16055,8 +16121,9 @@
       <c r="Q67" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -16106,8 +16173,9 @@
       <c r="Q68" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -16157,8 +16225,9 @@
       <c r="Q69" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -16208,8 +16277,9 @@
       <c r="Q70" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -16259,8 +16329,9 @@
       <c r="Q71" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -16310,8 +16381,9 @@
       <c r="Q72" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -16361,8 +16433,9 @@
       <c r="Q73" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -16412,8 +16485,9 @@
       <c r="Q74" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74" s="3"/>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -16463,8 +16537,9 @@
       <c r="Q75" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -16514,8 +16589,9 @@
       <c r="Q76" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76" s="3"/>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -16565,8 +16641,9 @@
       <c r="Q77" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77" s="3"/>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -16616,8 +16693,9 @@
       <c r="Q78" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78" s="3"/>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -16667,8 +16745,9 @@
       <c r="Q79" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79" s="3"/>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -16718,8 +16797,9 @@
       <c r="Q80" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80" s="3"/>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -16769,8 +16849,9 @@
       <c r="Q81" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -16820,8 +16901,9 @@
       <c r="Q82" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -16871,8 +16953,9 @@
       <c r="Q83" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -16922,8 +17005,9 @@
       <c r="Q84" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84" s="3"/>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -16973,8 +17057,9 @@
       <c r="Q85" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85" s="3"/>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -17024,8 +17109,9 @@
       <c r="Q86" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86" s="3"/>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -17075,8 +17161,9 @@
       <c r="Q87" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87" s="3"/>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -17126,8 +17213,9 @@
       <c r="Q88" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -17177,8 +17265,9 @@
       <c r="Q89" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89" s="3"/>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -17228,8 +17317,9 @@
       <c r="Q90" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -17279,8 +17369,9 @@
       <c r="Q91" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91" s="3"/>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -17330,8 +17421,9 @@
       <c r="Q92" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92" s="3"/>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -17381,8 +17473,9 @@
       <c r="Q93" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -17432,8 +17525,9 @@
       <c r="Q94" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94" s="3"/>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -17483,8 +17577,9 @@
       <c r="Q95" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -17534,8 +17629,9 @@
       <c r="Q96" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="R96" s="3"/>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -17585,8 +17681,9 @@
       <c r="Q97" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97" s="3"/>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -17636,8 +17733,9 @@
       <c r="Q98" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98" s="3"/>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -17687,8 +17785,9 @@
       <c r="Q99" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="R99" s="3"/>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -17738,8 +17837,9 @@
       <c r="Q100" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100" s="3"/>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -17789,8 +17889,9 @@
       <c r="Q101" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101" s="3"/>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -17840,8 +17941,9 @@
       <c r="Q102" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="R102" s="3"/>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -17891,8 +17993,9 @@
       <c r="Q103" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103" s="3"/>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -17942,8 +18045,9 @@
       <c r="Q104" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="R104" s="3"/>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -17993,8 +18097,9 @@
       <c r="Q105" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="R105" s="3"/>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -18044,8 +18149,9 @@
       <c r="Q106" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="R106" s="3"/>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -18095,8 +18201,9 @@
       <c r="Q107" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="R107" s="3"/>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -18146,8 +18253,9 @@
       <c r="Q108" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="R108" s="3"/>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -18197,8 +18305,9 @@
       <c r="Q109" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109" s="3"/>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -18248,8 +18357,9 @@
       <c r="Q110" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110" s="3"/>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -18299,8 +18409,9 @@
       <c r="Q111" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="R111" s="3"/>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -18350,8 +18461,9 @@
       <c r="Q112" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112" s="3"/>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -18401,8 +18513,9 @@
       <c r="Q113" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="114" spans="1:17">
+      <c r="R113" s="3"/>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -18452,8 +18565,9 @@
       <c r="Q114" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="R114" s="3"/>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -18503,8 +18617,9 @@
       <c r="Q115" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="R115" s="3"/>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -18554,8 +18669,9 @@
       <c r="Q116" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="117" spans="1:17">
+      <c r="R116" s="3"/>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -18605,8 +18721,9 @@
       <c r="Q117" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="118" spans="1:17">
+      <c r="R117" s="3"/>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -18656,8 +18773,9 @@
       <c r="Q118" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="R118" s="3"/>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -18707,8 +18825,9 @@
       <c r="Q119" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="120" spans="1:17">
+      <c r="R119" s="3"/>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -18758,8 +18877,9 @@
       <c r="Q120" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="121" spans="1:17">
+      <c r="R120" s="3"/>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -18809,8 +18929,9 @@
       <c r="Q121" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="122" spans="1:17">
+      <c r="R121" s="3"/>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -18860,8 +18981,9 @@
       <c r="Q122" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="123" spans="1:17">
+      <c r="R122" s="3"/>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -18911,8 +19033,9 @@
       <c r="Q123" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="124" spans="1:17">
+      <c r="R123" s="3"/>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -18962,8 +19085,9 @@
       <c r="Q124" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="125" spans="1:17">
+      <c r="R124" s="3"/>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -19013,8 +19137,9 @@
       <c r="Q125" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="126" spans="1:17">
+      <c r="R125" s="3"/>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -19064,8 +19189,9 @@
       <c r="Q126" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="127" spans="1:17">
+      <c r="R126" s="3"/>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -19115,8 +19241,9 @@
       <c r="Q127" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="128" spans="1:17">
+      <c r="R127" s="3"/>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -19166,8 +19293,9 @@
       <c r="Q128" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="129" spans="1:17">
+      <c r="R128" s="3"/>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -19217,8 +19345,9 @@
       <c r="Q129" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="130" spans="1:17">
+      <c r="R129" s="3"/>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -19268,8 +19397,9 @@
       <c r="Q130" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="131" spans="1:17">
+      <c r="R130" s="3"/>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -19319,8 +19449,9 @@
       <c r="Q131" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="132" spans="1:17">
+      <c r="R131" s="3"/>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -19370,8 +19501,9 @@
       <c r="Q132" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="133" spans="1:17">
+      <c r="R132" s="3"/>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -19421,8 +19553,9 @@
       <c r="Q133" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="134" spans="1:17">
+      <c r="R133" s="3"/>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -19472,8 +19605,9 @@
       <c r="Q134" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="135" spans="1:17">
+      <c r="R134" s="3"/>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -19523,8 +19657,9 @@
       <c r="Q135" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="136" spans="1:17">
+      <c r="R135" s="3"/>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -19574,8 +19709,9 @@
       <c r="Q136" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="137" spans="1:17">
+      <c r="R136" s="3"/>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -19625,8 +19761,9 @@
       <c r="Q137" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="138" spans="1:17">
+      <c r="R137" s="3"/>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -19676,8 +19813,9 @@
       <c r="Q138" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="139" spans="1:17">
+      <c r="R138" s="3"/>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -19727,8 +19865,9 @@
       <c r="Q139" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="140" spans="1:17">
+      <c r="R139" s="3"/>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -19778,8 +19917,9 @@
       <c r="Q140" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="141" spans="1:17">
+      <c r="R140" s="3"/>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -19829,8 +19969,9 @@
       <c r="Q141" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="142" spans="1:17">
+      <c r="R141" s="3"/>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -19880,8 +20021,9 @@
       <c r="Q142" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="143" spans="1:17">
+      <c r="R142" s="3"/>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -19931,8 +20073,9 @@
       <c r="Q143" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="144" spans="1:17">
+      <c r="R143" s="3"/>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -19982,8 +20125,9 @@
       <c r="Q144" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="145" spans="1:17">
+      <c r="R144" s="3"/>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -20033,8 +20177,9 @@
       <c r="Q145" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="146" spans="1:17">
+      <c r="R145" s="3"/>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -20084,8 +20229,9 @@
       <c r="Q146" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="147" spans="1:17">
+      <c r="R146" s="3"/>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -20135,8 +20281,9 @@
       <c r="Q147" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="148" spans="1:17">
+      <c r="R147" s="3"/>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -20186,8 +20333,9 @@
       <c r="Q148" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="149" spans="1:17">
+      <c r="R148" s="3"/>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -20237,8 +20385,9 @@
       <c r="Q149" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="150" spans="1:17">
+      <c r="R149" s="3"/>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -20288,8 +20437,9 @@
       <c r="Q150" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="151" spans="1:17">
+      <c r="R150" s="3"/>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -20339,8 +20489,9 @@
       <c r="Q151" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="152" spans="1:17">
+      <c r="R151" s="3"/>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -20390,8 +20541,9 @@
       <c r="Q152" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="153" spans="1:17">
+      <c r="R152" s="3"/>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -20441,8 +20593,9 @@
       <c r="Q153" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="154" spans="1:17">
+      <c r="R153" s="3"/>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -20492,8 +20645,9 @@
       <c r="Q154" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="155" spans="1:17">
+      <c r="R154" s="3"/>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -20543,8 +20697,9 @@
       <c r="Q155" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="156" spans="1:17">
+      <c r="R155" s="3"/>
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -20594,8 +20749,9 @@
       <c r="Q156" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="157" spans="1:17">
+      <c r="R156" s="3"/>
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -20645,8 +20801,9 @@
       <c r="Q157" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="158" spans="1:17">
+      <c r="R157" s="3"/>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -20696,8 +20853,9 @@
       <c r="Q158" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="159" spans="1:17">
+      <c r="R158" s="3"/>
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -20747,8 +20905,9 @@
       <c r="Q159" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="160" spans="1:17">
+      <c r="R159" s="3"/>
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -20798,8 +20957,9 @@
       <c r="Q160" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="161" spans="1:17">
+      <c r="R160" s="3"/>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -20849,8 +21009,9 @@
       <c r="Q161" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="162" spans="1:17">
+      <c r="R161" s="3"/>
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -20900,8 +21061,9 @@
       <c r="Q162" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="163" spans="1:17">
+      <c r="R162" s="3"/>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -20951,8 +21113,9 @@
       <c r="Q163" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="164" spans="1:17">
+      <c r="R163" s="3"/>
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -21002,8 +21165,9 @@
       <c r="Q164" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="165" spans="1:17">
+      <c r="R164" s="3"/>
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -21053,8 +21217,9 @@
       <c r="Q165" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="166" spans="1:17">
+      <c r="R165" s="3"/>
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -21104,8 +21269,9 @@
       <c r="Q166" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="167" spans="1:17">
+      <c r="R166" s="3"/>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -21155,8 +21321,9 @@
       <c r="Q167" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="168" spans="1:17">
+      <c r="R167" s="3"/>
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -21206,8 +21373,9 @@
       <c r="Q168" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="169" spans="1:17">
+      <c r="R168" s="3"/>
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -21257,8 +21425,9 @@
       <c r="Q169" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="170" spans="1:17">
+      <c r="R169" s="3"/>
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -21308,8 +21477,9 @@
       <c r="Q170" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="171" spans="1:17">
+      <c r="R170" s="3"/>
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -21359,8 +21529,9 @@
       <c r="Q171" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="172" spans="1:17">
+      <c r="R171" s="3"/>
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -21410,8 +21581,9 @@
       <c r="Q172" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="173" spans="1:17">
+      <c r="R172" s="3"/>
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -21461,8 +21633,9 @@
       <c r="Q173" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="174" spans="1:17">
+      <c r="R173" s="3"/>
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -21512,8 +21685,9 @@
       <c r="Q174" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="175" spans="1:17">
+      <c r="R174" s="3"/>
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -21563,8 +21737,9 @@
       <c r="Q175" s="3" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="176" spans="1:17">
+      <c r="R175" s="3"/>
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -21614,8 +21789,9 @@
       <c r="Q176" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="177" spans="1:17">
+      <c r="R176" s="3"/>
+    </row>
+    <row r="177" spans="1:18">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -21665,8 +21841,9 @@
       <c r="Q177" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="178" spans="1:17">
+      <c r="R177" s="3"/>
+    </row>
+    <row r="178" spans="1:18">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -21716,8 +21893,9 @@
       <c r="Q178" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="179" spans="1:17">
+      <c r="R178" s="3"/>
+    </row>
+    <row r="179" spans="1:18">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -21767,8 +21945,9 @@
       <c r="Q179" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="180" spans="1:17">
+      <c r="R179" s="3"/>
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -21818,8 +21997,9 @@
       <c r="Q180" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="181" spans="1:17">
+      <c r="R180" s="3"/>
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -21869,8 +22049,9 @@
       <c r="Q181" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="182" spans="1:17">
+      <c r="R181" s="3"/>
+    </row>
+    <row r="182" spans="1:18">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -21920,8 +22101,9 @@
       <c r="Q182" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="183" spans="1:17">
+      <c r="R182" s="3"/>
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -21971,8 +22153,9 @@
       <c r="Q183" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="184" spans="1:17">
+      <c r="R183" s="3"/>
+    </row>
+    <row r="184" spans="1:18">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -22022,8 +22205,9 @@
       <c r="Q184" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="185" spans="1:17">
+      <c r="R184" s="3"/>
+    </row>
+    <row r="185" spans="1:18">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -22073,8 +22257,9 @@
       <c r="Q185" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="186" spans="1:17">
+      <c r="R185" s="3"/>
+    </row>
+    <row r="186" spans="1:18">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -22124,6 +22309,7 @@
       <c r="Q186" s="3" t="s">
         <v>1169</v>
       </c>
+      <c r="R186" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L186" xr:uid="{B89E02D6-4111-4531-B9F3-268755ADB59C}"/>
@@ -22135,10 +22321,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E02281-31CD-436C-98F7-A9A505A87453}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22155,7 +22341,7 @@
     <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -22175,10 +22361,10 @@
         <v>535</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1810</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
@@ -22186,8 +22372,11 @@
       <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="10" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -22219,7 +22408,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -22251,7 +22440,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -22283,7 +22472,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -22315,7 +22504,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -22347,7 +22536,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -22379,7 +22568,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -22411,7 +22600,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -22443,7 +22632,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -22475,7 +22664,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -22507,7 +22696,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -22539,7 +22728,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -22571,7 +22760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -22603,7 +22792,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -22635,7 +22824,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -22838,7 +23027,7 @@
   <dimension ref="A1:O350"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L1" sqref="L1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -38669,10 +38858,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57047C20-427F-4634-B09D-E225BFE2B37C}">
-  <dimension ref="A1:W131"/>
+  <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -38702,7 +38891,7 @@
     <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -38763,17 +38952,20 @@
       <c r="T1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="U1" s="9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>1756</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -38842,7 +39034,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -38911,7 +39103,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -38980,7 +39172,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -39049,7 +39241,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -39118,7 +39310,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -39187,7 +39379,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -39256,7 +39448,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -39325,7 +39517,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -39394,7 +39586,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -39463,7 +39655,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -39532,7 +39724,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -39601,7 +39793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -39670,7 +39862,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -39739,7 +39931,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" s="6">
         <v>15</v>
       </c>

--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55D3A1-650F-4783-9722-E1AA9888D5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D20C747-018A-4472-A6DD-633A973B2C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7233,10 +7233,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7289,7 +7290,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" ht="15" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11" ht="15" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7357,9 +7358,11 @@
         <f t="shared" ref="J3:J66" si="0">TEXT(H3,"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15">
+      <c r="K3" s="8">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" ht="15" hidden="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7427,9 +7430,11 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="15">
+      <c r="K5" s="8">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7465,7 +7470,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" ht="15" hidden="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7501,7 +7506,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11" ht="15" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7537,7 +7542,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11" ht="15" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7569,9 +7574,11 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="15">
+      <c r="K9" s="8">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7603,9 +7610,11 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="15">
+      <c r="K10" s="8">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7637,9 +7646,11 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" ht="15">
+      <c r="K11" s="8">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7675,7 +7686,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:11" ht="15" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7711,7 +7722,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:11" ht="15" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7743,9 +7754,11 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" ht="15">
+      <c r="K14" s="8">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7781,7 +7794,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:11" ht="15" hidden="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7817,7 +7830,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:11" ht="15" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7853,7 +7866,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15">
+    <row r="18" spans="1:11" ht="15" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7889,7 +7902,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15">
+    <row r="19" spans="1:11" ht="15" hidden="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7925,7 +7938,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11" ht="15" hidden="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7961,7 +7974,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:11" ht="15" hidden="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7997,7 +8010,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11" ht="15" hidden="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8033,7 +8046,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11" ht="15" hidden="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8069,7 +8082,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11" ht="15" hidden="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8103,7 +8116,7 @@
       </c>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" ht="15">
+    <row r="25" spans="1:11" ht="15" hidden="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8137,7 +8150,7 @@
       </c>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="15">
+    <row r="26" spans="1:11" ht="15" hidden="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8171,7 +8184,7 @@
       </c>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11" ht="15" hidden="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8207,7 +8220,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15">
+    <row r="28" spans="1:11" ht="15" hidden="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8243,7 +8256,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15">
+    <row r="29" spans="1:11" ht="15" hidden="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8279,7 +8292,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15">
+    <row r="30" spans="1:11" ht="15" hidden="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8313,7 +8326,7 @@
       </c>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" ht="15">
+    <row r="31" spans="1:11" ht="15" hidden="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8347,7 +8360,7 @@
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" ht="15">
+    <row r="32" spans="1:11" ht="15" hidden="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8381,7 +8394,7 @@
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" ht="15">
+    <row r="33" spans="1:11" ht="15" hidden="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8417,7 +8430,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15">
+    <row r="34" spans="1:11" ht="15" hidden="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8451,7 +8464,7 @@
       </c>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" ht="15">
+    <row r="35" spans="1:11" ht="15" hidden="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8487,7 +8500,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15">
+    <row r="36" spans="1:11" ht="15" hidden="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8523,7 +8536,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15">
+    <row r="37" spans="1:11" ht="15" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8557,7 +8570,7 @@
       </c>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="15">
+    <row r="38" spans="1:11" ht="15" hidden="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8593,7 +8606,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15">
+    <row r="39" spans="1:11" ht="15" hidden="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8627,7 +8640,7 @@
       </c>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" ht="15">
+    <row r="40" spans="1:11" ht="15" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8663,7 +8676,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15">
+    <row r="41" spans="1:11" ht="15" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8699,7 +8712,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15">
+    <row r="42" spans="1:11" ht="15" hidden="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8733,7 +8746,7 @@
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" ht="15">
+    <row r="43" spans="1:11" ht="15" hidden="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8767,7 +8780,7 @@
       </c>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" ht="15">
+    <row r="44" spans="1:11" ht="15" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8803,7 +8816,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15">
+    <row r="45" spans="1:11" ht="15" hidden="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8837,7 +8850,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" ht="15">
+    <row r="46" spans="1:11" ht="15" hidden="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8871,7 +8884,7 @@
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" ht="15">
+    <row r="47" spans="1:11" ht="15" hidden="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8907,7 +8920,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15">
+    <row r="48" spans="1:11" ht="15" hidden="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8943,7 +8956,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15">
+    <row r="49" spans="1:11" ht="15" hidden="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8977,7 +8990,7 @@
       </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" ht="15">
+    <row r="50" spans="1:11" ht="15" hidden="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -9011,7 +9024,7 @@
       </c>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" ht="15">
+    <row r="51" spans="1:11" ht="15" hidden="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -9045,7 +9058,7 @@
       </c>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" ht="15">
+    <row r="52" spans="1:11" ht="15" hidden="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -9079,7 +9092,7 @@
       </c>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11" ht="15">
+    <row r="53" spans="1:11" ht="15" hidden="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9113,7 +9126,7 @@
       </c>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11" ht="15">
+    <row r="54" spans="1:11" ht="15" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9149,7 +9162,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15">
+    <row r="55" spans="1:11" ht="15" hidden="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -9183,7 +9196,7 @@
       </c>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" ht="15">
+    <row r="56" spans="1:11" ht="15" hidden="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9219,7 +9232,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15">
+    <row r="57" spans="1:11" ht="15" hidden="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9255,7 +9268,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15">
+    <row r="58" spans="1:11" ht="15" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -9291,7 +9304,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15">
+    <row r="59" spans="1:11" ht="15" hidden="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9327,7 +9340,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15">
+    <row r="60" spans="1:11" ht="15" hidden="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -9361,7 +9374,7 @@
       </c>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" ht="15">
+    <row r="61" spans="1:11" ht="15" hidden="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9395,7 +9408,7 @@
       </c>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" ht="15">
+    <row r="62" spans="1:11" ht="15" hidden="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9429,7 +9442,7 @@
       </c>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" ht="15">
+    <row r="63" spans="1:11" ht="15" hidden="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9463,7 +9476,7 @@
       </c>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" ht="15">
+    <row r="64" spans="1:11" ht="15" hidden="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9497,7 +9510,7 @@
       </c>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" ht="15">
+    <row r="65" spans="1:11" ht="15" hidden="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9531,7 +9544,7 @@
       </c>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11" ht="15">
+    <row r="66" spans="1:11" ht="15" hidden="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9565,7 +9578,7 @@
       </c>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" ht="15">
+    <row r="67" spans="1:11" ht="15" hidden="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9597,9 +9610,11 @@
         <f t="shared" ref="J67:J130" si="1">TEXT(H67,"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="K67" s="8"/>
-    </row>
-    <row r="68" spans="1:11" ht="15">
+      <c r="K67" s="8">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15" hidden="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9633,7 +9648,7 @@
       </c>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" ht="15">
+    <row r="69" spans="1:11" ht="15" hidden="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9665,9 +9680,11 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K69" s="8"/>
-    </row>
-    <row r="70" spans="1:11" ht="15">
+      <c r="K69" s="8">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" hidden="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9701,7 +9718,7 @@
       </c>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" ht="15">
+    <row r="71" spans="1:11" ht="15" hidden="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9735,7 +9752,7 @@
       </c>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" ht="15">
+    <row r="72" spans="1:11" ht="15" hidden="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9769,7 +9786,7 @@
       </c>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" ht="15">
+    <row r="73" spans="1:11" ht="15" hidden="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9803,7 +9820,7 @@
       </c>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" ht="15">
+    <row r="74" spans="1:11" ht="15" hidden="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9835,9 +9852,11 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K74" s="8"/>
-    </row>
-    <row r="75" spans="1:11" ht="15">
+      <c r="K74" s="8">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15" hidden="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9871,7 +9890,7 @@
       </c>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" ht="15">
+    <row r="76" spans="1:11" ht="15" hidden="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9905,7 +9924,7 @@
       </c>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" ht="15">
+    <row r="77" spans="1:11" ht="15" hidden="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9939,7 +9958,7 @@
       </c>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" ht="15">
+    <row r="78" spans="1:11" ht="15" hidden="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9973,7 +9992,7 @@
       </c>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" ht="15">
+    <row r="79" spans="1:11" ht="15" hidden="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10007,7 +10026,7 @@
       </c>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" ht="15">
+    <row r="80" spans="1:11" ht="15" hidden="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10041,7 +10060,7 @@
       </c>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" ht="15">
+    <row r="81" spans="1:11" ht="15" hidden="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10075,7 +10094,7 @@
       </c>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" ht="15">
+    <row r="82" spans="1:11" ht="15" hidden="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10109,7 +10128,7 @@
       </c>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" ht="15">
+    <row r="83" spans="1:11" ht="15" hidden="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10143,7 +10162,7 @@
       </c>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" ht="15">
+    <row r="84" spans="1:11" ht="15" hidden="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10177,7 +10196,7 @@
       </c>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" ht="15">
+    <row r="85" spans="1:11" ht="15" hidden="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10213,7 +10232,7 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15">
+    <row r="86" spans="1:11" ht="15" hidden="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10247,7 +10266,7 @@
       </c>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" ht="15">
+    <row r="87" spans="1:11" ht="15" hidden="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10315,9 +10334,11 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K88" s="8"/>
-    </row>
-    <row r="89" spans="1:11" ht="15">
+      <c r="K88" s="8">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15" hidden="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10349,9 +10370,11 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K89" s="8"/>
-    </row>
-    <row r="90" spans="1:11" ht="15">
+      <c r="K89" s="8">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15" hidden="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10385,7 +10408,7 @@
       </c>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="1:11" ht="15">
+    <row r="91" spans="1:11" ht="15" hidden="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10419,7 +10442,7 @@
       </c>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" ht="15">
+    <row r="92" spans="1:11" ht="15" hidden="1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10453,7 +10476,7 @@
       </c>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" ht="15">
+    <row r="93" spans="1:11" ht="15" hidden="1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10489,7 +10512,7 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15">
+    <row r="94" spans="1:11" ht="15" hidden="1">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -10523,7 +10546,7 @@
       </c>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" ht="15">
+    <row r="95" spans="1:11" ht="15" hidden="1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10557,7 +10580,7 @@
       </c>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" ht="15">
+    <row r="96" spans="1:11" ht="15" hidden="1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -10591,7 +10614,7 @@
       </c>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" ht="15">
+    <row r="97" spans="1:11" ht="15" hidden="1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10625,7 +10648,7 @@
       </c>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" ht="15">
+    <row r="98" spans="1:11" ht="15" hidden="1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10659,7 +10682,7 @@
       </c>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" ht="15">
+    <row r="99" spans="1:11" ht="15" hidden="1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10693,7 +10716,7 @@
       </c>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" ht="15">
+    <row r="100" spans="1:11" ht="15" hidden="1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10729,7 +10752,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15">
+    <row r="101" spans="1:11" ht="15" hidden="1">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10763,7 +10786,7 @@
       </c>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" ht="15">
+    <row r="102" spans="1:11" ht="15" hidden="1">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10799,7 +10822,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15">
+    <row r="103" spans="1:11" ht="15" hidden="1">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10833,7 +10856,7 @@
       </c>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="15">
+    <row r="104" spans="1:11" ht="15" hidden="1">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10867,7 +10890,7 @@
       </c>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="15">
+    <row r="105" spans="1:11" ht="15" hidden="1">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10903,7 +10926,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15">
+    <row r="106" spans="1:11" ht="15" hidden="1">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10939,7 +10962,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15">
+    <row r="107" spans="1:11" ht="15" hidden="1">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10975,7 +10998,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15">
+    <row r="108" spans="1:11" ht="15" hidden="1">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -11011,7 +11034,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15">
+    <row r="109" spans="1:11" ht="15" hidden="1">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -11047,7 +11070,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15">
+    <row r="110" spans="1:11" ht="15" hidden="1">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11083,7 +11106,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15">
+    <row r="111" spans="1:11" ht="15" hidden="1">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11119,7 +11142,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15">
+    <row r="112" spans="1:11" ht="15" hidden="1">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11153,7 +11176,7 @@
       </c>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" ht="15">
+    <row r="113" spans="1:11" ht="15" hidden="1">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11187,7 +11210,7 @@
       </c>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="15">
+    <row r="114" spans="1:11" ht="15" hidden="1">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11221,7 +11244,7 @@
       </c>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="15">
+    <row r="115" spans="1:11" ht="15" hidden="1">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11257,7 +11280,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15">
+    <row r="116" spans="1:11" ht="15" hidden="1">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11293,7 +11316,7 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15">
+    <row r="117" spans="1:11" ht="15" hidden="1">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11327,7 +11350,7 @@
       </c>
       <c r="K117" s="8"/>
     </row>
-    <row r="118" spans="1:11" ht="15">
+    <row r="118" spans="1:11" ht="15" hidden="1">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11363,7 +11386,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15">
+    <row r="119" spans="1:11" ht="15" hidden="1">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11399,7 +11422,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15">
+    <row r="120" spans="1:11" ht="15" hidden="1">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11433,7 +11456,7 @@
       </c>
       <c r="K120" s="8"/>
     </row>
-    <row r="121" spans="1:11" ht="15">
+    <row r="121" spans="1:11" ht="15" hidden="1">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11469,7 +11492,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15">
+    <row r="122" spans="1:11" ht="15" hidden="1">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11503,7 +11526,7 @@
       </c>
       <c r="K122" s="8"/>
     </row>
-    <row r="123" spans="1:11" ht="15">
+    <row r="123" spans="1:11" ht="15" hidden="1">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11537,7 +11560,7 @@
       </c>
       <c r="K123" s="8"/>
     </row>
-    <row r="124" spans="1:11" ht="15">
+    <row r="124" spans="1:11" ht="15" hidden="1">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11571,7 +11594,7 @@
       </c>
       <c r="K124" s="8"/>
     </row>
-    <row r="125" spans="1:11" ht="15">
+    <row r="125" spans="1:11" ht="15" hidden="1">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11605,7 +11628,7 @@
       </c>
       <c r="K125" s="8"/>
     </row>
-    <row r="126" spans="1:11" ht="15">
+    <row r="126" spans="1:11" ht="15" hidden="1">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11639,7 +11662,7 @@
       </c>
       <c r="K126" s="8"/>
     </row>
-    <row r="127" spans="1:11" ht="15">
+    <row r="127" spans="1:11" ht="15" hidden="1">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -11673,7 +11696,7 @@
       </c>
       <c r="K127" s="8"/>
     </row>
-    <row r="128" spans="1:11" ht="15">
+    <row r="128" spans="1:11" ht="15" hidden="1">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -11709,7 +11732,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15">
+    <row r="129" spans="1:11" ht="15" hidden="1">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -11743,7 +11766,7 @@
       </c>
       <c r="K129" s="8"/>
     </row>
-    <row r="130" spans="1:11" ht="15">
+    <row r="130" spans="1:11" ht="15" hidden="1">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -11777,7 +11800,7 @@
       </c>
       <c r="K130" s="8"/>
     </row>
-    <row r="131" spans="1:11" ht="15">
+    <row r="131" spans="1:11" ht="15" hidden="1">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -11811,7 +11834,7 @@
       </c>
       <c r="K131" s="8"/>
     </row>
-    <row r="132" spans="1:11" ht="15">
+    <row r="132" spans="1:11" ht="15" hidden="1">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -11845,7 +11868,7 @@
       </c>
       <c r="K132" s="8"/>
     </row>
-    <row r="133" spans="1:11" ht="15">
+    <row r="133" spans="1:11" ht="15" hidden="1">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -11879,7 +11902,7 @@
       </c>
       <c r="K133" s="8"/>
     </row>
-    <row r="134" spans="1:11" ht="15">
+    <row r="134" spans="1:11" ht="15" hidden="1">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -11913,7 +11936,7 @@
       </c>
       <c r="K134" s="8"/>
     </row>
-    <row r="135" spans="1:11" ht="15">
+    <row r="135" spans="1:11" ht="15" hidden="1">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -11947,7 +11970,7 @@
       </c>
       <c r="K135" s="8"/>
     </row>
-    <row r="136" spans="1:11" ht="15">
+    <row r="136" spans="1:11" ht="15" hidden="1">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -11981,7 +12004,7 @@
       </c>
       <c r="K136" s="8"/>
     </row>
-    <row r="137" spans="1:11" ht="15">
+    <row r="137" spans="1:11" ht="15" hidden="1">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12015,7 +12038,7 @@
       </c>
       <c r="K137" s="8"/>
     </row>
-    <row r="138" spans="1:11" ht="15">
+    <row r="138" spans="1:11" ht="15" hidden="1">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12049,7 +12072,7 @@
       </c>
       <c r="K138" s="8"/>
     </row>
-    <row r="139" spans="1:11" ht="15">
+    <row r="139" spans="1:11" ht="15" hidden="1">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12083,7 +12106,7 @@
       </c>
       <c r="K139" s="8"/>
     </row>
-    <row r="140" spans="1:11" ht="15">
+    <row r="140" spans="1:11" ht="15" hidden="1">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -12117,7 +12140,7 @@
       </c>
       <c r="K140" s="8"/>
     </row>
-    <row r="141" spans="1:11" ht="15">
+    <row r="141" spans="1:11" ht="15" hidden="1">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -12151,7 +12174,7 @@
       </c>
       <c r="K141" s="8"/>
     </row>
-    <row r="142" spans="1:11" ht="15">
+    <row r="142" spans="1:11" ht="15" hidden="1">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -12185,7 +12208,7 @@
       </c>
       <c r="K142" s="8"/>
     </row>
-    <row r="143" spans="1:11" ht="15">
+    <row r="143" spans="1:11" ht="15" hidden="1">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -12219,7 +12242,7 @@
       </c>
       <c r="K143" s="8"/>
     </row>
-    <row r="144" spans="1:11" ht="15">
+    <row r="144" spans="1:11" ht="15" hidden="1">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -12253,7 +12276,7 @@
       </c>
       <c r="K144" s="8"/>
     </row>
-    <row r="145" spans="1:11" ht="15">
+    <row r="145" spans="1:11" ht="15" hidden="1">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -12287,7 +12310,7 @@
       </c>
       <c r="K145" s="8"/>
     </row>
-    <row r="146" spans="1:11" ht="15">
+    <row r="146" spans="1:11" ht="15" hidden="1">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -12321,7 +12344,7 @@
       </c>
       <c r="K146" s="8"/>
     </row>
-    <row r="147" spans="1:11" ht="15">
+    <row r="147" spans="1:11" ht="15" hidden="1">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -12355,7 +12378,7 @@
       </c>
       <c r="K147" s="8"/>
     </row>
-    <row r="148" spans="1:11" ht="15">
+    <row r="148" spans="1:11" ht="15" hidden="1">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -12389,7 +12412,7 @@
       </c>
       <c r="K148" s="8"/>
     </row>
-    <row r="149" spans="1:11" ht="15">
+    <row r="149" spans="1:11" ht="15" hidden="1">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -12423,7 +12446,7 @@
       </c>
       <c r="K149" s="8"/>
     </row>
-    <row r="150" spans="1:11" ht="15">
+    <row r="150" spans="1:11" ht="15" hidden="1">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -12457,7 +12480,7 @@
       </c>
       <c r="K150" s="8"/>
     </row>
-    <row r="151" spans="1:11" ht="15">
+    <row r="151" spans="1:11" ht="15" hidden="1">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -12491,7 +12514,7 @@
       </c>
       <c r="K151" s="8"/>
     </row>
-    <row r="152" spans="1:11" ht="15">
+    <row r="152" spans="1:11" ht="15" hidden="1">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -12525,7 +12548,7 @@
       </c>
       <c r="K152" s="8"/>
     </row>
-    <row r="153" spans="1:11" ht="15">
+    <row r="153" spans="1:11" ht="15" hidden="1">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -12559,7 +12582,7 @@
       </c>
       <c r="K153" s="8"/>
     </row>
-    <row r="154" spans="1:11" ht="15">
+    <row r="154" spans="1:11" ht="15" hidden="1">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -12597,7 +12620,13 @@
       <c r="I160" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K154" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K154" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Kandal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D20C747-018A-4472-A6DD-633A973B2C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9580DE31-B997-481A-9927-924E0DC53B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="153_ZTE_UPGRADE" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7836" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7972" uniqueCount="1859">
   <si>
     <t>No.</t>
   </si>
@@ -5635,6 +5635,26 @@
   </si>
   <si>
     <t>FO Readiness Dependency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waiting Work Permit Approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFI Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX Readiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAP OA Analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5762,7 +5782,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5796,6 +5816,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7233,11 +7256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7253,9 +7275,10 @@
     <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7289,8 +7312,11 @@
       <c r="K1" s="10" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" hidden="1">
+      <c r="L1" s="14" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7326,7 +7352,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" hidden="1">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7362,7 +7388,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" hidden="1">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7398,7 +7424,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" hidden="1">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7434,7 +7460,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" hidden="1">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7470,7 +7496,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" hidden="1">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7506,7 +7532,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" hidden="1">
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7542,7 +7568,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" hidden="1">
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7578,7 +7604,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" hidden="1">
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7614,7 +7640,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" hidden="1">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7650,7 +7676,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" hidden="1">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7686,7 +7712,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" hidden="1">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7722,7 +7748,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" hidden="1">
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7758,7 +7784,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" hidden="1">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7794,7 +7820,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" hidden="1">
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7830,7 +7856,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" hidden="1">
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7866,7 +7892,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" hidden="1">
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7902,7 +7928,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" hidden="1">
+    <row r="19" spans="1:12" ht="15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7938,7 +7964,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" hidden="1">
+    <row r="20" spans="1:12" ht="15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7974,7 +8000,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" hidden="1">
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8010,7 +8036,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" hidden="1">
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8046,7 +8072,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" hidden="1">
+    <row r="23" spans="1:12" ht="15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8082,7 +8108,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" hidden="1">
+    <row r="24" spans="1:12" ht="15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8115,8 +8141,11 @@
         <v>April</v>
       </c>
       <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" hidden="1">
+      <c r="L24" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8149,8 +8178,11 @@
         <v>April</v>
       </c>
       <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" hidden="1">
+      <c r="L25" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8183,8 +8215,11 @@
         <v>April</v>
       </c>
       <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" hidden="1">
+      <c r="L26" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8220,7 +8255,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" hidden="1">
+    <row r="28" spans="1:12" ht="15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8256,7 +8291,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" hidden="1">
+    <row r="29" spans="1:12" ht="15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8292,7 +8327,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" hidden="1">
+    <row r="30" spans="1:12" ht="15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8325,8 +8360,11 @@
         <v>April</v>
       </c>
       <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" hidden="1">
+      <c r="L30" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8359,8 +8397,11 @@
         <v>April</v>
       </c>
       <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" hidden="1">
+      <c r="L31" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8393,8 +8434,11 @@
         <v>April</v>
       </c>
       <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" hidden="1">
+      <c r="L32" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8430,7 +8474,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" hidden="1">
+    <row r="34" spans="1:12" ht="15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8463,8 +8507,11 @@
         <v>April</v>
       </c>
       <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" hidden="1">
+      <c r="L34" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8500,7 +8547,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" hidden="1">
+    <row r="36" spans="1:12" ht="15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8536,7 +8583,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" hidden="1">
+    <row r="37" spans="1:12" ht="15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8569,8 +8616,11 @@
         <v>April</v>
       </c>
       <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" hidden="1">
+      <c r="L37" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8606,7 +8656,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" hidden="1">
+    <row r="39" spans="1:12" ht="15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8639,8 +8689,11 @@
         <v>April</v>
       </c>
       <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:11" ht="15" hidden="1">
+      <c r="L39" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8676,7 +8729,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" hidden="1">
+    <row r="41" spans="1:12" ht="15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8712,7 +8765,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" hidden="1">
+    <row r="42" spans="1:12" ht="15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8745,8 +8798,11 @@
         <v>April</v>
       </c>
       <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="1:11" ht="15" hidden="1">
+      <c r="L42" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8779,8 +8835,11 @@
         <v>April</v>
       </c>
       <c r="K43" s="8"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" hidden="1">
+      <c r="L43" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8816,7 +8875,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" hidden="1">
+    <row r="45" spans="1:12" ht="15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8849,8 +8908,11 @@
         <v>April</v>
       </c>
       <c r="K45" s="8"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" hidden="1">
+      <c r="L45" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8883,8 +8945,11 @@
         <v>April</v>
       </c>
       <c r="K46" s="8"/>
-    </row>
-    <row r="47" spans="1:11" ht="15" hidden="1">
+      <c r="L46" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8920,7 +8985,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" hidden="1">
+    <row r="48" spans="1:12" ht="15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8956,7 +9021,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" hidden="1">
+    <row r="49" spans="1:12" ht="15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8989,8 +9054,11 @@
         <v>April</v>
       </c>
       <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="1:11" ht="15" hidden="1">
+      <c r="L49" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -9023,8 +9091,11 @@
         <v>April</v>
       </c>
       <c r="K50" s="8"/>
-    </row>
-    <row r="51" spans="1:11" ht="15" hidden="1">
+      <c r="L50" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -9057,8 +9128,11 @@
         <v>April</v>
       </c>
       <c r="K51" s="8"/>
-    </row>
-    <row r="52" spans="1:11" ht="15" hidden="1">
+      <c r="L51" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -9091,8 +9165,11 @@
         <v>April</v>
       </c>
       <c r="K52" s="8"/>
-    </row>
-    <row r="53" spans="1:11" ht="15" hidden="1">
+      <c r="L52" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9125,8 +9202,11 @@
         <v>April</v>
       </c>
       <c r="K53" s="8"/>
-    </row>
-    <row r="54" spans="1:11" ht="15" hidden="1">
+      <c r="L53" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9162,7 +9242,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" hidden="1">
+    <row r="55" spans="1:12" ht="15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -9195,8 +9275,11 @@
         <v>April</v>
       </c>
       <c r="K55" s="8"/>
-    </row>
-    <row r="56" spans="1:11" ht="15" hidden="1">
+      <c r="L55" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9232,7 +9315,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" hidden="1">
+    <row r="57" spans="1:12" ht="15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9268,7 +9351,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" hidden="1">
+    <row r="58" spans="1:12" ht="15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -9304,7 +9387,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" hidden="1">
+    <row r="59" spans="1:12" ht="15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9340,7 +9423,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" hidden="1">
+    <row r="60" spans="1:12" ht="15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -9373,8 +9456,11 @@
         <v>April</v>
       </c>
       <c r="K60" s="8"/>
-    </row>
-    <row r="61" spans="1:11" ht="15" hidden="1">
+      <c r="L60" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9407,8 +9493,11 @@
         <v>April</v>
       </c>
       <c r="K61" s="8"/>
-    </row>
-    <row r="62" spans="1:11" ht="15" hidden="1">
+      <c r="L61" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9441,8 +9530,11 @@
         <v>April</v>
       </c>
       <c r="K62" s="8"/>
-    </row>
-    <row r="63" spans="1:11" ht="15" hidden="1">
+      <c r="L62" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9475,8 +9567,11 @@
         <v>April</v>
       </c>
       <c r="K63" s="8"/>
-    </row>
-    <row r="64" spans="1:11" ht="15" hidden="1">
+      <c r="L63" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9509,8 +9604,11 @@
         <v>April</v>
       </c>
       <c r="K64" s="8"/>
-    </row>
-    <row r="65" spans="1:11" ht="15" hidden="1">
+      <c r="L64" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9543,8 +9641,11 @@
         <v>April</v>
       </c>
       <c r="K65" s="8"/>
-    </row>
-    <row r="66" spans="1:11" ht="15" hidden="1">
+      <c r="L65" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9577,8 +9678,11 @@
         <v>April</v>
       </c>
       <c r="K66" s="8"/>
-    </row>
-    <row r="67" spans="1:11" ht="15" hidden="1">
+      <c r="L66" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9614,7 +9718,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15" hidden="1">
+    <row r="68" spans="1:12" ht="15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9647,8 +9751,11 @@
         <v>April</v>
       </c>
       <c r="K68" s="8"/>
-    </row>
-    <row r="69" spans="1:11" ht="15" hidden="1">
+      <c r="L68" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9684,7 +9791,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" hidden="1">
+    <row r="70" spans="1:12" ht="15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9717,8 +9824,11 @@
         <v>April</v>
       </c>
       <c r="K70" s="8"/>
-    </row>
-    <row r="71" spans="1:11" ht="15" hidden="1">
+      <c r="L70" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9751,8 +9861,11 @@
         <v>April</v>
       </c>
       <c r="K71" s="8"/>
-    </row>
-    <row r="72" spans="1:11" ht="15" hidden="1">
+      <c r="L71" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9785,8 +9898,11 @@
         <v>April</v>
       </c>
       <c r="K72" s="8"/>
-    </row>
-    <row r="73" spans="1:11" ht="15" hidden="1">
+      <c r="L72" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9819,8 +9935,11 @@
         <v>April</v>
       </c>
       <c r="K73" s="8"/>
-    </row>
-    <row r="74" spans="1:11" ht="15" hidden="1">
+      <c r="L73" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9856,7 +9975,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15" hidden="1">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9889,8 +10008,11 @@
         <v>April</v>
       </c>
       <c r="K75" s="8"/>
-    </row>
-    <row r="76" spans="1:11" ht="15" hidden="1">
+      <c r="L75" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9923,8 +10045,11 @@
         <v>April</v>
       </c>
       <c r="K76" s="8"/>
-    </row>
-    <row r="77" spans="1:11" ht="15" hidden="1">
+      <c r="L76" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9957,8 +10082,11 @@
         <v>April</v>
       </c>
       <c r="K77" s="8"/>
-    </row>
-    <row r="78" spans="1:11" ht="15" hidden="1">
+      <c r="L77" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9991,8 +10119,11 @@
         <v>April</v>
       </c>
       <c r="K78" s="8"/>
-    </row>
-    <row r="79" spans="1:11" ht="15" hidden="1">
+      <c r="L78" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10025,8 +10156,11 @@
         <v>April</v>
       </c>
       <c r="K79" s="8"/>
-    </row>
-    <row r="80" spans="1:11" ht="15" hidden="1">
+      <c r="L79" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10059,8 +10193,11 @@
         <v>April</v>
       </c>
       <c r="K80" s="8"/>
-    </row>
-    <row r="81" spans="1:11" ht="15" hidden="1">
+      <c r="L80" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10093,8 +10230,11 @@
         <v>April</v>
       </c>
       <c r="K81" s="8"/>
-    </row>
-    <row r="82" spans="1:11" ht="15" hidden="1">
+      <c r="L81" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10127,8 +10267,11 @@
         <v>April</v>
       </c>
       <c r="K82" s="8"/>
-    </row>
-    <row r="83" spans="1:11" ht="15" hidden="1">
+      <c r="L82" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10161,8 +10304,11 @@
         <v>April</v>
       </c>
       <c r="K83" s="8"/>
-    </row>
-    <row r="84" spans="1:11" ht="15" hidden="1">
+      <c r="L83" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10195,8 +10341,11 @@
         <v>April</v>
       </c>
       <c r="K84" s="8"/>
-    </row>
-    <row r="85" spans="1:11" ht="15" hidden="1">
+      <c r="L84" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10232,7 +10381,7 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15" hidden="1">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10265,8 +10414,11 @@
         <v>April</v>
       </c>
       <c r="K86" s="8"/>
-    </row>
-    <row r="87" spans="1:11" ht="15" hidden="1">
+      <c r="L86" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10302,7 +10454,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10338,7 +10490,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15" hidden="1">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10374,7 +10526,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15" hidden="1">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10407,8 +10559,11 @@
         <v>April</v>
       </c>
       <c r="K90" s="8"/>
-    </row>
-    <row r="91" spans="1:11" ht="15" hidden="1">
+      <c r="L90" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10441,8 +10596,11 @@
         <v>April</v>
       </c>
       <c r="K91" s="8"/>
-    </row>
-    <row r="92" spans="1:11" ht="15" hidden="1">
+      <c r="L91" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10475,8 +10633,11 @@
         <v>April</v>
       </c>
       <c r="K92" s="8"/>
-    </row>
-    <row r="93" spans="1:11" ht="15" hidden="1">
+      <c r="L92" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10512,7 +10673,7 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15" hidden="1">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -10545,8 +10706,11 @@
         <v>April</v>
       </c>
       <c r="K94" s="8"/>
-    </row>
-    <row r="95" spans="1:11" ht="15" hidden="1">
+      <c r="L94" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -10579,8 +10743,11 @@
         <v>April</v>
       </c>
       <c r="K95" s="8"/>
-    </row>
-    <row r="96" spans="1:11" ht="15" hidden="1">
+      <c r="L95" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -10613,8 +10780,11 @@
         <v>April</v>
       </c>
       <c r="K96" s="8"/>
-    </row>
-    <row r="97" spans="1:11" ht="15" hidden="1">
+      <c r="L96" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10647,8 +10817,11 @@
         <v>April</v>
       </c>
       <c r="K97" s="8"/>
-    </row>
-    <row r="98" spans="1:11" ht="15" hidden="1">
+      <c r="L97" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10681,8 +10854,11 @@
         <v>April</v>
       </c>
       <c r="K98" s="8"/>
-    </row>
-    <row r="99" spans="1:11" ht="15" hidden="1">
+      <c r="L98" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10715,8 +10891,11 @@
         <v>April</v>
       </c>
       <c r="K99" s="8"/>
-    </row>
-    <row r="100" spans="1:11" ht="15" hidden="1">
+      <c r="L99" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10752,7 +10931,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15" hidden="1">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10785,8 +10964,11 @@
         <v>April</v>
       </c>
       <c r="K101" s="8"/>
-    </row>
-    <row r="102" spans="1:11" ht="15" hidden="1">
+      <c r="L101" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10822,7 +11004,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15" hidden="1">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10855,8 +11037,11 @@
         <v>April</v>
       </c>
       <c r="K103" s="8"/>
-    </row>
-    <row r="104" spans="1:11" ht="15" hidden="1">
+      <c r="L103" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10889,8 +11074,11 @@
         <v>April</v>
       </c>
       <c r="K104" s="8"/>
-    </row>
-    <row r="105" spans="1:11" ht="15" hidden="1">
+      <c r="L104" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10926,7 +11114,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15" hidden="1">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10962,7 +11150,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15" hidden="1">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10998,7 +11186,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15" hidden="1">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -11034,7 +11222,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" hidden="1">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -11070,7 +11258,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15" hidden="1">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11106,7 +11294,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15" hidden="1">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11142,7 +11330,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15" hidden="1">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11175,8 +11363,11 @@
         <v>April</v>
       </c>
       <c r="K112" s="8"/>
-    </row>
-    <row r="113" spans="1:11" ht="15" hidden="1">
+      <c r="L112" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11209,8 +11400,11 @@
         <v>April</v>
       </c>
       <c r="K113" s="8"/>
-    </row>
-    <row r="114" spans="1:11" ht="15" hidden="1">
+      <c r="L113" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11243,8 +11437,11 @@
         <v>April</v>
       </c>
       <c r="K114" s="8"/>
-    </row>
-    <row r="115" spans="1:11" ht="15" hidden="1">
+      <c r="L114" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11280,7 +11477,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15" hidden="1">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11316,7 +11513,7 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15" hidden="1">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11349,8 +11546,11 @@
         <v>April</v>
       </c>
       <c r="K117" s="8"/>
-    </row>
-    <row r="118" spans="1:11" ht="15" hidden="1">
+      <c r="L117" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11386,7 +11586,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15" hidden="1">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11422,7 +11622,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15" hidden="1">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11455,8 +11655,11 @@
         <v>April</v>
       </c>
       <c r="K120" s="8"/>
-    </row>
-    <row r="121" spans="1:11" ht="15" hidden="1">
+      <c r="L120" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11492,7 +11695,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15" hidden="1">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11525,8 +11728,11 @@
         <v>May</v>
       </c>
       <c r="K122" s="8"/>
-    </row>
-    <row r="123" spans="1:11" ht="15" hidden="1">
+      <c r="L122" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11559,8 +11765,11 @@
         <v>May</v>
       </c>
       <c r="K123" s="8"/>
-    </row>
-    <row r="124" spans="1:11" ht="15" hidden="1">
+      <c r="L123" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11593,8 +11802,11 @@
         <v>May</v>
       </c>
       <c r="K124" s="8"/>
-    </row>
-    <row r="125" spans="1:11" ht="15" hidden="1">
+      <c r="L124" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11627,8 +11839,11 @@
         <v>May</v>
       </c>
       <c r="K125" s="8"/>
-    </row>
-    <row r="126" spans="1:11" ht="15" hidden="1">
+      <c r="L125" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11661,8 +11876,11 @@
         <v>May</v>
       </c>
       <c r="K126" s="8"/>
-    </row>
-    <row r="127" spans="1:11" ht="15" hidden="1">
+      <c r="L126" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -11695,8 +11913,11 @@
         <v>May</v>
       </c>
       <c r="K127" s="8"/>
-    </row>
-    <row r="128" spans="1:11" ht="15" hidden="1">
+      <c r="L127" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -11732,7 +11953,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15" hidden="1">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -11765,8 +11986,11 @@
         <v>April</v>
       </c>
       <c r="K129" s="8"/>
-    </row>
-    <row r="130" spans="1:11" ht="15" hidden="1">
+      <c r="L129" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -11799,8 +12023,11 @@
         <v>May</v>
       </c>
       <c r="K130" s="8"/>
-    </row>
-    <row r="131" spans="1:11" ht="15" hidden="1">
+      <c r="L130" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -11833,8 +12060,11 @@
         <v>May</v>
       </c>
       <c r="K131" s="8"/>
-    </row>
-    <row r="132" spans="1:11" ht="15" hidden="1">
+      <c r="L131" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -11867,8 +12097,11 @@
         <v>May</v>
       </c>
       <c r="K132" s="8"/>
-    </row>
-    <row r="133" spans="1:11" ht="15" hidden="1">
+      <c r="L132" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -11901,8 +12134,11 @@
         <v>May</v>
       </c>
       <c r="K133" s="8"/>
-    </row>
-    <row r="134" spans="1:11" ht="15" hidden="1">
+      <c r="L133" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -11935,8 +12171,11 @@
         <v>May</v>
       </c>
       <c r="K134" s="8"/>
-    </row>
-    <row r="135" spans="1:11" ht="15" hidden="1">
+      <c r="L134" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -11969,8 +12208,11 @@
         <v>May</v>
       </c>
       <c r="K135" s="8"/>
-    </row>
-    <row r="136" spans="1:11" ht="15" hidden="1">
+      <c r="L135" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12003,8 +12245,11 @@
         <v>May</v>
       </c>
       <c r="K136" s="8"/>
-    </row>
-    <row r="137" spans="1:11" ht="15" hidden="1">
+      <c r="L136" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12037,8 +12282,11 @@
         <v>May</v>
       </c>
       <c r="K137" s="8"/>
-    </row>
-    <row r="138" spans="1:11" ht="15" hidden="1">
+      <c r="L137" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12071,8 +12319,11 @@
         <v>May</v>
       </c>
       <c r="K138" s="8"/>
-    </row>
-    <row r="139" spans="1:11" ht="15" hidden="1">
+      <c r="L138" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12105,8 +12356,11 @@
         <v>May</v>
       </c>
       <c r="K139" s="8"/>
-    </row>
-    <row r="140" spans="1:11" ht="15" hidden="1">
+      <c r="L139" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -12139,8 +12393,11 @@
         <v>May</v>
       </c>
       <c r="K140" s="8"/>
-    </row>
-    <row r="141" spans="1:11" ht="15" hidden="1">
+      <c r="L140" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -12173,8 +12430,11 @@
         <v>May</v>
       </c>
       <c r="K141" s="8"/>
-    </row>
-    <row r="142" spans="1:11" ht="15" hidden="1">
+      <c r="L141" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -12207,8 +12467,11 @@
         <v>April</v>
       </c>
       <c r="K142" s="8"/>
-    </row>
-    <row r="143" spans="1:11" ht="15" hidden="1">
+      <c r="L142" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -12241,8 +12504,11 @@
         <v>April</v>
       </c>
       <c r="K143" s="8"/>
-    </row>
-    <row r="144" spans="1:11" ht="15" hidden="1">
+      <c r="L143" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -12275,8 +12541,11 @@
         <v>May</v>
       </c>
       <c r="K144" s="8"/>
-    </row>
-    <row r="145" spans="1:11" ht="15" hidden="1">
+      <c r="L144" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="15">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -12309,8 +12578,11 @@
         <v>May</v>
       </c>
       <c r="K145" s="8"/>
-    </row>
-    <row r="146" spans="1:11" ht="15" hidden="1">
+      <c r="L145" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="15">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -12343,8 +12615,11 @@
         <v>May</v>
       </c>
       <c r="K146" s="8"/>
-    </row>
-    <row r="147" spans="1:11" ht="15" hidden="1">
+      <c r="L146" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -12377,8 +12652,11 @@
         <v>April</v>
       </c>
       <c r="K147" s="8"/>
-    </row>
-    <row r="148" spans="1:11" ht="15" hidden="1">
+      <c r="L147" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -12411,8 +12689,11 @@
         <v>April</v>
       </c>
       <c r="K148" s="8"/>
-    </row>
-    <row r="149" spans="1:11" ht="15" hidden="1">
+      <c r="L148" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="15">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -12445,8 +12726,11 @@
         <v>April</v>
       </c>
       <c r="K149" s="8"/>
-    </row>
-    <row r="150" spans="1:11" ht="15" hidden="1">
+      <c r="L149" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="15">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -12479,8 +12763,11 @@
         <v>April</v>
       </c>
       <c r="K150" s="8"/>
-    </row>
-    <row r="151" spans="1:11" ht="15" hidden="1">
+      <c r="L150" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -12513,8 +12800,11 @@
         <v>May</v>
       </c>
       <c r="K151" s="8"/>
-    </row>
-    <row r="152" spans="1:11" ht="15" hidden="1">
+      <c r="L151" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="15">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -12547,8 +12837,11 @@
         <v>April</v>
       </c>
       <c r="K152" s="8"/>
-    </row>
-    <row r="153" spans="1:11" ht="15" hidden="1">
+      <c r="L152" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="15">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -12581,8 +12874,11 @@
         <v>April</v>
       </c>
       <c r="K153" s="8"/>
-    </row>
-    <row r="154" spans="1:11" ht="15" hidden="1">
+      <c r="L153" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="15">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -12615,18 +12911,15 @@
         <v>May</v>
       </c>
       <c r="K154" s="8"/>
-    </row>
-    <row r="160" spans="1:11" ht="15">
+      <c r="L154" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="15">
       <c r="I160" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K154" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Kandal"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K154" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12635,10 +12928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89E02D6-4111-4531-B9F3-268755ADB59C}">
-  <dimension ref="A1:R186"/>
+  <dimension ref="A1:S186"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12664,7 +12957,7 @@
     <col min="19" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1">
+    <row r="1" spans="1:19" s="12" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1840</v>
       </c>
@@ -12719,8 +13012,11 @@
       <c r="R1" s="10" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="14" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12772,7 +13068,7 @@
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -12824,7 +13120,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12876,7 +13172,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -12928,7 +13224,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -12980,7 +13276,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -13032,7 +13328,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -13084,7 +13380,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -13136,7 +13432,7 @@
       </c>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13188,7 +13484,7 @@
       </c>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -13240,7 +13536,7 @@
       </c>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -13292,7 +13588,7 @@
       </c>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -13344,7 +13640,7 @@
       </c>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -13396,7 +13692,7 @@
       </c>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -13448,7 +13744,7 @@
       </c>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -22350,10 +22646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E02281-31CD-436C-98F7-A9A505A87453}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22370,7 +22666,7 @@
     <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -22404,8 +22700,11 @@
       <c r="K1" s="10" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="14" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -22437,7 +22736,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -22469,7 +22768,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -22501,7 +22800,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -22533,7 +22832,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -22565,7 +22864,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -22597,7 +22896,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -22629,7 +22928,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -22661,7 +22960,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -22693,7 +22992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -22725,7 +23024,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -22757,7 +23056,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -22789,7 +23088,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -22821,7 +23120,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -22853,7 +23152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -23053,10 +23352,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C8140-9AB4-4766-B1A2-D91A2ABB3CF2}">
-  <dimension ref="A1:O350"/>
+  <dimension ref="A1:P350"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23076,7 +23375,7 @@
     <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="4" t="s">
         <v>1184</v>
       </c>
@@ -23122,8 +23421,11 @@
       <c r="O1" s="11" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15">
+      <c r="P1" s="14" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -23170,7 +23472,7 @@
         <v>45752</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -23217,7 +23519,7 @@
         <v>45752</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -23264,7 +23566,7 @@
         <v>45752</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:16" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -23311,7 +23613,7 @@
         <v>45752</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -23358,7 +23660,7 @@
         <v>45752</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -23405,7 +23707,7 @@
         <v>45752</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15">
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -23452,7 +23754,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:16" ht="15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -23499,7 +23801,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15">
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -23546,7 +23848,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15">
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -23593,7 +23895,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15">
+    <row r="12" spans="1:16" ht="15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -23640,7 +23942,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15">
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -23687,7 +23989,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15">
+    <row r="14" spans="1:16" ht="15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -23734,7 +24036,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15">
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -23781,7 +24083,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15">
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -38887,10 +39189,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57047C20-427F-4634-B09D-E225BFE2B37C}">
-  <dimension ref="A1:X131"/>
+  <dimension ref="A1:Y131"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -38920,7 +39222,7 @@
     <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -38993,8 +39295,11 @@
       <c r="X1" s="11" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="14" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -39062,8 +39367,11 @@
       <c r="W2" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -39131,8 +39439,11 @@
       <c r="W3" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -39200,8 +39511,11 @@
       <c r="W4" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -39269,8 +39583,11 @@
       <c r="W5" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -39338,8 +39655,11 @@
       <c r="W6" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -39407,8 +39727,11 @@
       <c r="W7" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -39476,8 +39799,11 @@
       <c r="W8" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -39545,8 +39871,11 @@
       <c r="W9" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -39614,8 +39943,11 @@
       <c r="W10" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -39683,8 +40015,11 @@
       <c r="W11" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -39752,8 +40087,11 @@
       <c r="W12" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -39821,8 +40159,11 @@
       <c r="W13" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -39890,8 +40231,11 @@
       <c r="W14" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -39959,8 +40303,11 @@
       <c r="W15" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -40028,8 +40375,11 @@
       <c r="W16" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="Y16" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -40097,8 +40447,11 @@
       <c r="W17" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="Y17" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -40166,8 +40519,11 @@
       <c r="W18" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="Y18" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -40235,8 +40591,11 @@
       <c r="W19" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="Y19" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -40304,8 +40663,11 @@
       <c r="W20" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="Y20" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -40373,8 +40735,11 @@
       <c r="W21" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="Y21" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -40442,8 +40807,11 @@
       <c r="W22" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="Y22" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -40511,8 +40879,11 @@
       <c r="W23" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="Y23" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -40580,8 +40951,11 @@
       <c r="W24" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="Y24" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -40652,8 +41026,11 @@
       <c r="W25" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="Y25" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -40724,8 +41101,11 @@
       <c r="W26" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="Y26" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -40796,8 +41176,11 @@
       <c r="W27" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="Y27" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -40868,8 +41251,11 @@
       <c r="W28" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="Y28" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -40940,8 +41326,11 @@
       <c r="W29" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="Y29" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -41012,8 +41401,11 @@
       <c r="W30" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="Y30" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -41084,8 +41476,11 @@
       <c r="W31" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="Y31" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -41156,8 +41551,11 @@
       <c r="W32" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="Y32" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -41228,8 +41626,11 @@
       <c r="W33" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="Y33" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -41300,8 +41701,11 @@
       <c r="W34" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="Y34" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -41372,8 +41776,11 @@
       <c r="W35" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="Y35" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -41444,8 +41851,11 @@
       <c r="W36" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="Y36" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -41516,8 +41926,11 @@
       <c r="W37" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="Y37" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -41588,8 +42001,11 @@
       <c r="W38" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="Y38" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -41660,8 +42076,11 @@
       <c r="W39" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="Y39" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -41732,8 +42151,11 @@
       <c r="W40" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="Y40" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -41804,8 +42226,11 @@
       <c r="W41" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="Y41" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -41868,7 +42293,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -41931,7 +42356,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -41994,7 +42419,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -42057,7 +42482,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -42120,7 +42545,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -42183,7 +42608,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:25">
       <c r="A48" s="6">
         <v>47</v>
       </c>

--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9580DE31-B997-481A-9927-924E0DC53B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E722AFB-722D-465B-9649-31E73C643D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="153_ZTE_UPGRADE" sheetId="1" r:id="rId1"/>
-    <sheet name="185_ALU&amp;HW_SWAP(ALU)" sheetId="5" r:id="rId2"/>
-    <sheet name="20_HUAWEI_REDEPLOY(ALU)" sheetId="7" r:id="rId3"/>
-    <sheet name="349_NOKIA_SWAP(NOKIA)" sheetId="15" r:id="rId4"/>
-    <sheet name="BTB-NEWSITE(ZTE-31&amp;NOKIA-99)" sheetId="17" r:id="rId5"/>
+    <sheet name="ALU PROJECT_ZTE_UPGRADE(153)" sheetId="1" r:id="rId1"/>
+    <sheet name="ALU PROJECT_ALU&amp;HW_SWAP(185)" sheetId="5" r:id="rId2"/>
+    <sheet name="ALU PROJECT_HUAWEI_REDEPLOY(20)" sheetId="7" r:id="rId3"/>
+    <sheet name="BTB PROJECT_NOKIA_SWAP(349)" sheetId="15" r:id="rId4"/>
+    <sheet name="BTB PROJECT-NEWSITE(130)" sheetId="17" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'153_ZTE_UPGRADE'!$A$1:$K$154</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'185_ALU&amp;HW_SWAP(ALU)'!$A$1:$L$186</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'349_NOKIA_SWAP(NOKIA)'!$A$1:$N$350</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'BTB-NEWSITE(ZTE-31&amp;NOKIA-99)'!$A$1:$W$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ALU PROJECT_ALU&amp;HW_SWAP(185)'!$A$1:$L$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALU PROJECT_ZTE_UPGRADE(153)'!$A$1:$K$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BTB PROJECT_NOKIA_SWAP(349)'!$A$1:$N$350</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'BTB PROJECT-NEWSITE(130)'!$A$1:$W$131</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -5638,24 +5638,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Waiting Work Permit Approval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFI Issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Access Issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX Readiness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GAP OA Analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waiting WP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFI Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forecast OA Date</t>
   </si>
 </sst>
 </file>
@@ -5740,7 +5739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -5774,6 +5773,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5782,7 +5790,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5819,6 +5827,9 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7256,10 +7267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="C135" workbookViewId="0">
+      <selection activeCell="L147" sqref="L147:L154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7313,10 +7325,10 @@
         <v>1812</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7352,7 +7364,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7388,7 +7400,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7424,7 +7436,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15" hidden="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7460,7 +7472,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7496,7 +7508,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15" hidden="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7532,7 +7544,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7568,7 +7580,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7604,7 +7616,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7640,7 +7652,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7676,7 +7688,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7712,7 +7724,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7748,7 +7760,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7784,7 +7796,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7820,7 +7832,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15" hidden="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7856,7 +7868,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15">
+    <row r="17" spans="1:12" ht="15" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7892,7 +7904,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15">
+    <row r="18" spans="1:12" ht="15" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7928,7 +7940,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15">
+    <row r="19" spans="1:12" ht="15" hidden="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7964,7 +7976,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15">
+    <row r="20" spans="1:12" ht="15" hidden="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8000,7 +8012,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15">
+    <row r="21" spans="1:12" ht="15" hidden="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8036,7 +8048,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15">
+    <row r="22" spans="1:12" ht="15" hidden="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8072,7 +8084,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15">
+    <row r="23" spans="1:12" ht="15" hidden="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8141,8 +8153,8 @@
         <v>April</v>
       </c>
       <c r="K24" s="8"/>
-      <c r="L24" t="s">
-        <v>1854</v>
+      <c r="L24" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15">
@@ -8178,8 +8190,8 @@
         <v>April</v>
       </c>
       <c r="K25" s="8"/>
-      <c r="L25" t="s">
-        <v>1854</v>
+      <c r="L25" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15">
@@ -8215,11 +8227,11 @@
         <v>April</v>
       </c>
       <c r="K26" s="8"/>
-      <c r="L26" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15">
+      <c r="L26" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" hidden="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8255,7 +8267,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15">
+    <row r="28" spans="1:12" ht="15" hidden="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8291,7 +8303,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15">
+    <row r="29" spans="1:12" ht="15" hidden="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8360,8 +8372,8 @@
         <v>April</v>
       </c>
       <c r="K30" s="8"/>
-      <c r="L30" t="s">
-        <v>1854</v>
+      <c r="L30" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15">
@@ -8397,8 +8409,8 @@
         <v>April</v>
       </c>
       <c r="K31" s="8"/>
-      <c r="L31" t="s">
-        <v>1854</v>
+      <c r="L31" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15">
@@ -8434,11 +8446,11 @@
         <v>April</v>
       </c>
       <c r="K32" s="8"/>
-      <c r="L32" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15">
+      <c r="L32" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" hidden="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8507,11 +8519,11 @@
         <v>April</v>
       </c>
       <c r="K34" s="8"/>
-      <c r="L34" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15">
+      <c r="L34" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" hidden="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8547,7 +8559,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15">
+    <row r="36" spans="1:12" ht="15" hidden="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8616,11 +8628,11 @@
         <v>April</v>
       </c>
       <c r="K37" s="8"/>
-      <c r="L37" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15">
+      <c r="L37" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" hidden="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8689,11 +8701,11 @@
         <v>April</v>
       </c>
       <c r="K39" s="8"/>
-      <c r="L39" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15">
+      <c r="L39" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8729,7 +8741,7 @@
         <v>45756</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15">
+    <row r="41" spans="1:12" ht="15" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8798,8 +8810,8 @@
         <v>April</v>
       </c>
       <c r="K42" s="8"/>
-      <c r="L42" t="s">
-        <v>1854</v>
+      <c r="L42" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15">
@@ -8835,11 +8847,11 @@
         <v>April</v>
       </c>
       <c r="K43" s="8"/>
-      <c r="L43" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15">
+      <c r="L43" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8908,8 +8920,8 @@
         <v>April</v>
       </c>
       <c r="K45" s="8"/>
-      <c r="L45" t="s">
-        <v>1854</v>
+      <c r="L45" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15">
@@ -8945,11 +8957,11 @@
         <v>April</v>
       </c>
       <c r="K46" s="8"/>
-      <c r="L46" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15">
+      <c r="L46" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" hidden="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8985,7 +8997,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15">
+    <row r="48" spans="1:12" ht="15" hidden="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -9054,8 +9066,8 @@
         <v>April</v>
       </c>
       <c r="K49" s="8"/>
-      <c r="L49" t="s">
-        <v>1854</v>
+      <c r="L49" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15">
@@ -9091,8 +9103,8 @@
         <v>April</v>
       </c>
       <c r="K50" s="8"/>
-      <c r="L50" t="s">
-        <v>1854</v>
+      <c r="L50" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15">
@@ -9128,8 +9140,8 @@
         <v>April</v>
       </c>
       <c r="K51" s="8"/>
-      <c r="L51" t="s">
-        <v>1854</v>
+      <c r="L51" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15">
@@ -9165,8 +9177,8 @@
         <v>April</v>
       </c>
       <c r="K52" s="8"/>
-      <c r="L52" t="s">
-        <v>1854</v>
+      <c r="L52" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15">
@@ -9202,11 +9214,11 @@
         <v>April</v>
       </c>
       <c r="K53" s="8"/>
-      <c r="L53" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15">
+      <c r="L53" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9275,11 +9287,11 @@
         <v>April</v>
       </c>
       <c r="K55" s="8"/>
-      <c r="L55" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15">
+      <c r="L55" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15" hidden="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9315,7 +9327,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15">
+    <row r="57" spans="1:12" ht="15" hidden="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9351,7 +9363,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15">
+    <row r="58" spans="1:12" ht="15" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -9387,7 +9399,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15">
+    <row r="59" spans="1:12" ht="15" hidden="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9456,8 +9468,8 @@
         <v>April</v>
       </c>
       <c r="K60" s="8"/>
-      <c r="L60" t="s">
-        <v>1854</v>
+      <c r="L60" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15">
@@ -9493,8 +9505,8 @@
         <v>April</v>
       </c>
       <c r="K61" s="8"/>
-      <c r="L61" t="s">
-        <v>1854</v>
+      <c r="L61" s="1" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15">
@@ -9530,7 +9542,7 @@
         <v>April</v>
       </c>
       <c r="K62" s="8"/>
-      <c r="L62" t="s">
+      <c r="L62" s="1" t="s">
         <v>1855</v>
       </c>
     </row>
@@ -9567,7 +9579,7 @@
         <v>April</v>
       </c>
       <c r="K63" s="8"/>
-      <c r="L63" t="s">
+      <c r="L63" s="1" t="s">
         <v>1855</v>
       </c>
     </row>
@@ -9604,8 +9616,8 @@
         <v>April</v>
       </c>
       <c r="K64" s="8"/>
-      <c r="L64" t="s">
-        <v>1855</v>
+      <c r="L64" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15">
@@ -9641,8 +9653,8 @@
         <v>April</v>
       </c>
       <c r="K65" s="8"/>
-      <c r="L65" t="s">
-        <v>1855</v>
+      <c r="L65" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15">
@@ -9678,11 +9690,11 @@
         <v>April</v>
       </c>
       <c r="K66" s="8"/>
-      <c r="L66" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15">
+      <c r="L66" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" hidden="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9751,11 +9763,11 @@
         <v>April</v>
       </c>
       <c r="K68" s="8"/>
-      <c r="L68" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="15">
+      <c r="L68" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" hidden="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9824,8 +9836,8 @@
         <v>April</v>
       </c>
       <c r="K70" s="8"/>
-      <c r="L70" t="s">
-        <v>1855</v>
+      <c r="L70" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15">
@@ -9861,8 +9873,8 @@
         <v>April</v>
       </c>
       <c r="K71" s="8"/>
-      <c r="L71" t="s">
-        <v>1855</v>
+      <c r="L71" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15">
@@ -9898,8 +9910,8 @@
         <v>April</v>
       </c>
       <c r="K72" s="8"/>
-      <c r="L72" t="s">
-        <v>1855</v>
+      <c r="L72" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15">
@@ -9935,11 +9947,11 @@
         <v>April</v>
       </c>
       <c r="K73" s="8"/>
-      <c r="L73" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="15">
+      <c r="L73" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" hidden="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -10008,8 +10020,8 @@
         <v>April</v>
       </c>
       <c r="K75" s="8"/>
-      <c r="L75" t="s">
-        <v>1855</v>
+      <c r="L75" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15">
@@ -10045,8 +10057,8 @@
         <v>April</v>
       </c>
       <c r="K76" s="8"/>
-      <c r="L76" t="s">
-        <v>1855</v>
+      <c r="L76" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15">
@@ -10082,8 +10094,8 @@
         <v>April</v>
       </c>
       <c r="K77" s="8"/>
-      <c r="L77" t="s">
-        <v>1855</v>
+      <c r="L77" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15">
@@ -10119,8 +10131,8 @@
         <v>April</v>
       </c>
       <c r="K78" s="8"/>
-      <c r="L78" t="s">
-        <v>1855</v>
+      <c r="L78" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15">
@@ -10156,8 +10168,8 @@
         <v>April</v>
       </c>
       <c r="K79" s="8"/>
-      <c r="L79" t="s">
-        <v>1855</v>
+      <c r="L79" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15">
@@ -10193,8 +10205,8 @@
         <v>April</v>
       </c>
       <c r="K80" s="8"/>
-      <c r="L80" t="s">
-        <v>1855</v>
+      <c r="L80" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15">
@@ -10230,8 +10242,8 @@
         <v>April</v>
       </c>
       <c r="K81" s="8"/>
-      <c r="L81" t="s">
-        <v>1855</v>
+      <c r="L81" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15">
@@ -10267,8 +10279,8 @@
         <v>April</v>
       </c>
       <c r="K82" s="8"/>
-      <c r="L82" t="s">
-        <v>1855</v>
+      <c r="L82" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15">
@@ -10304,8 +10316,8 @@
         <v>April</v>
       </c>
       <c r="K83" s="8"/>
-      <c r="L83" t="s">
-        <v>1855</v>
+      <c r="L83" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15">
@@ -10341,11 +10353,11 @@
         <v>April</v>
       </c>
       <c r="K84" s="8"/>
-      <c r="L84" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="15">
+      <c r="L84" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15" hidden="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10414,11 +10426,11 @@
         <v>April</v>
       </c>
       <c r="K86" s="8"/>
-      <c r="L86" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="15">
+      <c r="L86" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15" hidden="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10454,7 +10466,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15" hidden="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10490,7 +10502,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15" hidden="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10559,8 +10571,8 @@
         <v>April</v>
       </c>
       <c r="K90" s="8"/>
-      <c r="L90" t="s">
-        <v>1855</v>
+      <c r="L90" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15">
@@ -10596,8 +10608,8 @@
         <v>April</v>
       </c>
       <c r="K91" s="8"/>
-      <c r="L91" t="s">
-        <v>1855</v>
+      <c r="L91" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15">
@@ -10633,11 +10645,11 @@
         <v>April</v>
       </c>
       <c r="K92" s="8"/>
-      <c r="L92" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="15">
+      <c r="L92" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15" hidden="1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10706,8 +10718,8 @@
         <v>April</v>
       </c>
       <c r="K94" s="8"/>
-      <c r="L94" t="s">
-        <v>1855</v>
+      <c r="L94" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15">
@@ -10743,8 +10755,8 @@
         <v>April</v>
       </c>
       <c r="K95" s="8"/>
-      <c r="L95" t="s">
-        <v>1855</v>
+      <c r="L95" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15">
@@ -10780,8 +10792,8 @@
         <v>April</v>
       </c>
       <c r="K96" s="8"/>
-      <c r="L96" t="s">
-        <v>1855</v>
+      <c r="L96" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15">
@@ -10817,8 +10829,8 @@
         <v>April</v>
       </c>
       <c r="K97" s="8"/>
-      <c r="L97" t="s">
-        <v>1855</v>
+      <c r="L97" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15">
@@ -10854,8 +10866,8 @@
         <v>April</v>
       </c>
       <c r="K98" s="8"/>
-      <c r="L98" t="s">
-        <v>1855</v>
+      <c r="L98" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15">
@@ -10891,11 +10903,11 @@
         <v>April</v>
       </c>
       <c r="K99" s="8"/>
-      <c r="L99" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="15">
+      <c r="L99" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15" hidden="1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10964,11 +10976,11 @@
         <v>April</v>
       </c>
       <c r="K101" s="8"/>
-      <c r="L101" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="15">
+      <c r="L101" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15" hidden="1">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -11037,8 +11049,8 @@
         <v>April</v>
       </c>
       <c r="K103" s="8"/>
-      <c r="L103" t="s">
-        <v>1855</v>
+      <c r="L103" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15">
@@ -11074,11 +11086,11 @@
         <v>April</v>
       </c>
       <c r="K104" s="8"/>
-      <c r="L104" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="15">
+      <c r="L104" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15" hidden="1">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -11114,7 +11126,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15" hidden="1">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -11150,7 +11162,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15" hidden="1">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -11186,7 +11198,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15" hidden="1">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -11222,7 +11234,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15" hidden="1">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -11258,7 +11270,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15" hidden="1">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11294,7 +11306,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15" hidden="1">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11363,8 +11375,8 @@
         <v>April</v>
       </c>
       <c r="K112" s="8"/>
-      <c r="L112" t="s">
-        <v>1855</v>
+      <c r="L112" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15">
@@ -11400,8 +11412,8 @@
         <v>April</v>
       </c>
       <c r="K113" s="8"/>
-      <c r="L113" t="s">
-        <v>1855</v>
+      <c r="L113" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15">
@@ -11437,11 +11449,11 @@
         <v>April</v>
       </c>
       <c r="K114" s="8"/>
-      <c r="L114" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="15">
+      <c r="L114" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15" hidden="1">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11477,7 +11489,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15" hidden="1">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11546,11 +11558,11 @@
         <v>April</v>
       </c>
       <c r="K117" s="8"/>
-      <c r="L117" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="15">
+      <c r="L117" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15" hidden="1">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11586,7 +11598,7 @@
         <v>45754</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15" hidden="1">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11655,11 +11667,11 @@
         <v>April</v>
       </c>
       <c r="K120" s="8"/>
-      <c r="L120" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="15">
+      <c r="L120" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15" hidden="1">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11728,8 +11740,8 @@
         <v>May</v>
       </c>
       <c r="K122" s="8"/>
-      <c r="L122" t="s">
-        <v>1855</v>
+      <c r="L122" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15">
@@ -11765,7 +11777,7 @@
         <v>May</v>
       </c>
       <c r="K123" s="8"/>
-      <c r="L123" t="s">
+      <c r="L123" s="15" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11802,7 +11814,7 @@
         <v>May</v>
       </c>
       <c r="K124" s="8"/>
-      <c r="L124" t="s">
+      <c r="L124" s="15" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11839,7 +11851,7 @@
         <v>May</v>
       </c>
       <c r="K125" s="8"/>
-      <c r="L125" t="s">
+      <c r="L125" s="15" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11876,7 +11888,7 @@
         <v>May</v>
       </c>
       <c r="K126" s="8"/>
-      <c r="L126" t="s">
+      <c r="L126" s="15" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11913,11 +11925,11 @@
         <v>May</v>
       </c>
       <c r="K127" s="8"/>
-      <c r="L127" t="s">
+      <c r="L127" s="15" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15" hidden="1">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -11986,7 +11998,7 @@
         <v>April</v>
       </c>
       <c r="K129" s="8"/>
-      <c r="L129" t="s">
+      <c r="L129" s="15" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12023,7 +12035,7 @@
         <v>May</v>
       </c>
       <c r="K130" s="8"/>
-      <c r="L130" t="s">
+      <c r="L130" s="15" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12060,7 +12072,7 @@
         <v>May</v>
       </c>
       <c r="K131" s="8"/>
-      <c r="L131" t="s">
+      <c r="L131" s="15" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12097,7 +12109,7 @@
         <v>May</v>
       </c>
       <c r="K132" s="8"/>
-      <c r="L132" t="s">
+      <c r="L132" s="15" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12134,8 +12146,8 @@
         <v>May</v>
       </c>
       <c r="K133" s="8"/>
-      <c r="L133" t="s">
-        <v>1857</v>
+      <c r="L133" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="15">
@@ -12171,8 +12183,8 @@
         <v>May</v>
       </c>
       <c r="K134" s="8"/>
-      <c r="L134" t="s">
-        <v>1857</v>
+      <c r="L134" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="15">
@@ -12208,8 +12220,8 @@
         <v>May</v>
       </c>
       <c r="K135" s="8"/>
-      <c r="L135" t="s">
-        <v>1857</v>
+      <c r="L135" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="15">
@@ -12245,8 +12257,8 @@
         <v>May</v>
       </c>
       <c r="K136" s="8"/>
-      <c r="L136" t="s">
-        <v>1857</v>
+      <c r="L136" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="15">
@@ -12282,8 +12294,8 @@
         <v>May</v>
       </c>
       <c r="K137" s="8"/>
-      <c r="L137" t="s">
-        <v>1857</v>
+      <c r="L137" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="15">
@@ -12319,8 +12331,8 @@
         <v>May</v>
       </c>
       <c r="K138" s="8"/>
-      <c r="L138" t="s">
-        <v>1857</v>
+      <c r="L138" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15">
@@ -12356,8 +12368,8 @@
         <v>May</v>
       </c>
       <c r="K139" s="8"/>
-      <c r="L139" t="s">
-        <v>1857</v>
+      <c r="L139" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="15">
@@ -12393,8 +12405,8 @@
         <v>May</v>
       </c>
       <c r="K140" s="8"/>
-      <c r="L140" t="s">
-        <v>1857</v>
+      <c r="L140" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="15">
@@ -12430,8 +12442,8 @@
         <v>May</v>
       </c>
       <c r="K141" s="8"/>
-      <c r="L141" t="s">
-        <v>1857</v>
+      <c r="L141" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15">
@@ -12467,8 +12479,8 @@
         <v>April</v>
       </c>
       <c r="K142" s="8"/>
-      <c r="L142" t="s">
-        <v>1857</v>
+      <c r="L142" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="15">
@@ -12504,8 +12516,8 @@
         <v>April</v>
       </c>
       <c r="K143" s="8"/>
-      <c r="L143" t="s">
-        <v>1857</v>
+      <c r="L143" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="15">
@@ -12541,8 +12553,8 @@
         <v>May</v>
       </c>
       <c r="K144" s="8"/>
-      <c r="L144" t="s">
-        <v>1857</v>
+      <c r="L144" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="15">
@@ -12578,8 +12590,8 @@
         <v>May</v>
       </c>
       <c r="K145" s="8"/>
-      <c r="L145" t="s">
-        <v>1857</v>
+      <c r="L145" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="15">
@@ -12615,8 +12627,8 @@
         <v>May</v>
       </c>
       <c r="K146" s="8"/>
-      <c r="L146" t="s">
-        <v>1857</v>
+      <c r="L146" s="15" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="15">
@@ -12652,7 +12664,7 @@
         <v>April</v>
       </c>
       <c r="K147" s="8"/>
-      <c r="L147" t="s">
+      <c r="L147" s="15" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12689,7 +12701,7 @@
         <v>April</v>
       </c>
       <c r="K148" s="8"/>
-      <c r="L148" t="s">
+      <c r="L148" s="15" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12726,7 +12738,7 @@
         <v>April</v>
       </c>
       <c r="K149" s="8"/>
-      <c r="L149" t="s">
+      <c r="L149" s="15" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12763,7 +12775,7 @@
         <v>April</v>
       </c>
       <c r="K150" s="8"/>
-      <c r="L150" t="s">
+      <c r="L150" s="15" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12800,7 +12812,7 @@
         <v>May</v>
       </c>
       <c r="K151" s="8"/>
-      <c r="L151" t="s">
+      <c r="L151" s="15" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12837,7 +12849,7 @@
         <v>April</v>
       </c>
       <c r="K152" s="8"/>
-      <c r="L152" t="s">
+      <c r="L152" s="15" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12874,7 +12886,7 @@
         <v>April</v>
       </c>
       <c r="K153" s="8"/>
-      <c r="L153" t="s">
+      <c r="L153" s="15" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12911,7 +12923,7 @@
         <v>May</v>
       </c>
       <c r="K154" s="8"/>
-      <c r="L154" t="s">
+      <c r="L154" s="15" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12919,7 +12931,11 @@
       <c r="I160" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K154" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K154" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12931,7 +12947,7 @@
   <dimension ref="A1:S186"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12954,7 +12970,8 @@
     <col min="16" max="16" width="22.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="7"/>
+    <col min="19" max="19" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="12" customFormat="1">
@@ -13013,7 +13030,7 @@
         <v>1812</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -22701,7 +22718,7 @@
         <v>1812</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -23355,7 +23372,7 @@
   <dimension ref="A1:P350"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23422,7 +23439,7 @@
         <v>1811</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15">
@@ -39192,7 +39209,7 @@
   <dimension ref="A1:Y131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y41"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -39220,6 +39237,8 @@
     <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -39284,7 +39303,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>1810</v>
+        <v>1858</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>1421</v>
@@ -39296,7 +39315,7 @@
         <v>1811</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -47898,5 +47917,6 @@
   <autoFilter ref="A1:W131" xr:uid="{57047C20-427F-4634-B09D-E225BFE2B37C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E722AFB-722D-465B-9649-31E73C643D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F2F32F-D662-47BA-B67C-D7FCBC963AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ALU PROJECT_ALU&amp;HW_SWAP(185)'!$A$1:$L$186</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALU PROJECT_ZTE_UPGRADE(153)'!$A$1:$K$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ALU PROJECT_ZTE_UPGRADE(153)'!$A$1:$L$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BTB PROJECT_NOKIA_SWAP(349)'!$A$1:$N$350</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'BTB PROJECT-NEWSITE(130)'!$A$1:$W$131</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7972" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8177" uniqueCount="1860">
   <si>
     <t>No.</t>
   </si>
@@ -5655,6 +5655,10 @@
   </si>
   <si>
     <t>Forecast OA Date</t>
+  </si>
+  <si>
+    <t>Implementation Under Plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5739,7 +5743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5773,15 +5777,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5790,7 +5785,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5828,9 +5823,10 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{C27BCFC9-5B5C-424B-BE45-988B87EC4B99}"/>
@@ -7267,11 +7263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView topLeftCell="C135" workbookViewId="0">
-      <selection activeCell="L147" sqref="L147:L154"/>
+    <sheetView topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7321,14 +7316,14 @@
       <c r="J1" s="9" t="s">
         <v>1422</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="15" t="s">
         <v>1812</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="9" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" hidden="1">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7363,8 +7358,9 @@
       <c r="K2" s="8">
         <v>45753</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" hidden="1">
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7396,11 +7392,10 @@
         <f t="shared" ref="J3:J66" si="0">TEXT(H3,"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="K3" s="8">
-        <v>45761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" hidden="1">
+      <c r="K3" s="8"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7435,8 +7430,9 @@
       <c r="K4" s="8">
         <v>45754</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" hidden="1">
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7468,11 +7464,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K5" s="8">
-        <v>45761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" hidden="1">
+      <c r="K5" s="8"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7507,8 +7502,9 @@
       <c r="K6" s="8">
         <v>45755</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" hidden="1">
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7543,8 +7539,9 @@
       <c r="K7" s="8">
         <v>45755</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" hidden="1">
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7579,8 +7576,9 @@
       <c r="K8" s="8">
         <v>45753</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" hidden="1">
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7615,8 +7613,9 @@
       <c r="K9" s="8">
         <v>45761</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" hidden="1">
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7648,11 +7647,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K10" s="8">
-        <v>45761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" hidden="1">
+      <c r="K10" s="8"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7684,11 +7682,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K11" s="8">
-        <v>45761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" hidden="1">
+      <c r="K11" s="8"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7723,8 +7720,9 @@
       <c r="K12" s="8">
         <v>45754</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" hidden="1">
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7759,8 +7757,9 @@
       <c r="K13" s="8">
         <v>45755</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" hidden="1">
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7792,11 +7791,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K14" s="8">
-        <v>45761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" hidden="1">
+      <c r="K14" s="8"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7831,8 +7829,9 @@
       <c r="K15" s="8">
         <v>45758</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" hidden="1">
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7867,8 +7866,9 @@
       <c r="K16" s="8">
         <v>45758</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" hidden="1">
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7903,8 +7903,9 @@
       <c r="K17" s="8">
         <v>45755</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" hidden="1">
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7939,8 +7940,9 @@
       <c r="K18" s="8">
         <v>45756</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" hidden="1">
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7975,8 +7977,9 @@
       <c r="K19" s="8">
         <v>45756</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" hidden="1">
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8011,8 +8014,9 @@
       <c r="K20" s="8">
         <v>45754</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" hidden="1">
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8047,8 +8051,9 @@
       <c r="K21" s="8">
         <v>45756</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" hidden="1">
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8083,8 +8088,9 @@
       <c r="K22" s="8">
         <v>45756</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" hidden="1">
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8119,6 +8125,7 @@
       <c r="K23" s="8">
         <v>45754</v>
       </c>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12" ht="15">
       <c r="A24" s="1">
@@ -8231,7 +8238,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" hidden="1">
+    <row r="27" spans="1:12" ht="15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8266,8 +8273,9 @@
       <c r="K27" s="8">
         <v>45756</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" hidden="1">
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8302,8 +8310,9 @@
       <c r="K28" s="8">
         <v>45755</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" hidden="1">
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" ht="15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8338,6 +8347,7 @@
       <c r="K29" s="8">
         <v>45757</v>
       </c>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12" ht="15">
       <c r="A30" s="1">
@@ -8450,7 +8460,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" hidden="1">
+    <row r="33" spans="1:12" ht="15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8485,6 +8495,7 @@
       <c r="K33" s="8">
         <v>45754</v>
       </c>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" spans="1:12" ht="15">
       <c r="A34" s="1">
@@ -8523,7 +8534,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" hidden="1">
+    <row r="35" spans="1:12" ht="15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8558,8 +8569,9 @@
       <c r="K35" s="8">
         <v>45754</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" hidden="1">
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" ht="15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8594,6 +8606,7 @@
       <c r="K36" s="8">
         <v>45754</v>
       </c>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12" ht="15">
       <c r="A37" s="1">
@@ -8632,7 +8645,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" hidden="1">
+    <row r="38" spans="1:12" ht="15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8667,6 +8680,7 @@
       <c r="K38" s="8">
         <v>45755</v>
       </c>
+      <c r="L38" s="16"/>
     </row>
     <row r="39" spans="1:12" ht="15">
       <c r="A39" s="1">
@@ -8705,7 +8719,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" hidden="1">
+    <row r="40" spans="1:12" ht="15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8740,8 +8754,9 @@
       <c r="K40" s="8">
         <v>45756</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" hidden="1">
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="1:12" ht="15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8776,6 +8791,7 @@
       <c r="K41" s="8">
         <v>45754</v>
       </c>
+      <c r="L41" s="16"/>
     </row>
     <row r="42" spans="1:12" ht="15">
       <c r="A42" s="1">
@@ -8851,7 +8867,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" hidden="1">
+    <row r="44" spans="1:12" ht="15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8886,6 +8902,7 @@
       <c r="K44" s="8">
         <v>45756</v>
       </c>
+      <c r="L44" s="16"/>
     </row>
     <row r="45" spans="1:12" ht="15">
       <c r="A45" s="1">
@@ -8961,7 +8978,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" hidden="1">
+    <row r="47" spans="1:12" ht="15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8996,8 +9013,9 @@
       <c r="K47" s="8">
         <v>45758</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" hidden="1">
+      <c r="L47" s="16"/>
+    </row>
+    <row r="48" spans="1:12" ht="15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -9032,6 +9050,7 @@
       <c r="K48" s="8">
         <v>45753</v>
       </c>
+      <c r="L48" s="16"/>
     </row>
     <row r="49" spans="1:12" ht="15">
       <c r="A49" s="1">
@@ -9218,7 +9237,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" hidden="1">
+    <row r="54" spans="1:12" ht="15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9253,6 +9272,7 @@
       <c r="K54" s="8">
         <v>45753</v>
       </c>
+      <c r="L54" s="16"/>
     </row>
     <row r="55" spans="1:12" ht="15">
       <c r="A55" s="1">
@@ -9291,7 +9311,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" hidden="1">
+    <row r="56" spans="1:12" ht="15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9326,8 +9346,9 @@
       <c r="K56" s="8">
         <v>45757</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" hidden="1">
+      <c r="L56" s="16"/>
+    </row>
+    <row r="57" spans="1:12" ht="15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9362,8 +9383,9 @@
       <c r="K57" s="8">
         <v>45758</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" hidden="1">
+      <c r="L57" s="16"/>
+    </row>
+    <row r="58" spans="1:12" ht="15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -9398,8 +9420,9 @@
       <c r="K58" s="8">
         <v>45755</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" hidden="1">
+      <c r="L58" s="16"/>
+    </row>
+    <row r="59" spans="1:12" ht="15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9434,6 +9457,7 @@
       <c r="K59" s="8">
         <v>45758</v>
       </c>
+      <c r="L59" s="16"/>
     </row>
     <row r="60" spans="1:12" ht="15">
       <c r="A60" s="1">
@@ -9616,7 +9640,7 @@
         <v>April</v>
       </c>
       <c r="K64" s="8"/>
-      <c r="L64" s="15" t="s">
+      <c r="L64" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -9653,7 +9677,7 @@
         <v>April</v>
       </c>
       <c r="K65" s="8"/>
-      <c r="L65" s="15" t="s">
+      <c r="L65" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -9690,11 +9714,11 @@
         <v>April</v>
       </c>
       <c r="K66" s="8"/>
-      <c r="L66" s="15" t="s">
+      <c r="L66" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" hidden="1">
+    <row r="67" spans="1:12" ht="15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9726,9 +9750,8 @@
         <f t="shared" ref="J67:J130" si="1">TEXT(H67,"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="K67" s="8">
-        <v>45762</v>
-      </c>
+      <c r="K67" s="8"/>
+      <c r="L67" s="16"/>
     </row>
     <row r="68" spans="1:12" ht="15">
       <c r="A68" s="1">
@@ -9763,11 +9786,11 @@
         <v>April</v>
       </c>
       <c r="K68" s="8"/>
-      <c r="L68" s="15" t="s">
+      <c r="L68" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" hidden="1">
+    <row r="69" spans="1:12" ht="15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9799,9 +9822,8 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K69" s="8">
-        <v>45762</v>
-      </c>
+      <c r="K69" s="8"/>
+      <c r="L69" s="16"/>
     </row>
     <row r="70" spans="1:12" ht="15">
       <c r="A70" s="1">
@@ -9836,7 +9858,7 @@
         <v>April</v>
       </c>
       <c r="K70" s="8"/>
-      <c r="L70" s="15" t="s">
+      <c r="L70" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -9873,7 +9895,7 @@
         <v>April</v>
       </c>
       <c r="K71" s="8"/>
-      <c r="L71" s="15" t="s">
+      <c r="L71" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -9910,7 +9932,7 @@
         <v>April</v>
       </c>
       <c r="K72" s="8"/>
-      <c r="L72" s="15" t="s">
+      <c r="L72" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -9947,11 +9969,11 @@
         <v>April</v>
       </c>
       <c r="K73" s="8"/>
-      <c r="L73" s="15" t="s">
+      <c r="L73" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" hidden="1">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9983,9 +10005,8 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K74" s="8">
-        <v>45762</v>
-      </c>
+      <c r="K74" s="8"/>
+      <c r="L74" s="16"/>
     </row>
     <row r="75" spans="1:12" ht="15">
       <c r="A75" s="1">
@@ -10020,7 +10041,7 @@
         <v>April</v>
       </c>
       <c r="K75" s="8"/>
-      <c r="L75" s="15" t="s">
+      <c r="L75" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10057,7 +10078,7 @@
         <v>April</v>
       </c>
       <c r="K76" s="8"/>
-      <c r="L76" s="15" t="s">
+      <c r="L76" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10094,7 +10115,7 @@
         <v>April</v>
       </c>
       <c r="K77" s="8"/>
-      <c r="L77" s="15" t="s">
+      <c r="L77" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10131,7 +10152,7 @@
         <v>April</v>
       </c>
       <c r="K78" s="8"/>
-      <c r="L78" s="15" t="s">
+      <c r="L78" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10168,7 +10189,7 @@
         <v>April</v>
       </c>
       <c r="K79" s="8"/>
-      <c r="L79" s="15" t="s">
+      <c r="L79" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10205,7 +10226,7 @@
         <v>April</v>
       </c>
       <c r="K80" s="8"/>
-      <c r="L80" s="15" t="s">
+      <c r="L80" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10242,7 +10263,7 @@
         <v>April</v>
       </c>
       <c r="K81" s="8"/>
-      <c r="L81" s="15" t="s">
+      <c r="L81" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10279,7 +10300,7 @@
         <v>April</v>
       </c>
       <c r="K82" s="8"/>
-      <c r="L82" s="15" t="s">
+      <c r="L82" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10316,7 +10337,7 @@
         <v>April</v>
       </c>
       <c r="K83" s="8"/>
-      <c r="L83" s="15" t="s">
+      <c r="L83" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10353,11 +10374,11 @@
         <v>April</v>
       </c>
       <c r="K84" s="8"/>
-      <c r="L84" s="15" t="s">
+      <c r="L84" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15" hidden="1">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10392,6 +10413,7 @@
       <c r="K85" s="8">
         <v>45759</v>
       </c>
+      <c r="L85" s="16"/>
     </row>
     <row r="86" spans="1:12" ht="15">
       <c r="A86" s="1">
@@ -10426,11 +10448,11 @@
         <v>April</v>
       </c>
       <c r="K86" s="8"/>
-      <c r="L86" s="15" t="s">
+      <c r="L86" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" hidden="1">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10465,8 +10487,9 @@
       <c r="K87" s="8">
         <v>45755</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="15" hidden="1">
+      <c r="L87" s="16"/>
+    </row>
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10498,11 +10521,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K88" s="8">
-        <v>45762</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="15" hidden="1">
+      <c r="K88" s="8"/>
+      <c r="L88" s="16"/>
+    </row>
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10534,9 +10556,8 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K89" s="8">
-        <v>45762</v>
-      </c>
+      <c r="K89" s="8"/>
+      <c r="L89" s="16"/>
     </row>
     <row r="90" spans="1:12" ht="15">
       <c r="A90" s="1">
@@ -10571,7 +10592,7 @@
         <v>April</v>
       </c>
       <c r="K90" s="8"/>
-      <c r="L90" s="15" t="s">
+      <c r="L90" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10608,7 +10629,7 @@
         <v>April</v>
       </c>
       <c r="K91" s="8"/>
-      <c r="L91" s="15" t="s">
+      <c r="L91" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10645,11 +10666,11 @@
         <v>April</v>
       </c>
       <c r="K92" s="8"/>
-      <c r="L92" s="15" t="s">
+      <c r="L92" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15" hidden="1">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -10684,6 +10705,7 @@
       <c r="K93" s="8">
         <v>45759</v>
       </c>
+      <c r="L93" s="16"/>
     </row>
     <row r="94" spans="1:12" ht="15">
       <c r="A94" s="1">
@@ -10718,7 +10740,7 @@
         <v>April</v>
       </c>
       <c r="K94" s="8"/>
-      <c r="L94" s="15" t="s">
+      <c r="L94" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10755,7 +10777,7 @@
         <v>April</v>
       </c>
       <c r="K95" s="8"/>
-      <c r="L95" s="15" t="s">
+      <c r="L95" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10792,7 +10814,7 @@
         <v>April</v>
       </c>
       <c r="K96" s="8"/>
-      <c r="L96" s="15" t="s">
+      <c r="L96" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10829,7 +10851,7 @@
         <v>April</v>
       </c>
       <c r="K97" s="8"/>
-      <c r="L97" s="15" t="s">
+      <c r="L97" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10866,7 +10888,7 @@
         <v>April</v>
       </c>
       <c r="K98" s="8"/>
-      <c r="L98" s="15" t="s">
+      <c r="L98" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -10903,11 +10925,11 @@
         <v>April</v>
       </c>
       <c r="K99" s="8"/>
-      <c r="L99" s="15" t="s">
+      <c r="L99" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15" hidden="1">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10942,6 +10964,7 @@
       <c r="K100" s="8">
         <v>45756</v>
       </c>
+      <c r="L100" s="16"/>
     </row>
     <row r="101" spans="1:12" ht="15">
       <c r="A101" s="1">
@@ -10976,11 +10999,11 @@
         <v>April</v>
       </c>
       <c r="K101" s="8"/>
-      <c r="L101" s="15" t="s">
+      <c r="L101" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15" hidden="1">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -11015,6 +11038,7 @@
       <c r="K102" s="8">
         <v>45755</v>
       </c>
+      <c r="L102" s="16"/>
     </row>
     <row r="103" spans="1:12" ht="15">
       <c r="A103" s="1">
@@ -11049,7 +11073,7 @@
         <v>April</v>
       </c>
       <c r="K103" s="8"/>
-      <c r="L103" s="15" t="s">
+      <c r="L103" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11086,11 +11110,11 @@
         <v>April</v>
       </c>
       <c r="K104" s="8"/>
-      <c r="L104" s="15" t="s">
+      <c r="L104" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15" hidden="1">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -11125,8 +11149,9 @@
       <c r="K105" s="8">
         <v>45754</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="15" hidden="1">
+      <c r="L105" s="16"/>
+    </row>
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -11161,8 +11186,9 @@
       <c r="K106" s="8">
         <v>45757</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="15" hidden="1">
+      <c r="L106" s="16"/>
+    </row>
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -11197,8 +11223,9 @@
       <c r="K107" s="8">
         <v>45758</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="15" hidden="1">
+      <c r="L107" s="16"/>
+    </row>
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -11233,8 +11260,9 @@
       <c r="K108" s="8">
         <v>45757</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="15" hidden="1">
+      <c r="L108" s="16"/>
+    </row>
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -11269,8 +11297,9 @@
       <c r="K109" s="8">
         <v>45755</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="15" hidden="1">
+      <c r="L109" s="16"/>
+    </row>
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11305,8 +11334,9 @@
       <c r="K110" s="8">
         <v>45758</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="15" hidden="1">
+      <c r="L110" s="16"/>
+    </row>
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11341,6 +11371,7 @@
       <c r="K111" s="8">
         <v>45756</v>
       </c>
+      <c r="L111" s="16"/>
     </row>
     <row r="112" spans="1:12" ht="15">
       <c r="A112" s="1">
@@ -11375,7 +11406,7 @@
         <v>April</v>
       </c>
       <c r="K112" s="8"/>
-      <c r="L112" s="15" t="s">
+      <c r="L112" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11412,7 +11443,7 @@
         <v>April</v>
       </c>
       <c r="K113" s="8"/>
-      <c r="L113" s="15" t="s">
+      <c r="L113" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11449,11 +11480,11 @@
         <v>April</v>
       </c>
       <c r="K114" s="8"/>
-      <c r="L114" s="15" t="s">
+      <c r="L114" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15" hidden="1">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11488,8 +11519,9 @@
       <c r="K115" s="8">
         <v>45757</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="15" hidden="1">
+      <c r="L115" s="16"/>
+    </row>
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11524,6 +11556,7 @@
       <c r="K116" s="8">
         <v>45759</v>
       </c>
+      <c r="L116" s="16"/>
     </row>
     <row r="117" spans="1:12" ht="15">
       <c r="A117" s="1">
@@ -11558,11 +11591,11 @@
         <v>April</v>
       </c>
       <c r="K117" s="8"/>
-      <c r="L117" s="15" t="s">
+      <c r="L117" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15" hidden="1">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11597,8 +11630,9 @@
       <c r="K118" s="8">
         <v>45754</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="15" hidden="1">
+      <c r="L118" s="16"/>
+    </row>
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11633,6 +11667,7 @@
       <c r="K119" s="8">
         <v>45757</v>
       </c>
+      <c r="L119" s="16"/>
     </row>
     <row r="120" spans="1:12" ht="15">
       <c r="A120" s="1">
@@ -11667,11 +11702,11 @@
         <v>April</v>
       </c>
       <c r="K120" s="8"/>
-      <c r="L120" s="15" t="s">
+      <c r="L120" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15" hidden="1">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11706,6 +11741,7 @@
       <c r="K121" s="8">
         <v>45755</v>
       </c>
+      <c r="L121" s="16"/>
     </row>
     <row r="122" spans="1:12" ht="15">
       <c r="A122" s="1">
@@ -11740,7 +11776,7 @@
         <v>May</v>
       </c>
       <c r="K122" s="8"/>
-      <c r="L122" s="15" t="s">
+      <c r="L122" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11777,7 +11813,7 @@
         <v>May</v>
       </c>
       <c r="K123" s="8"/>
-      <c r="L123" s="15" t="s">
+      <c r="L123" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11814,7 +11850,7 @@
         <v>May</v>
       </c>
       <c r="K124" s="8"/>
-      <c r="L124" s="15" t="s">
+      <c r="L124" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11851,7 +11887,7 @@
         <v>May</v>
       </c>
       <c r="K125" s="8"/>
-      <c r="L125" s="15" t="s">
+      <c r="L125" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11888,7 +11924,7 @@
         <v>May</v>
       </c>
       <c r="K126" s="8"/>
-      <c r="L126" s="15" t="s">
+      <c r="L126" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -11925,11 +11961,11 @@
         <v>May</v>
       </c>
       <c r="K127" s="8"/>
-      <c r="L127" s="15" t="s">
+      <c r="L127" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15" hidden="1">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -11964,6 +12000,7 @@
       <c r="K128" s="8">
         <v>45757</v>
       </c>
+      <c r="L128" s="16"/>
     </row>
     <row r="129" spans="1:12" ht="15">
       <c r="A129" s="1">
@@ -11998,7 +12035,7 @@
         <v>April</v>
       </c>
       <c r="K129" s="8"/>
-      <c r="L129" s="15" t="s">
+      <c r="L129" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12035,7 +12072,7 @@
         <v>May</v>
       </c>
       <c r="K130" s="8"/>
-      <c r="L130" s="15" t="s">
+      <c r="L130" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12072,7 +12109,7 @@
         <v>May</v>
       </c>
       <c r="K131" s="8"/>
-      <c r="L131" s="15" t="s">
+      <c r="L131" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12109,7 +12146,7 @@
         <v>May</v>
       </c>
       <c r="K132" s="8"/>
-      <c r="L132" s="15" t="s">
+      <c r="L132" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12146,7 +12183,7 @@
         <v>May</v>
       </c>
       <c r="K133" s="8"/>
-      <c r="L133" s="15" t="s">
+      <c r="L133" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12183,7 +12220,7 @@
         <v>May</v>
       </c>
       <c r="K134" s="8"/>
-      <c r="L134" s="15" t="s">
+      <c r="L134" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12220,7 +12257,7 @@
         <v>May</v>
       </c>
       <c r="K135" s="8"/>
-      <c r="L135" s="15" t="s">
+      <c r="L135" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12257,7 +12294,7 @@
         <v>May</v>
       </c>
       <c r="K136" s="8"/>
-      <c r="L136" s="15" t="s">
+      <c r="L136" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12294,7 +12331,7 @@
         <v>May</v>
       </c>
       <c r="K137" s="8"/>
-      <c r="L137" s="15" t="s">
+      <c r="L137" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12331,7 +12368,7 @@
         <v>May</v>
       </c>
       <c r="K138" s="8"/>
-      <c r="L138" s="15" t="s">
+      <c r="L138" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12368,7 +12405,7 @@
         <v>May</v>
       </c>
       <c r="K139" s="8"/>
-      <c r="L139" s="15" t="s">
+      <c r="L139" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12405,7 +12442,7 @@
         <v>May</v>
       </c>
       <c r="K140" s="8"/>
-      <c r="L140" s="15" t="s">
+      <c r="L140" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12442,7 +12479,7 @@
         <v>May</v>
       </c>
       <c r="K141" s="8"/>
-      <c r="L141" s="15" t="s">
+      <c r="L141" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12479,7 +12516,7 @@
         <v>April</v>
       </c>
       <c r="K142" s="8"/>
-      <c r="L142" s="15" t="s">
+      <c r="L142" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12516,7 +12553,7 @@
         <v>April</v>
       </c>
       <c r="K143" s="8"/>
-      <c r="L143" s="15" t="s">
+      <c r="L143" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12553,7 +12590,7 @@
         <v>May</v>
       </c>
       <c r="K144" s="8"/>
-      <c r="L144" s="15" t="s">
+      <c r="L144" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12590,7 +12627,7 @@
         <v>May</v>
       </c>
       <c r="K145" s="8"/>
-      <c r="L145" s="15" t="s">
+      <c r="L145" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12627,7 +12664,7 @@
         <v>May</v>
       </c>
       <c r="K146" s="8"/>
-      <c r="L146" s="15" t="s">
+      <c r="L146" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -12664,7 +12701,7 @@
         <v>April</v>
       </c>
       <c r="K147" s="8"/>
-      <c r="L147" s="15" t="s">
+      <c r="L147" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12701,7 +12738,7 @@
         <v>April</v>
       </c>
       <c r="K148" s="8"/>
-      <c r="L148" s="15" t="s">
+      <c r="L148" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12738,7 +12775,7 @@
         <v>April</v>
       </c>
       <c r="K149" s="8"/>
-      <c r="L149" s="15" t="s">
+      <c r="L149" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12775,7 +12812,7 @@
         <v>April</v>
       </c>
       <c r="K150" s="8"/>
-      <c r="L150" s="15" t="s">
+      <c r="L150" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12812,7 +12849,7 @@
         <v>May</v>
       </c>
       <c r="K151" s="8"/>
-      <c r="L151" s="15" t="s">
+      <c r="L151" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12849,7 +12886,7 @@
         <v>April</v>
       </c>
       <c r="K152" s="8"/>
-      <c r="L152" s="15" t="s">
+      <c r="L152" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12886,7 +12923,7 @@
         <v>April</v>
       </c>
       <c r="K153" s="8"/>
-      <c r="L153" s="15" t="s">
+      <c r="L153" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12923,7 +12960,7 @@
         <v>May</v>
       </c>
       <c r="K154" s="8"/>
-      <c r="L154" s="15" t="s">
+      <c r="L154" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -12931,11 +12968,7 @@
       <c r="I160" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K154" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L154" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12947,7 +12980,7 @@
   <dimension ref="A1:S186"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12970,7 +13003,7 @@
     <col min="16" max="16" width="22.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
@@ -13026,10 +13059,10 @@
       <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="15" t="s">
         <v>1812</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="9" t="s">
         <v>1854</v>
       </c>
     </row>
@@ -13084,6 +13117,9 @@
         <v>134</v>
       </c>
       <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="3">
@@ -13136,6 +13172,9 @@
         <v>134</v>
       </c>
       <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3">
@@ -13188,6 +13227,9 @@
         <v>134</v>
       </c>
       <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3">
@@ -13240,6 +13282,9 @@
         <v>134</v>
       </c>
       <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3">
@@ -13292,6 +13337,9 @@
         <v>134</v>
       </c>
       <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3">
@@ -13344,6 +13392,9 @@
         <v>134</v>
       </c>
       <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3">
@@ -13396,6 +13447,9 @@
         <v>134</v>
       </c>
       <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="3">
@@ -13448,6 +13502,9 @@
         <v>134</v>
       </c>
       <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3">
@@ -13500,6 +13557,9 @@
         <v>134</v>
       </c>
       <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3">
@@ -13552,6 +13612,9 @@
         <v>134</v>
       </c>
       <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3">
@@ -13604,6 +13667,9 @@
         <v>134</v>
       </c>
       <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3">
@@ -13656,6 +13722,9 @@
         <v>134</v>
       </c>
       <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3">
@@ -13708,6 +13777,9 @@
         <v>134</v>
       </c>
       <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3">
@@ -13760,6 +13832,9 @@
         <v>135</v>
       </c>
       <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3">
@@ -13812,8 +13887,11 @@
         <v>135</v>
       </c>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -13864,8 +13942,11 @@
         <v>135</v>
       </c>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -13916,8 +13997,11 @@
         <v>135</v>
       </c>
       <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -13968,8 +14052,11 @@
         <v>135</v>
       </c>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -14020,8 +14107,11 @@
         <v>135</v>
       </c>
       <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -14072,8 +14162,11 @@
         <v>135</v>
       </c>
       <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -14124,8 +14217,11 @@
         <v>135</v>
       </c>
       <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -14176,8 +14272,11 @@
         <v>135</v>
       </c>
       <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -14228,8 +14327,11 @@
         <v>135</v>
       </c>
       <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -14280,8 +14382,11 @@
         <v>135</v>
       </c>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -14332,8 +14437,11 @@
         <v>135</v>
       </c>
       <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -14384,8 +14492,11 @@
         <v>135</v>
       </c>
       <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -14436,8 +14547,11 @@
         <v>135</v>
       </c>
       <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -14488,8 +14602,11 @@
         <v>135</v>
       </c>
       <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -14540,8 +14657,11 @@
         <v>135</v>
       </c>
       <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -14592,8 +14712,11 @@
         <v>135</v>
       </c>
       <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -14644,8 +14767,11 @@
         <v>135</v>
       </c>
       <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -14696,8 +14822,11 @@
         <v>135</v>
       </c>
       <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -14748,8 +14877,11 @@
         <v>135</v>
       </c>
       <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -14800,8 +14932,11 @@
         <v>135</v>
       </c>
       <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -14852,8 +14987,11 @@
         <v>135</v>
       </c>
       <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -14904,8 +15042,11 @@
         <v>135</v>
       </c>
       <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -14956,8 +15097,11 @@
         <v>135</v>
       </c>
       <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -15008,8 +15152,11 @@
         <v>135</v>
       </c>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -15060,8 +15207,11 @@
         <v>135</v>
       </c>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -15112,8 +15262,11 @@
         <v>135</v>
       </c>
       <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -15164,8 +15317,11 @@
         <v>135</v>
       </c>
       <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -15216,8 +15372,11 @@
         <v>135</v>
       </c>
       <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -15268,8 +15427,11 @@
         <v>135</v>
       </c>
       <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -15320,8 +15482,11 @@
         <v>135</v>
       </c>
       <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -15372,8 +15537,11 @@
         <v>135</v>
       </c>
       <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -15424,8 +15592,11 @@
         <v>135</v>
       </c>
       <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -15476,8 +15647,11 @@
         <v>135</v>
       </c>
       <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -15528,8 +15702,11 @@
         <v>135</v>
       </c>
       <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -15580,8 +15757,11 @@
         <v>135</v>
       </c>
       <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -15632,8 +15812,11 @@
         <v>135</v>
       </c>
       <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -15684,8 +15867,11 @@
         <v>135</v>
       </c>
       <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -15736,8 +15922,11 @@
         <v>135</v>
       </c>
       <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -15788,8 +15977,11 @@
         <v>135</v>
       </c>
       <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -15840,8 +16032,11 @@
         <v>135</v>
       </c>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -15892,8 +16087,11 @@
         <v>135</v>
       </c>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -15944,8 +16142,11 @@
         <v>135</v>
       </c>
       <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -15996,8 +16197,11 @@
         <v>135</v>
       </c>
       <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -16048,8 +16252,11 @@
         <v>135</v>
       </c>
       <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -16100,8 +16307,11 @@
         <v>135</v>
       </c>
       <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -16152,8 +16362,11 @@
         <v>135</v>
       </c>
       <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -16204,8 +16417,11 @@
         <v>135</v>
       </c>
       <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -16256,8 +16472,11 @@
         <v>135</v>
       </c>
       <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -16308,8 +16527,11 @@
         <v>135</v>
       </c>
       <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -16360,8 +16582,11 @@
         <v>135</v>
       </c>
       <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -16412,8 +16637,11 @@
         <v>135</v>
       </c>
       <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -16464,8 +16692,11 @@
         <v>135</v>
       </c>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -16516,8 +16747,11 @@
         <v>135</v>
       </c>
       <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -16568,8 +16802,11 @@
         <v>135</v>
       </c>
       <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -16620,8 +16857,11 @@
         <v>135</v>
       </c>
       <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -16672,8 +16912,11 @@
         <v>510</v>
       </c>
       <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -16724,8 +16967,11 @@
         <v>510</v>
       </c>
       <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -16776,8 +17022,11 @@
         <v>510</v>
       </c>
       <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -16828,8 +17077,11 @@
         <v>510</v>
       </c>
       <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -16880,8 +17132,11 @@
         <v>510</v>
       </c>
       <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -16932,8 +17187,11 @@
         <v>510</v>
       </c>
       <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -16984,8 +17242,11 @@
         <v>510</v>
       </c>
       <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -17036,8 +17297,11 @@
         <v>510</v>
       </c>
       <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -17088,8 +17352,11 @@
         <v>510</v>
       </c>
       <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -17140,8 +17407,11 @@
         <v>510</v>
       </c>
       <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -17192,8 +17462,11 @@
         <v>510</v>
       </c>
       <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -17244,8 +17517,11 @@
         <v>510</v>
       </c>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -17296,8 +17572,11 @@
         <v>510</v>
       </c>
       <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -17348,8 +17627,11 @@
         <v>510</v>
       </c>
       <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -17400,8 +17682,11 @@
         <v>510</v>
       </c>
       <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -17452,8 +17737,11 @@
         <v>510</v>
       </c>
       <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -17504,8 +17792,11 @@
         <v>510</v>
       </c>
       <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -17556,8 +17847,11 @@
         <v>510</v>
       </c>
       <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -17608,8 +17902,11 @@
         <v>510</v>
       </c>
       <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -17660,8 +17957,11 @@
         <v>510</v>
       </c>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -17712,8 +18012,11 @@
         <v>510</v>
       </c>
       <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -17764,8 +18067,11 @@
         <v>510</v>
       </c>
       <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -17816,8 +18122,11 @@
         <v>510</v>
       </c>
       <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -17868,8 +18177,11 @@
         <v>510</v>
       </c>
       <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -17920,8 +18232,11 @@
         <v>510</v>
       </c>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -17972,8 +18287,11 @@
         <v>510</v>
       </c>
       <c r="R96" s="3"/>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -18024,8 +18342,11 @@
         <v>510</v>
       </c>
       <c r="R97" s="3"/>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -18076,8 +18397,11 @@
         <v>510</v>
       </c>
       <c r="R98" s="3"/>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -18128,8 +18452,11 @@
         <v>510</v>
       </c>
       <c r="R99" s="3"/>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -18180,8 +18507,11 @@
         <v>510</v>
       </c>
       <c r="R100" s="3"/>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -18232,8 +18562,11 @@
         <v>510</v>
       </c>
       <c r="R101" s="3"/>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -18284,8 +18617,11 @@
         <v>510</v>
       </c>
       <c r="R102" s="3"/>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -18336,8 +18672,11 @@
         <v>510</v>
       </c>
       <c r="R103" s="3"/>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -18388,8 +18727,11 @@
         <v>510</v>
       </c>
       <c r="R104" s="3"/>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -18440,8 +18782,11 @@
         <v>510</v>
       </c>
       <c r="R105" s="3"/>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -18492,8 +18837,11 @@
         <v>510</v>
       </c>
       <c r="R106" s="3"/>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -18544,8 +18892,11 @@
         <v>510</v>
       </c>
       <c r="R107" s="3"/>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -18596,8 +18947,11 @@
         <v>510</v>
       </c>
       <c r="R108" s="3"/>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -18648,8 +19002,11 @@
         <v>510</v>
       </c>
       <c r="R109" s="3"/>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -18700,8 +19057,11 @@
         <v>510</v>
       </c>
       <c r="R110" s="3"/>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -18752,8 +19112,11 @@
         <v>510</v>
       </c>
       <c r="R111" s="3"/>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -18804,8 +19167,11 @@
         <v>510</v>
       </c>
       <c r="R112" s="3"/>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -18856,8 +19222,11 @@
         <v>510</v>
       </c>
       <c r="R113" s="3"/>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -18908,8 +19277,11 @@
         <v>510</v>
       </c>
       <c r="R114" s="3"/>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -18960,8 +19332,11 @@
         <v>510</v>
       </c>
       <c r="R115" s="3"/>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -19012,8 +19387,11 @@
         <v>510</v>
       </c>
       <c r="R116" s="3"/>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -19064,8 +19442,11 @@
         <v>510</v>
       </c>
       <c r="R117" s="3"/>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -19116,8 +19497,11 @@
         <v>510</v>
       </c>
       <c r="R118" s="3"/>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -19168,8 +19552,11 @@
         <v>510</v>
       </c>
       <c r="R119" s="3"/>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -19220,8 +19607,11 @@
         <v>510</v>
       </c>
       <c r="R120" s="3"/>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -19272,8 +19662,11 @@
         <v>816</v>
       </c>
       <c r="R121" s="3"/>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -19324,8 +19717,11 @@
         <v>816</v>
       </c>
       <c r="R122" s="3"/>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -19376,8 +19772,11 @@
         <v>816</v>
       </c>
       <c r="R123" s="3"/>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -19428,8 +19827,11 @@
         <v>816</v>
       </c>
       <c r="R124" s="3"/>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -19480,8 +19882,11 @@
         <v>816</v>
       </c>
       <c r="R125" s="3"/>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -19532,8 +19937,11 @@
         <v>816</v>
       </c>
       <c r="R126" s="3"/>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -19584,8 +19992,11 @@
         <v>816</v>
       </c>
       <c r="R127" s="3"/>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -19636,8 +20047,11 @@
         <v>816</v>
       </c>
       <c r="R128" s="3"/>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -19688,8 +20102,11 @@
         <v>816</v>
       </c>
       <c r="R129" s="3"/>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -19740,8 +20157,11 @@
         <v>816</v>
       </c>
       <c r="R130" s="3"/>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -19792,8 +20212,11 @@
         <v>816</v>
       </c>
       <c r="R131" s="3"/>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -19844,8 +20267,11 @@
         <v>816</v>
       </c>
       <c r="R132" s="3"/>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -19896,8 +20322,11 @@
         <v>816</v>
       </c>
       <c r="R133" s="3"/>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -19948,8 +20377,11 @@
         <v>816</v>
       </c>
       <c r="R134" s="3"/>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -20000,8 +20432,11 @@
         <v>816</v>
       </c>
       <c r="R135" s="3"/>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -20052,8 +20487,11 @@
         <v>816</v>
       </c>
       <c r="R136" s="3"/>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -20104,8 +20542,11 @@
         <v>816</v>
       </c>
       <c r="R137" s="3"/>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -20156,8 +20597,11 @@
         <v>816</v>
       </c>
       <c r="R138" s="3"/>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -20208,8 +20652,11 @@
         <v>816</v>
       </c>
       <c r="R139" s="3"/>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -20260,8 +20707,11 @@
         <v>816</v>
       </c>
       <c r="R140" s="3"/>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -20312,8 +20762,11 @@
         <v>816</v>
       </c>
       <c r="R141" s="3"/>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -20364,8 +20817,11 @@
         <v>816</v>
       </c>
       <c r="R142" s="3"/>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -20416,8 +20872,11 @@
         <v>816</v>
       </c>
       <c r="R143" s="3"/>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -20468,8 +20927,11 @@
         <v>816</v>
       </c>
       <c r="R144" s="3"/>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -20520,8 +20982,11 @@
         <v>816</v>
       </c>
       <c r="R145" s="3"/>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -20572,8 +21037,11 @@
         <v>816</v>
       </c>
       <c r="R146" s="3"/>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -20624,8 +21092,11 @@
         <v>816</v>
       </c>
       <c r="R147" s="3"/>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -20676,8 +21147,11 @@
         <v>816</v>
       </c>
       <c r="R148" s="3"/>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -20728,8 +21202,11 @@
         <v>816</v>
       </c>
       <c r="R149" s="3"/>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -20780,8 +21257,11 @@
         <v>816</v>
       </c>
       <c r="R150" s="3"/>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -20832,8 +21312,11 @@
         <v>816</v>
       </c>
       <c r="R151" s="3"/>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -20884,8 +21367,11 @@
         <v>816</v>
       </c>
       <c r="R152" s="3"/>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -20936,8 +21422,11 @@
         <v>816</v>
       </c>
       <c r="R153" s="3"/>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -20988,8 +21477,11 @@
         <v>816</v>
       </c>
       <c r="R154" s="3"/>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -21040,8 +21532,11 @@
         <v>816</v>
       </c>
       <c r="R155" s="3"/>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -21092,8 +21587,11 @@
         <v>816</v>
       </c>
       <c r="R156" s="3"/>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -21144,8 +21642,11 @@
         <v>816</v>
       </c>
       <c r="R157" s="3"/>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -21196,8 +21697,11 @@
         <v>816</v>
       </c>
       <c r="R158" s="3"/>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -21248,8 +21752,11 @@
         <v>816</v>
       </c>
       <c r="R159" s="3"/>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="S159" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -21300,8 +21807,11 @@
         <v>816</v>
       </c>
       <c r="R160" s="3"/>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -21352,8 +21862,11 @@
         <v>816</v>
       </c>
       <c r="R161" s="3"/>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -21404,8 +21917,11 @@
         <v>816</v>
       </c>
       <c r="R162" s="3"/>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="S162" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -21456,8 +21972,11 @@
         <v>816</v>
       </c>
       <c r="R163" s="3"/>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="S163" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -21508,8 +22027,11 @@
         <v>816</v>
       </c>
       <c r="R164" s="3"/>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="S164" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -21560,8 +22082,11 @@
         <v>816</v>
       </c>
       <c r="R165" s="3"/>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="S165" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -21612,8 +22137,11 @@
         <v>816</v>
       </c>
       <c r="R166" s="3"/>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="S166" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -21664,8 +22192,11 @@
         <v>816</v>
       </c>
       <c r="R167" s="3"/>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -21716,8 +22247,11 @@
         <v>816</v>
       </c>
       <c r="R168" s="3"/>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -21768,8 +22302,11 @@
         <v>816</v>
       </c>
       <c r="R169" s="3"/>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="S169" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -21820,8 +22357,11 @@
         <v>816</v>
       </c>
       <c r="R170" s="3"/>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -21872,8 +22412,11 @@
         <v>816</v>
       </c>
       <c r="R171" s="3"/>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="S171" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -21924,8 +22467,11 @@
         <v>816</v>
       </c>
       <c r="R172" s="3"/>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="S172" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -21976,8 +22522,11 @@
         <v>816</v>
       </c>
       <c r="R173" s="3"/>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="S173" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -22028,8 +22577,11 @@
         <v>816</v>
       </c>
       <c r="R174" s="3"/>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -22080,8 +22632,11 @@
         <v>816</v>
       </c>
       <c r="R175" s="3"/>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -22132,8 +22687,11 @@
         <v>1169</v>
       </c>
       <c r="R176" s="3"/>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -22184,8 +22742,11 @@
         <v>1169</v>
       </c>
       <c r="R177" s="3"/>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -22236,8 +22797,11 @@
         <v>1169</v>
       </c>
       <c r="R178" s="3"/>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -22288,8 +22852,11 @@
         <v>1169</v>
       </c>
       <c r="R179" s="3"/>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -22340,8 +22907,11 @@
         <v>1169</v>
       </c>
       <c r="R180" s="3"/>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -22392,8 +22962,11 @@
         <v>1169</v>
       </c>
       <c r="R181" s="3"/>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -22444,8 +23017,11 @@
         <v>1169</v>
       </c>
       <c r="R182" s="3"/>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -22496,8 +23072,11 @@
         <v>1169</v>
       </c>
       <c r="R183" s="3"/>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -22548,8 +23127,11 @@
         <v>1169</v>
       </c>
       <c r="R184" s="3"/>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -22600,8 +23182,11 @@
         <v>1169</v>
       </c>
       <c r="R185" s="3"/>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -22652,6 +23237,9 @@
         <v>1169</v>
       </c>
       <c r="R186" s="3"/>
+      <c r="S186" s="3" t="s">
+        <v>1859</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L186" xr:uid="{B89E02D6-4111-4531-B9F3-268755ADB59C}"/>
@@ -22666,7 +23254,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L2" sqref="L2:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22721,7 +23309,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -22752,8 +23340,11 @@
       <c r="J2" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -22784,8 +23375,11 @@
       <c r="J3" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -22816,8 +23410,11 @@
       <c r="J4" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -22848,8 +23445,11 @@
       <c r="J5" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -22880,8 +23480,11 @@
       <c r="J6" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -22912,8 +23515,11 @@
       <c r="J7" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -22944,8 +23550,11 @@
       <c r="J8" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -22976,8 +23585,11 @@
       <c r="J9" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -23008,8 +23620,11 @@
       <c r="J10" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -23040,8 +23655,11 @@
       <c r="J11" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -23072,8 +23690,11 @@
       <c r="J12" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -23104,8 +23725,11 @@
       <c r="J13" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -23136,8 +23760,11 @@
       <c r="J14" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -23168,8 +23795,11 @@
       <c r="J15" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -23200,8 +23830,11 @@
       <c r="J16" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -23232,8 +23865,11 @@
       <c r="J17" s="6" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -23264,8 +23900,11 @@
       <c r="J18" s="6" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -23296,8 +23935,11 @@
       <c r="J19" s="6" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -23328,8 +23970,11 @@
       <c r="J20" s="6" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" s="3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -23359,6 +24004,9 @@
       </c>
       <c r="J21" s="6" t="s">
         <v>510</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>1859</v>
       </c>
     </row>
   </sheetData>
@@ -39208,8 +39856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57047C20-427F-4634-B09D-E225BFE2B37C}">
   <dimension ref="A1:Y131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V94" sqref="V94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A757E82A-2131-48EE-B4B6-1BAE43A44043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCA2A76-FF7F-412F-A3F6-EC0AEF3AA764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALU PROJECT_ZTE_UPGRADE(153)" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8608" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8599" uniqueCount="1907">
   <si>
     <t>No.</t>
   </si>
@@ -11202,8 +11202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView topLeftCell="C127" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L154"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11404,11 +11404,9 @@
         <v>April</v>
       </c>
       <c r="K5" s="8">
-        <v>45765</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>1853</v>
-      </c>
+        <v>45766</v>
+      </c>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="1">
@@ -12148,9 +12146,7 @@
       <c r="K25" s="8">
         <v>45765</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="15">
       <c r="A26" s="1">
@@ -12776,10 +12772,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K42" s="8">
+        <v>45766</v>
+      </c>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="15">
       <c r="A43" s="1">
@@ -13072,10 +13068,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K50" s="8">
+        <v>45766</v>
+      </c>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="15">
       <c r="A51" s="1">
@@ -13109,10 +13105,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K51" s="8">
+        <v>45766</v>
+      </c>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="15">
       <c r="A52" s="1">
@@ -14256,10 +14252,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K82" s="8">
+        <v>45766</v>
+      </c>
+      <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:12" ht="15">
       <c r="A83" s="1">
@@ -14404,10 +14400,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K86" s="8">
+        <v>45766</v>
+      </c>
+      <c r="L86" s="1"/>
     </row>
     <row r="87" spans="1:12" ht="15">
       <c r="A87" s="1">
@@ -14555,9 +14551,7 @@
       <c r="K90" s="8">
         <v>45765</v>
       </c>
-      <c r="L90" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="L90" s="1"/>
     </row>
     <row r="91" spans="1:12" ht="15">
       <c r="A91" s="1">
@@ -14961,10 +14955,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K101" s="8">
+        <v>45766</v>
+      </c>
+      <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:12" ht="15">
       <c r="A102" s="1">
@@ -16945,8 +16939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89E02D6-4111-4531-B9F3-268755ADB59C}">
   <dimension ref="A1:R186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27967,10 +27961,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C8140-9AB4-4766-B1A2-D91A2ABB3CF2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P350"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28377,7 +28372,7 @@
       </c>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16" ht="15" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -28425,7 +28420,7 @@
       </c>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" ht="15" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -28473,7 +28468,7 @@
       </c>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" ht="15">
+    <row r="11" spans="1:16" ht="15" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -28521,7 +28516,7 @@
       </c>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" spans="1:16" ht="15" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -28569,7 +28564,7 @@
       </c>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" spans="1:16" ht="15" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -28617,7 +28612,7 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="15">
+    <row r="14" spans="1:16" ht="15" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -28665,7 +28660,7 @@
       </c>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" ht="15">
+    <row r="15" spans="1:16" ht="15" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -28713,7 +28708,7 @@
       </c>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:16" ht="15">
+    <row r="16" spans="1:16" ht="15" hidden="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -28761,7 +28756,7 @@
       </c>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:16" ht="15">
+    <row r="17" spans="1:16" ht="15" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -28809,7 +28804,7 @@
       </c>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="15">
+    <row r="18" spans="1:16" ht="15" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -28857,7 +28852,7 @@
       </c>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="1:16" ht="15">
+    <row r="19" spans="1:16" ht="15" hidden="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -28905,7 +28900,7 @@
       </c>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="1:16" ht="15">
+    <row r="20" spans="1:16" ht="15" hidden="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -28953,7 +28948,7 @@
       </c>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="1:16" ht="15">
+    <row r="21" spans="1:16" ht="15" hidden="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -29001,7 +28996,7 @@
       </c>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:16" ht="15">
+    <row r="22" spans="1:16" ht="15" hidden="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -29049,7 +29044,7 @@
       </c>
       <c r="P22" s="16"/>
     </row>
-    <row r="23" spans="1:16" ht="15">
+    <row r="23" spans="1:16" ht="15" hidden="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -29097,7 +29092,7 @@
       </c>
       <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="1:16" ht="15">
+    <row r="24" spans="1:16" ht="15" hidden="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -29145,7 +29140,7 @@
       </c>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16" ht="15">
+    <row r="25" spans="1:16" ht="15" hidden="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -29193,7 +29188,7 @@
       </c>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="1:16" ht="15">
+    <row r="26" spans="1:16" ht="15" hidden="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -29241,7 +29236,7 @@
       </c>
       <c r="P26" s="16"/>
     </row>
-    <row r="27" spans="1:16" ht="15">
+    <row r="27" spans="1:16" ht="15" hidden="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -29289,7 +29284,7 @@
       </c>
       <c r="P27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="15">
+    <row r="28" spans="1:16" ht="15" hidden="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -29337,7 +29332,7 @@
       </c>
       <c r="P28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="15">
+    <row r="29" spans="1:16" ht="15" hidden="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -29385,7 +29380,7 @@
       </c>
       <c r="P29" s="16"/>
     </row>
-    <row r="30" spans="1:16" ht="15">
+    <row r="30" spans="1:16" ht="15" hidden="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -29433,7 +29428,7 @@
       </c>
       <c r="P30" s="16"/>
     </row>
-    <row r="31" spans="1:16" ht="15">
+    <row r="31" spans="1:16" ht="15" hidden="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -29481,7 +29476,7 @@
       </c>
       <c r="P31" s="16"/>
     </row>
-    <row r="32" spans="1:16" ht="15">
+    <row r="32" spans="1:16" ht="15" hidden="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -29529,7 +29524,7 @@
       </c>
       <c r="P32" s="16"/>
     </row>
-    <row r="33" spans="1:16" ht="15">
+    <row r="33" spans="1:16" ht="15" hidden="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -29577,7 +29572,7 @@
       </c>
       <c r="P33" s="16"/>
     </row>
-    <row r="34" spans="1:16" ht="15">
+    <row r="34" spans="1:16" ht="15" hidden="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -29625,7 +29620,7 @@
       </c>
       <c r="P34" s="16"/>
     </row>
-    <row r="35" spans="1:16" ht="15">
+    <row r="35" spans="1:16" ht="15" hidden="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -29673,7 +29668,7 @@
       </c>
       <c r="P35" s="16"/>
     </row>
-    <row r="36" spans="1:16" ht="15">
+    <row r="36" spans="1:16" ht="15" hidden="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -29721,7 +29716,7 @@
       </c>
       <c r="P36" s="16"/>
     </row>
-    <row r="37" spans="1:16" ht="15">
+    <row r="37" spans="1:16" ht="15" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -29769,7 +29764,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15">
+    <row r="38" spans="1:16" ht="15" hidden="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -29817,7 +29812,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15">
+    <row r="39" spans="1:16" ht="15" hidden="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -29865,7 +29860,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15">
+    <row r="40" spans="1:16" ht="15" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -29913,7 +29908,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15">
+    <row r="41" spans="1:16" ht="15" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -29961,7 +29956,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15">
+    <row r="42" spans="1:16" ht="15" hidden="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -30009,7 +30004,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15">
+    <row r="43" spans="1:16" ht="15" hidden="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -30057,7 +30052,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15">
+    <row r="44" spans="1:16" ht="15" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -30105,7 +30100,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15">
+    <row r="45" spans="1:16" ht="15" hidden="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -30153,7 +30148,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15">
+    <row r="46" spans="1:16" ht="15" hidden="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -30201,7 +30196,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15">
+    <row r="47" spans="1:16" ht="15" hidden="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -30249,7 +30244,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15">
+    <row r="48" spans="1:16" ht="15" hidden="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -30297,7 +30292,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15">
+    <row r="49" spans="1:16" ht="15" hidden="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -30345,7 +30340,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15">
+    <row r="50" spans="1:16" ht="15" hidden="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -30393,7 +30388,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15">
+    <row r="51" spans="1:16" ht="15" hidden="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -30441,7 +30436,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15">
+    <row r="52" spans="1:16" ht="15" hidden="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -30489,7 +30484,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15">
+    <row r="53" spans="1:16" ht="15" hidden="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -30537,7 +30532,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15">
+    <row r="54" spans="1:16" ht="15" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -30585,7 +30580,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15">
+    <row r="55" spans="1:16" ht="15" hidden="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -30633,7 +30628,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15">
+    <row r="56" spans="1:16" ht="15" hidden="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -30681,7 +30676,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15">
+    <row r="57" spans="1:16" ht="15" hidden="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -30729,7 +30724,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15">
+    <row r="58" spans="1:16" ht="15" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -30777,7 +30772,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15">
+    <row r="59" spans="1:16" ht="15" hidden="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -30825,7 +30820,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15">
+    <row r="60" spans="1:16" ht="15" hidden="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -30873,7 +30868,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15">
+    <row r="61" spans="1:16" ht="15" hidden="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -30921,7 +30916,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15">
+    <row r="62" spans="1:16" ht="15" hidden="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -30969,7 +30964,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15">
+    <row r="63" spans="1:16" ht="15" hidden="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -31017,7 +31012,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15">
+    <row r="64" spans="1:16" ht="15" hidden="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -31065,7 +31060,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15">
+    <row r="65" spans="1:16" ht="15" hidden="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -31113,7 +31108,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15">
+    <row r="66" spans="1:16" ht="15" hidden="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -31161,7 +31156,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15">
+    <row r="67" spans="1:16" ht="15" hidden="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -31209,7 +31204,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15">
+    <row r="68" spans="1:16" ht="15" hidden="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -31257,7 +31252,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15">
+    <row r="69" spans="1:16" ht="15" hidden="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -31305,7 +31300,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15">
+    <row r="70" spans="1:16" ht="15" hidden="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -31353,7 +31348,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15">
+    <row r="71" spans="1:16" ht="15" hidden="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -31401,7 +31396,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15">
+    <row r="72" spans="1:16" ht="15" hidden="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -31449,7 +31444,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15">
+    <row r="73" spans="1:16" ht="15" hidden="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -31497,7 +31492,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15">
+    <row r="74" spans="1:16" ht="15" hidden="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -31545,7 +31540,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15">
+    <row r="75" spans="1:16" ht="15" hidden="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -31593,7 +31588,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15">
+    <row r="76" spans="1:16" ht="15" hidden="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -31641,7 +31636,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15">
+    <row r="77" spans="1:16" ht="15" hidden="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -31689,7 +31684,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15">
+    <row r="78" spans="1:16" ht="15" hidden="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -31737,7 +31732,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15">
+    <row r="79" spans="1:16" ht="15" hidden="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -31785,7 +31780,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15">
+    <row r="80" spans="1:16" ht="15" hidden="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -31833,7 +31828,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15">
+    <row r="81" spans="1:16" ht="15" hidden="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -31881,7 +31876,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15">
+    <row r="82" spans="1:16" ht="15" hidden="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -31929,7 +31924,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15">
+    <row r="83" spans="1:16" ht="15" hidden="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -31977,7 +31972,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15">
+    <row r="84" spans="1:16" ht="15" hidden="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -32025,7 +32020,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15">
+    <row r="85" spans="1:16" ht="15" hidden="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -32073,7 +32068,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15">
+    <row r="86" spans="1:16" ht="15" hidden="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -32121,7 +32116,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15">
+    <row r="87" spans="1:16" ht="15" hidden="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -32169,7 +32164,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15">
+    <row r="88" spans="1:16" ht="15" hidden="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -32217,7 +32212,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15">
+    <row r="89" spans="1:16" ht="15" hidden="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -32265,7 +32260,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15">
+    <row r="90" spans="1:16" ht="15" hidden="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -32313,7 +32308,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15">
+    <row r="91" spans="1:16" ht="15" hidden="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -32361,7 +32356,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15">
+    <row r="92" spans="1:16" ht="15" hidden="1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -32409,7 +32404,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15">
+    <row r="93" spans="1:16" ht="15" hidden="1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -32457,7 +32452,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15">
+    <row r="94" spans="1:16" ht="15" hidden="1">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -32505,7 +32500,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15">
+    <row r="95" spans="1:16" ht="15" hidden="1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -32553,7 +32548,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15">
+    <row r="96" spans="1:16" ht="15" hidden="1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -32601,7 +32596,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15">
+    <row r="97" spans="1:16" ht="15" hidden="1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -32649,7 +32644,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15">
+    <row r="98" spans="1:16" ht="15" hidden="1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -32697,7 +32692,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15">
+    <row r="99" spans="1:16" ht="15" hidden="1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -32745,7 +32740,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15">
+    <row r="100" spans="1:16" ht="15" hidden="1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -32793,7 +32788,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15">
+    <row r="101" spans="1:16" ht="15" hidden="1">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -32841,7 +32836,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15">
+    <row r="102" spans="1:16" ht="15" hidden="1">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -32889,7 +32884,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15">
+    <row r="103" spans="1:16" ht="15" hidden="1">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -32937,7 +32932,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15">
+    <row r="104" spans="1:16" ht="15" hidden="1">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -32985,7 +32980,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15">
+    <row r="105" spans="1:16" ht="15" hidden="1">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -33033,7 +33028,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15">
+    <row r="106" spans="1:16" ht="15" hidden="1">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -33081,7 +33076,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15">
+    <row r="107" spans="1:16" ht="15" hidden="1">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -33129,7 +33124,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15">
+    <row r="108" spans="1:16" ht="15" hidden="1">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -33177,7 +33172,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15">
+    <row r="109" spans="1:16" ht="15" hidden="1">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -33225,7 +33220,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15">
+    <row r="110" spans="1:16" ht="15" hidden="1">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -33273,7 +33268,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15">
+    <row r="111" spans="1:16" ht="15" hidden="1">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -33321,7 +33316,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15">
+    <row r="112" spans="1:16" ht="15" hidden="1">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -33369,7 +33364,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15">
+    <row r="113" spans="1:16" ht="15" hidden="1">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -33417,7 +33412,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15">
+    <row r="114" spans="1:16" ht="15" hidden="1">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -33465,7 +33460,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15">
+    <row r="115" spans="1:16" ht="15" hidden="1">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -33513,7 +33508,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15">
+    <row r="116" spans="1:16" ht="15" hidden="1">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -33561,7 +33556,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15">
+    <row r="117" spans="1:16" ht="15" hidden="1">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -33609,7 +33604,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15">
+    <row r="118" spans="1:16" ht="15" hidden="1">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -33657,7 +33652,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15">
+    <row r="119" spans="1:16" ht="15" hidden="1">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -33705,7 +33700,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15">
+    <row r="120" spans="1:16" ht="15" hidden="1">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -33753,7 +33748,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15">
+    <row r="121" spans="1:16" ht="15" hidden="1">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -33801,7 +33796,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15">
+    <row r="122" spans="1:16" ht="15" hidden="1">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -33849,7 +33844,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15">
+    <row r="123" spans="1:16" ht="15" hidden="1">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -33897,7 +33892,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15">
+    <row r="124" spans="1:16" ht="15" hidden="1">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -33945,7 +33940,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15">
+    <row r="125" spans="1:16" ht="15" hidden="1">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -33993,7 +33988,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15">
+    <row r="126" spans="1:16" ht="15" hidden="1">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -34041,7 +34036,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15">
+    <row r="127" spans="1:16" ht="15" hidden="1">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -34089,7 +34084,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15">
+    <row r="128" spans="1:16" ht="15" hidden="1">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -34137,7 +34132,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15">
+    <row r="129" spans="1:16" ht="15" hidden="1">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -34185,7 +34180,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15">
+    <row r="130" spans="1:16" ht="15" hidden="1">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -34233,7 +34228,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15">
+    <row r="131" spans="1:16" ht="15" hidden="1">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -34281,7 +34276,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15">
+    <row r="132" spans="1:16" ht="15" hidden="1">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -34329,7 +34324,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15">
+    <row r="133" spans="1:16" ht="15" hidden="1">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -34377,7 +34372,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15">
+    <row r="134" spans="1:16" ht="15" hidden="1">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -34425,7 +34420,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15">
+    <row r="135" spans="1:16" ht="15" hidden="1">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -34473,7 +34468,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15">
+    <row r="136" spans="1:16" ht="15" hidden="1">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -34521,7 +34516,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15">
+    <row r="137" spans="1:16" ht="15" hidden="1">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -34569,7 +34564,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15">
+    <row r="138" spans="1:16" ht="15" hidden="1">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -34617,7 +34612,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15">
+    <row r="139" spans="1:16" ht="15" hidden="1">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -34665,7 +34660,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15">
+    <row r="140" spans="1:16" ht="15" hidden="1">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -34713,7 +34708,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15">
+    <row r="141" spans="1:16" ht="15" hidden="1">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -34761,7 +34756,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15">
+    <row r="142" spans="1:16" ht="15" hidden="1">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -34809,7 +34804,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15">
+    <row r="143" spans="1:16" ht="15" hidden="1">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -34857,7 +34852,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15">
+    <row r="144" spans="1:16" ht="15" hidden="1">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -34905,7 +34900,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15">
+    <row r="145" spans="1:16" ht="15" hidden="1">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -34953,7 +34948,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15">
+    <row r="146" spans="1:16" ht="15" hidden="1">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -35001,7 +34996,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15">
+    <row r="147" spans="1:16" ht="15" hidden="1">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -35049,7 +35044,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15">
+    <row r="148" spans="1:16" ht="15" hidden="1">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -35097,7 +35092,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15">
+    <row r="149" spans="1:16" ht="15" hidden="1">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -35145,7 +35140,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15">
+    <row r="150" spans="1:16" ht="15" hidden="1">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -35193,7 +35188,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15">
+    <row r="151" spans="1:16" ht="15" hidden="1">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -35241,7 +35236,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15">
+    <row r="152" spans="1:16" ht="15" hidden="1">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -35289,7 +35284,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15">
+    <row r="153" spans="1:16" ht="15" hidden="1">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -35337,7 +35332,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15">
+    <row r="154" spans="1:16" ht="15" hidden="1">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -35385,7 +35380,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15">
+    <row r="155" spans="1:16" ht="15" hidden="1">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -35433,7 +35428,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15">
+    <row r="156" spans="1:16" ht="15" hidden="1">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -35481,7 +35476,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15">
+    <row r="157" spans="1:16" ht="15" hidden="1">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -35529,7 +35524,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15">
+    <row r="158" spans="1:16" ht="15" hidden="1">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -35577,7 +35572,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15">
+    <row r="159" spans="1:16" ht="15" hidden="1">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -35625,7 +35620,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15">
+    <row r="160" spans="1:16" ht="15" hidden="1">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -35673,7 +35668,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15">
+    <row r="161" spans="1:16" ht="15" hidden="1">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -35721,7 +35716,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15">
+    <row r="162" spans="1:16" ht="15" hidden="1">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -35769,7 +35764,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15">
+    <row r="163" spans="1:16" ht="15" hidden="1">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -35817,7 +35812,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15">
+    <row r="164" spans="1:16" ht="15" hidden="1">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -35865,7 +35860,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15">
+    <row r="165" spans="1:16" ht="15" hidden="1">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -35913,7 +35908,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15">
+    <row r="166" spans="1:16" ht="15" hidden="1">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -35961,7 +35956,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15">
+    <row r="167" spans="1:16" ht="15" hidden="1">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -36009,7 +36004,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15">
+    <row r="168" spans="1:16" ht="15" hidden="1">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -36057,7 +36052,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15">
+    <row r="169" spans="1:16" ht="15" hidden="1">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -36105,7 +36100,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15">
+    <row r="170" spans="1:16" ht="15" hidden="1">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -36153,7 +36148,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15">
+    <row r="171" spans="1:16" ht="15" hidden="1">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -36201,7 +36196,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15">
+    <row r="172" spans="1:16" ht="15" hidden="1">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -36249,7 +36244,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15">
+    <row r="173" spans="1:16" ht="15" hidden="1">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -36297,7 +36292,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15">
+    <row r="174" spans="1:16" ht="15" hidden="1">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -36345,7 +36340,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15">
+    <row r="175" spans="1:16" ht="15" hidden="1">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -36393,7 +36388,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15">
+    <row r="176" spans="1:16" ht="15" hidden="1">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -36441,7 +36436,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15">
+    <row r="177" spans="1:16" ht="15" hidden="1">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -36489,7 +36484,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15">
+    <row r="178" spans="1:16" ht="15" hidden="1">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -36537,7 +36532,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15">
+    <row r="179" spans="1:16" ht="15" hidden="1">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -36585,7 +36580,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15">
+    <row r="180" spans="1:16" ht="15" hidden="1">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -36633,7 +36628,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15">
+    <row r="181" spans="1:16" ht="15" hidden="1">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -36681,7 +36676,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15">
+    <row r="182" spans="1:16" ht="15" hidden="1">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -36729,7 +36724,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15">
+    <row r="183" spans="1:16" ht="15" hidden="1">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -36777,7 +36772,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15">
+    <row r="184" spans="1:16" ht="15" hidden="1">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -36825,7 +36820,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15">
+    <row r="185" spans="1:16" ht="15" hidden="1">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -36873,7 +36868,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15">
+    <row r="186" spans="1:16" ht="15" hidden="1">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -36921,7 +36916,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15">
+    <row r="187" spans="1:16" ht="15" hidden="1">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -36969,7 +36964,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15">
+    <row r="188" spans="1:16" ht="15" hidden="1">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -37017,7 +37012,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15">
+    <row r="189" spans="1:16" ht="15" hidden="1">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -37065,7 +37060,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15">
+    <row r="190" spans="1:16" ht="15" hidden="1">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -37113,7 +37108,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15">
+    <row r="191" spans="1:16" ht="15" hidden="1">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -37161,7 +37156,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15">
+    <row r="192" spans="1:16" ht="15" hidden="1">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -37209,7 +37204,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15">
+    <row r="193" spans="1:16" ht="15" hidden="1">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -37257,7 +37252,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15">
+    <row r="194" spans="1:16" ht="15" hidden="1">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -37305,7 +37300,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15">
+    <row r="195" spans="1:16" ht="15" hidden="1">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -37353,7 +37348,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15">
+    <row r="196" spans="1:16" ht="15" hidden="1">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -37401,7 +37396,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15">
+    <row r="197" spans="1:16" ht="15" hidden="1">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -37449,7 +37444,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15">
+    <row r="198" spans="1:16" ht="15" hidden="1">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -37497,7 +37492,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15">
+    <row r="199" spans="1:16" ht="15" hidden="1">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -37545,7 +37540,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15">
+    <row r="200" spans="1:16" ht="15" hidden="1">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -37593,7 +37588,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15">
+    <row r="201" spans="1:16" ht="15" hidden="1">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -37641,7 +37636,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15">
+    <row r="202" spans="1:16" ht="15" hidden="1">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -37689,7 +37684,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15">
+    <row r="203" spans="1:16" ht="15" hidden="1">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -37737,7 +37732,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15">
+    <row r="204" spans="1:16" ht="15" hidden="1">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -37785,7 +37780,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15">
+    <row r="205" spans="1:16" ht="15" hidden="1">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -37833,7 +37828,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15">
+    <row r="206" spans="1:16" ht="15" hidden="1">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -37881,7 +37876,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15">
+    <row r="207" spans="1:16" ht="15" hidden="1">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -37929,7 +37924,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15">
+    <row r="208" spans="1:16" ht="15" hidden="1">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -37977,7 +37972,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15">
+    <row r="209" spans="1:16" ht="15" hidden="1">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -38025,7 +38020,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15">
+    <row r="210" spans="1:16" ht="15" hidden="1">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -38073,7 +38068,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15">
+    <row r="211" spans="1:16" ht="15" hidden="1">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -38121,7 +38116,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15">
+    <row r="212" spans="1:16" ht="15" hidden="1">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -38169,7 +38164,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15">
+    <row r="213" spans="1:16" ht="15" hidden="1">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -38217,7 +38212,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15">
+    <row r="214" spans="1:16" ht="15" hidden="1">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -38265,7 +38260,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15">
+    <row r="215" spans="1:16" ht="15" hidden="1">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -38313,7 +38308,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15">
+    <row r="216" spans="1:16" ht="15" hidden="1">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -38361,7 +38356,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15">
+    <row r="217" spans="1:16" ht="15" hidden="1">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -38409,7 +38404,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15">
+    <row r="218" spans="1:16" ht="15" hidden="1">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -38457,7 +38452,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15">
+    <row r="219" spans="1:16" ht="15" hidden="1">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -38505,7 +38500,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15">
+    <row r="220" spans="1:16" ht="15" hidden="1">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -38553,7 +38548,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15">
+    <row r="221" spans="1:16" ht="15" hidden="1">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -38601,7 +38596,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15">
+    <row r="222" spans="1:16" ht="15" hidden="1">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -38649,7 +38644,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15">
+    <row r="223" spans="1:16" ht="15" hidden="1">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -38697,7 +38692,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15">
+    <row r="224" spans="1:16" ht="15" hidden="1">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -38745,7 +38740,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15">
+    <row r="225" spans="1:16" ht="15" hidden="1">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -38793,7 +38788,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15">
+    <row r="226" spans="1:16" ht="15" hidden="1">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -38841,7 +38836,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15">
+    <row r="227" spans="1:16" ht="15" hidden="1">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -38889,7 +38884,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15">
+    <row r="228" spans="1:16" ht="15" hidden="1">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -38937,7 +38932,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15">
+    <row r="229" spans="1:16" ht="15" hidden="1">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -38985,7 +38980,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15">
+    <row r="230" spans="1:16" ht="15" hidden="1">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -39033,7 +39028,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15">
+    <row r="231" spans="1:16" ht="15" hidden="1">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -39081,7 +39076,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15">
+    <row r="232" spans="1:16" ht="15" hidden="1">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -39129,7 +39124,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15">
+    <row r="233" spans="1:16" ht="15" hidden="1">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -39177,7 +39172,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15">
+    <row r="234" spans="1:16" ht="15" hidden="1">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -39225,7 +39220,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15">
+    <row r="235" spans="1:16" ht="15" hidden="1">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -39273,7 +39268,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15">
+    <row r="236" spans="1:16" ht="15" hidden="1">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -39321,7 +39316,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15">
+    <row r="237" spans="1:16" ht="15" hidden="1">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -39369,7 +39364,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15">
+    <row r="238" spans="1:16" ht="15" hidden="1">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -39417,7 +39412,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15">
+    <row r="239" spans="1:16" ht="15" hidden="1">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -39465,7 +39460,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15">
+    <row r="240" spans="1:16" ht="15" hidden="1">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -39513,7 +39508,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15">
+    <row r="241" spans="1:16" ht="15" hidden="1">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -39561,7 +39556,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15">
+    <row r="242" spans="1:16" ht="15" hidden="1">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -39609,7 +39604,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15">
+    <row r="243" spans="1:16" ht="15" hidden="1">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -39657,7 +39652,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15">
+    <row r="244" spans="1:16" ht="15" hidden="1">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -39705,7 +39700,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="15">
+    <row r="245" spans="1:16" ht="15" hidden="1">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -39753,7 +39748,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="15">
+    <row r="246" spans="1:16" ht="15" hidden="1">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -39801,7 +39796,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="15">
+    <row r="247" spans="1:16" ht="15" hidden="1">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -39849,7 +39844,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="15">
+    <row r="248" spans="1:16" ht="15" hidden="1">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -39897,7 +39892,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="15">
+    <row r="249" spans="1:16" ht="15" hidden="1">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -39945,7 +39940,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="15">
+    <row r="250" spans="1:16" ht="15" hidden="1">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -39993,7 +39988,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="15">
+    <row r="251" spans="1:16" ht="15" hidden="1">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -40041,7 +40036,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="15">
+    <row r="252" spans="1:16" ht="15" hidden="1">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -40089,7 +40084,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="15">
+    <row r="253" spans="1:16" ht="15" hidden="1">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -40137,7 +40132,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="15">
+    <row r="254" spans="1:16" ht="15" hidden="1">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -40185,7 +40180,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="15">
+    <row r="255" spans="1:16" ht="15" hidden="1">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -40233,7 +40228,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="15">
+    <row r="256" spans="1:16" ht="15" hidden="1">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -40281,7 +40276,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="15">
+    <row r="257" spans="1:16" ht="15" hidden="1">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -40329,7 +40324,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="15">
+    <row r="258" spans="1:16" ht="15" hidden="1">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -40377,7 +40372,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="15">
+    <row r="259" spans="1:16" ht="15" hidden="1">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -40425,7 +40420,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="15">
+    <row r="260" spans="1:16" ht="15" hidden="1">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -40473,7 +40468,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="15">
+    <row r="261" spans="1:16" ht="15" hidden="1">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -40521,7 +40516,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="15">
+    <row r="262" spans="1:16" ht="15" hidden="1">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -40569,7 +40564,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="15">
+    <row r="263" spans="1:16" ht="15" hidden="1">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -40617,7 +40612,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="15">
+    <row r="264" spans="1:16" ht="15" hidden="1">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -40665,7 +40660,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="15">
+    <row r="265" spans="1:16" ht="15" hidden="1">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -40713,7 +40708,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="15">
+    <row r="266" spans="1:16" ht="15" hidden="1">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -40761,7 +40756,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="15">
+    <row r="267" spans="1:16" ht="15" hidden="1">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -40809,7 +40804,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="15">
+    <row r="268" spans="1:16" ht="15" hidden="1">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -40857,7 +40852,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="15">
+    <row r="269" spans="1:16" ht="15" hidden="1">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -40905,7 +40900,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="15">
+    <row r="270" spans="1:16" ht="15" hidden="1">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -40953,7 +40948,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="15">
+    <row r="271" spans="1:16" ht="15" hidden="1">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -41001,7 +40996,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="15">
+    <row r="272" spans="1:16" ht="15" hidden="1">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -41049,7 +41044,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="15">
+    <row r="273" spans="1:16" ht="15" hidden="1">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -41097,7 +41092,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="15">
+    <row r="274" spans="1:16" ht="15" hidden="1">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -41145,7 +41140,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="15">
+    <row r="275" spans="1:16" ht="15" hidden="1">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -41193,7 +41188,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="15">
+    <row r="276" spans="1:16" ht="15" hidden="1">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -41241,7 +41236,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="15">
+    <row r="277" spans="1:16" ht="15" hidden="1">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -41289,7 +41284,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="15">
+    <row r="278" spans="1:16" ht="15" hidden="1">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -41337,7 +41332,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="15">
+    <row r="279" spans="1:16" ht="15" hidden="1">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -41385,7 +41380,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="15">
+    <row r="280" spans="1:16" ht="15" hidden="1">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -41433,7 +41428,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="15">
+    <row r="281" spans="1:16" ht="15" hidden="1">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -41481,7 +41476,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="15">
+    <row r="282" spans="1:16" ht="15" hidden="1">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -41529,7 +41524,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="15">
+    <row r="283" spans="1:16" ht="15" hidden="1">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -41577,7 +41572,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="15">
+    <row r="284" spans="1:16" ht="15" hidden="1">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -41625,7 +41620,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="15">
+    <row r="285" spans="1:16" ht="15" hidden="1">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -41673,7 +41668,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="15">
+    <row r="286" spans="1:16" ht="15" hidden="1">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -41721,7 +41716,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="15">
+    <row r="287" spans="1:16" ht="15" hidden="1">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -41769,7 +41764,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="15">
+    <row r="288" spans="1:16" ht="15" hidden="1">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -41817,7 +41812,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="15">
+    <row r="289" spans="1:16" ht="15" hidden="1">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -41865,7 +41860,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="15">
+    <row r="290" spans="1:16" ht="15" hidden="1">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -41913,7 +41908,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="15">
+    <row r="291" spans="1:16" ht="15" hidden="1">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -41961,7 +41956,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="15">
+    <row r="292" spans="1:16" ht="15" hidden="1">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -42009,7 +42004,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="15">
+    <row r="293" spans="1:16" ht="15" hidden="1">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -42057,7 +42052,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="15">
+    <row r="294" spans="1:16" ht="15" hidden="1">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -42105,7 +42100,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="15">
+    <row r="295" spans="1:16" ht="15" hidden="1">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -42153,7 +42148,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="15">
+    <row r="296" spans="1:16" ht="15" hidden="1">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -42201,7 +42196,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="15">
+    <row r="297" spans="1:16" ht="15" hidden="1">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -42249,7 +42244,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="15">
+    <row r="298" spans="1:16" ht="15" hidden="1">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -42297,7 +42292,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="15">
+    <row r="299" spans="1:16" ht="15" hidden="1">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -42345,7 +42340,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="15">
+    <row r="300" spans="1:16" ht="15" hidden="1">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -42393,7 +42388,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15">
+    <row r="301" spans="1:16" ht="15" hidden="1">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -42441,7 +42436,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="15">
+    <row r="302" spans="1:16" ht="15" hidden="1">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -42489,7 +42484,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="15">
+    <row r="303" spans="1:16" ht="15" hidden="1">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -42537,7 +42532,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="15">
+    <row r="304" spans="1:16" ht="15" hidden="1">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -42585,7 +42580,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="15">
+    <row r="305" spans="1:16" ht="15" hidden="1">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -42633,7 +42628,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="15">
+    <row r="306" spans="1:16" ht="15" hidden="1">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -42681,7 +42676,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="15">
+    <row r="307" spans="1:16" ht="15" hidden="1">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -42729,7 +42724,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="15">
+    <row r="308" spans="1:16" ht="15" hidden="1">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -42777,7 +42772,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="15">
+    <row r="309" spans="1:16" ht="15" hidden="1">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -42825,7 +42820,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15">
+    <row r="310" spans="1:16" ht="15" hidden="1">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -42873,7 +42868,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15">
+    <row r="311" spans="1:16" ht="15" hidden="1">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -42921,7 +42916,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="15">
+    <row r="312" spans="1:16" ht="15" hidden="1">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -42969,7 +42964,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="15">
+    <row r="313" spans="1:16" ht="15" hidden="1">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -43017,7 +43012,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="15">
+    <row r="314" spans="1:16" ht="15" hidden="1">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -43065,7 +43060,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="15">
+    <row r="315" spans="1:16" ht="15" hidden="1">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -43113,7 +43108,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="15">
+    <row r="316" spans="1:16" ht="15" hidden="1">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -43161,7 +43156,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="15">
+    <row r="317" spans="1:16" ht="15" hidden="1">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -43209,7 +43204,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="15">
+    <row r="318" spans="1:16" ht="15" hidden="1">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -43257,7 +43252,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="15">
+    <row r="319" spans="1:16" ht="15" hidden="1">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -43305,7 +43300,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="15">
+    <row r="320" spans="1:16" ht="15" hidden="1">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -43353,7 +43348,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="15">
+    <row r="321" spans="1:16" ht="15" hidden="1">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -43401,7 +43396,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="15">
+    <row r="322" spans="1:16" ht="15" hidden="1">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -43449,7 +43444,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="15">
+    <row r="323" spans="1:16" ht="15" hidden="1">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -43497,7 +43492,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="15">
+    <row r="324" spans="1:16" ht="15" hidden="1">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -43545,7 +43540,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="15">
+    <row r="325" spans="1:16" ht="15" hidden="1">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -43593,7 +43588,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="15">
+    <row r="326" spans="1:16" ht="15" hidden="1">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -43641,7 +43636,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="15">
+    <row r="327" spans="1:16" ht="15" hidden="1">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -43689,7 +43684,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="15">
+    <row r="328" spans="1:16" ht="15" hidden="1">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -43737,7 +43732,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="15">
+    <row r="329" spans="1:16" ht="15" hidden="1">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -43785,7 +43780,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="15">
+    <row r="330" spans="1:16" ht="15" hidden="1">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -43833,7 +43828,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="15">
+    <row r="331" spans="1:16" ht="15" hidden="1">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -43881,7 +43876,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="15">
+    <row r="332" spans="1:16" ht="15" hidden="1">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -43929,7 +43924,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="15">
+    <row r="333" spans="1:16" ht="15" hidden="1">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -43975,7 +43970,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="15">
+    <row r="334" spans="1:16" ht="15" hidden="1">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -44021,7 +44016,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="15">
+    <row r="335" spans="1:16" ht="15" hidden="1">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -44069,7 +44064,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="15">
+    <row r="336" spans="1:16" ht="15" hidden="1">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -44117,7 +44112,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="15">
+    <row r="337" spans="1:16" ht="15" hidden="1">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -44165,7 +44160,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="15">
+    <row r="338" spans="1:16" ht="15" hidden="1">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -44211,7 +44206,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="15">
+    <row r="339" spans="1:16" ht="15" hidden="1">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -44257,7 +44252,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="15">
+    <row r="340" spans="1:16" ht="15" hidden="1">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -44303,7 +44298,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="15">
+    <row r="341" spans="1:16" ht="15" hidden="1">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -44351,7 +44346,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="15">
+    <row r="342" spans="1:16" ht="15" hidden="1">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -44399,7 +44394,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="15">
+    <row r="343" spans="1:16" ht="15" hidden="1">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -44445,7 +44440,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15" hidden="1">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -44491,7 +44486,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="15">
+    <row r="345" spans="1:16" ht="15" hidden="1">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -44539,7 +44534,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="15">
+    <row r="346" spans="1:16" ht="15" hidden="1">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -44585,7 +44580,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="15">
+    <row r="347" spans="1:16" ht="15" hidden="1">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -44633,7 +44628,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="15">
+    <row r="348" spans="1:16" ht="15" hidden="1">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -44681,7 +44676,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="15">
+    <row r="349" spans="1:16" ht="15" hidden="1">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -44727,7 +44722,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="15">
+    <row r="350" spans="1:16" ht="15" hidden="1">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -44774,7 +44769,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N350" xr:uid="{BD5C8140-9AB4-4766-B1A2-D91A2ABB3CF2}"/>
+  <autoFilter ref="A1:N350" xr:uid="{BD5C8140-9AB4-4766-B1A2-D91A2ABB3CF2}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53501,8 +53502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1294EC-9649-4C59-B463-29DEC662CA00}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCA2A76-FF7F-412F-A3F6-EC0AEF3AA764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6065E6-8846-4BED-8085-0A3D18B8E7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8599" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8605" uniqueCount="1909">
   <si>
     <t>No.</t>
   </si>
@@ -5700,15 +5700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>New Site Name</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -5722,9 +5713,6 @@
   </si>
   <si>
     <t>CANADIA_BANK</t>
-  </si>
-  <si>
-    <t>Upgrade</t>
   </si>
   <si>
     <t>Metfone site sharing</t>
@@ -5790,18 +5778,6 @@
     <t>RTK6468BNL</t>
   </si>
   <si>
-    <t>Old SBTS Site Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New SBTS Site Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Old Site Name Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Project SoW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5811,6 +5787,42 @@
   </si>
   <si>
     <t>WP Under TRC Approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU Overlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L9 Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Site Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Site Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old SBTS Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New SBTS Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_Latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_Longitude</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11202,8 +11214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11329,10 +11341,10 @@
         <f t="shared" ref="J3:J66" si="0">TEXT(H3,"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K3" s="8">
+        <v>45767</v>
+      </c>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1">
@@ -11553,7 +11565,7 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15">
@@ -12402,10 +12414,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K32" s="8">
+        <v>45767</v>
+      </c>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="15">
       <c r="A33" s="1">
@@ -12883,10 +12895,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K45" s="8">
+        <v>45767</v>
+      </c>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="15">
       <c r="A46" s="1">
@@ -13031,10 +13043,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K49" s="8">
+        <v>45767</v>
+      </c>
+      <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="15">
       <c r="A50" s="1">
@@ -13181,7 +13193,7 @@
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15">
@@ -13253,10 +13265,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K55" s="8">
+        <v>45767</v>
+      </c>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="15">
       <c r="A56" s="1">
@@ -14217,7 +14229,7 @@
       </c>
       <c r="K81" s="8"/>
       <c r="L81" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15">
@@ -14770,10 +14782,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K96" s="8">
+        <v>45767</v>
+      </c>
+      <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:12" ht="15">
       <c r="A97" s="1">
@@ -14807,10 +14819,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K97" s="8">
+        <v>45767</v>
+      </c>
+      <c r="L97" s="1"/>
     </row>
     <row r="98" spans="1:12" ht="15">
       <c r="A98" s="1">
@@ -15399,10 +15411,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K113" s="8"/>
-      <c r="L113" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K113" s="8">
+        <v>45767</v>
+      </c>
+      <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15">
       <c r="A114" s="1">
@@ -15658,10 +15670,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K120" s="8"/>
-      <c r="L120" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K120" s="8">
+        <v>45767</v>
+      </c>
+      <c r="L120" s="1"/>
     </row>
     <row r="121" spans="1:12" ht="15">
       <c r="A121" s="1">
@@ -15734,7 +15746,7 @@
       </c>
       <c r="K122" s="8"/>
       <c r="L122" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15">
@@ -15771,7 +15783,7 @@
       </c>
       <c r="K123" s="8"/>
       <c r="L123" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15">
@@ -15808,7 +15820,7 @@
       </c>
       <c r="K124" s="8"/>
       <c r="L124" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="15">
@@ -15845,7 +15857,7 @@
       </c>
       <c r="K125" s="8"/>
       <c r="L125" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15">
@@ -15882,7 +15894,7 @@
       </c>
       <c r="K126" s="8"/>
       <c r="L126" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15">
@@ -15919,7 +15931,7 @@
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15">
@@ -15991,10 +16003,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K129" s="8"/>
-      <c r="L129" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="K129" s="8">
+        <v>45767</v>
+      </c>
+      <c r="L129" s="1"/>
     </row>
     <row r="130" spans="1:12" ht="15">
       <c r="A130" s="1">
@@ -16030,7 +16042,7 @@
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="15">
@@ -16067,7 +16079,7 @@
       </c>
       <c r="K131" s="8"/>
       <c r="L131" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="15">
@@ -16104,7 +16116,7 @@
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="15">
@@ -16141,7 +16153,7 @@
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="15">
@@ -16178,7 +16190,7 @@
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="15">
@@ -16215,7 +16227,7 @@
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="15">
@@ -16252,7 +16264,7 @@
       </c>
       <c r="K136" s="8"/>
       <c r="L136" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="15">
@@ -16289,7 +16301,7 @@
       </c>
       <c r="K137" s="8"/>
       <c r="L137" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="15">
@@ -16326,7 +16338,7 @@
       </c>
       <c r="K138" s="8"/>
       <c r="L138" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15">
@@ -16363,7 +16375,7 @@
       </c>
       <c r="K139" s="8"/>
       <c r="L139" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="15">
@@ -16400,7 +16412,7 @@
       </c>
       <c r="K140" s="8"/>
       <c r="L140" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="15">
@@ -16437,7 +16449,7 @@
       </c>
       <c r="K141" s="8"/>
       <c r="L141" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15">
@@ -16474,7 +16486,7 @@
       </c>
       <c r="K142" s="8"/>
       <c r="L142" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="15">
@@ -16511,7 +16523,7 @@
       </c>
       <c r="K143" s="8"/>
       <c r="L143" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="15">
@@ -16548,7 +16560,7 @@
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="15">
@@ -16585,7 +16597,7 @@
       </c>
       <c r="K145" s="8"/>
       <c r="L145" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="15">
@@ -16622,7 +16634,7 @@
       </c>
       <c r="K146" s="8"/>
       <c r="L146" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="15">
@@ -16659,7 +16671,7 @@
       </c>
       <c r="K147" s="8"/>
       <c r="L147" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="15">
@@ -16696,7 +16708,7 @@
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="15">
@@ -16733,7 +16745,7 @@
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="15">
@@ -16770,7 +16782,7 @@
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="15">
@@ -16807,7 +16819,7 @@
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="15">
@@ -16844,7 +16856,7 @@
       </c>
       <c r="K152" s="8"/>
       <c r="L152" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="15">
@@ -16881,7 +16893,7 @@
       </c>
       <c r="K153" s="8"/>
       <c r="L153" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="15">
@@ -16918,7 +16930,7 @@
       </c>
       <c r="K154" s="8"/>
       <c r="L154" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="15">
@@ -27197,7 +27209,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29761,7 +29773,7 @@
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" hidden="1">
@@ -29809,7 +29821,7 @@
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" hidden="1">
@@ -29857,7 +29869,7 @@
       </c>
       <c r="O39" s="8"/>
       <c r="P39" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" hidden="1">
@@ -29905,7 +29917,7 @@
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" hidden="1">
@@ -29953,7 +29965,7 @@
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" hidden="1">
@@ -30001,7 +30013,7 @@
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" hidden="1">
@@ -30049,7 +30061,7 @@
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" hidden="1">
@@ -30097,7 +30109,7 @@
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" hidden="1">
@@ -30145,7 +30157,7 @@
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" hidden="1">
@@ -30193,7 +30205,7 @@
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" hidden="1">
@@ -30241,7 +30253,7 @@
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" hidden="1">
@@ -30289,7 +30301,7 @@
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" hidden="1">
@@ -30337,7 +30349,7 @@
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15" hidden="1">
@@ -30385,7 +30397,7 @@
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15" hidden="1">
@@ -30433,7 +30445,7 @@
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15" hidden="1">
@@ -30481,7 +30493,7 @@
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" hidden="1">
@@ -30529,7 +30541,7 @@
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" hidden="1">
@@ -30577,7 +30589,7 @@
       </c>
       <c r="O54" s="8"/>
       <c r="P54" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15" hidden="1">
@@ -30625,7 +30637,7 @@
       </c>
       <c r="O55" s="8"/>
       <c r="P55" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15" hidden="1">
@@ -30673,7 +30685,7 @@
       </c>
       <c r="O56" s="8"/>
       <c r="P56" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15" hidden="1">
@@ -30721,7 +30733,7 @@
       </c>
       <c r="O57" s="8"/>
       <c r="P57" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15" hidden="1">
@@ -30769,7 +30781,7 @@
       </c>
       <c r="O58" s="8"/>
       <c r="P58" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15" hidden="1">
@@ -30817,7 +30829,7 @@
       </c>
       <c r="O59" s="8"/>
       <c r="P59" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15" hidden="1">
@@ -30865,7 +30877,7 @@
       </c>
       <c r="O60" s="8"/>
       <c r="P60" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15" hidden="1">
@@ -30913,7 +30925,7 @@
       </c>
       <c r="O61" s="8"/>
       <c r="P61" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15" hidden="1">
@@ -30961,7 +30973,7 @@
       </c>
       <c r="O62" s="8"/>
       <c r="P62" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15" hidden="1">
@@ -31009,7 +31021,7 @@
       </c>
       <c r="O63" s="8"/>
       <c r="P63" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15" hidden="1">
@@ -31057,7 +31069,7 @@
       </c>
       <c r="O64" s="8"/>
       <c r="P64" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="15" hidden="1">
@@ -31105,7 +31117,7 @@
       </c>
       <c r="O65" s="8"/>
       <c r="P65" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="15" hidden="1">
@@ -31153,7 +31165,7 @@
       </c>
       <c r="O66" s="8"/>
       <c r="P66" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="15" hidden="1">
@@ -31201,7 +31213,7 @@
       </c>
       <c r="O67" s="8"/>
       <c r="P67" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="15" hidden="1">
@@ -31249,7 +31261,7 @@
       </c>
       <c r="O68" s="8"/>
       <c r="P68" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="15" hidden="1">
@@ -31297,7 +31309,7 @@
       </c>
       <c r="O69" s="8"/>
       <c r="P69" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="15" hidden="1">
@@ -31345,7 +31357,7 @@
       </c>
       <c r="O70" s="8"/>
       <c r="P70" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="15" hidden="1">
@@ -31393,7 +31405,7 @@
       </c>
       <c r="O71" s="8"/>
       <c r="P71" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="15" hidden="1">
@@ -31441,7 +31453,7 @@
       </c>
       <c r="O72" s="8"/>
       <c r="P72" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="15" hidden="1">
@@ -31489,7 +31501,7 @@
       </c>
       <c r="O73" s="8"/>
       <c r="P73" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="15" hidden="1">
@@ -31537,7 +31549,7 @@
       </c>
       <c r="O74" s="8"/>
       <c r="P74" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="15" hidden="1">
@@ -31585,7 +31597,7 @@
       </c>
       <c r="O75" s="8"/>
       <c r="P75" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="15" hidden="1">
@@ -31633,7 +31645,7 @@
       </c>
       <c r="O76" s="8"/>
       <c r="P76" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="15" hidden="1">
@@ -31681,7 +31693,7 @@
       </c>
       <c r="O77" s="8"/>
       <c r="P77" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="15" hidden="1">
@@ -31729,7 +31741,7 @@
       </c>
       <c r="O78" s="8"/>
       <c r="P78" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" hidden="1">
@@ -31777,7 +31789,7 @@
       </c>
       <c r="O79" s="8"/>
       <c r="P79" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="15" hidden="1">
@@ -31825,7 +31837,7 @@
       </c>
       <c r="O80" s="8"/>
       <c r="P80" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="15" hidden="1">
@@ -31873,7 +31885,7 @@
       </c>
       <c r="O81" s="8"/>
       <c r="P81" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="15" hidden="1">
@@ -31921,7 +31933,7 @@
       </c>
       <c r="O82" s="8"/>
       <c r="P82" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" hidden="1">
@@ -31969,7 +31981,7 @@
       </c>
       <c r="O83" s="8"/>
       <c r="P83" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="15" hidden="1">
@@ -32017,7 +32029,7 @@
       </c>
       <c r="O84" s="8"/>
       <c r="P84" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="15" hidden="1">
@@ -32065,7 +32077,7 @@
       </c>
       <c r="O85" s="8"/>
       <c r="P85" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="15" hidden="1">
@@ -32113,7 +32125,7 @@
       </c>
       <c r="O86" s="8"/>
       <c r="P86" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="15" hidden="1">
@@ -32161,7 +32173,7 @@
       </c>
       <c r="O87" s="8"/>
       <c r="P87" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15" hidden="1">
@@ -32209,7 +32221,7 @@
       </c>
       <c r="O88" s="8"/>
       <c r="P88" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15" hidden="1">
@@ -32257,7 +32269,7 @@
       </c>
       <c r="O89" s="8"/>
       <c r="P89" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15" hidden="1">
@@ -32305,7 +32317,7 @@
       </c>
       <c r="O90" s="8"/>
       <c r="P90" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="15" hidden="1">
@@ -32353,7 +32365,7 @@
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="15" hidden="1">
@@ -32401,7 +32413,7 @@
       </c>
       <c r="O92" s="8"/>
       <c r="P92" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="15" hidden="1">
@@ -32449,7 +32461,7 @@
       </c>
       <c r="O93" s="8"/>
       <c r="P93" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="15" hidden="1">
@@ -32497,7 +32509,7 @@
       </c>
       <c r="O94" s="8"/>
       <c r="P94" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="15" hidden="1">
@@ -32545,7 +32557,7 @@
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="15" hidden="1">
@@ -32593,7 +32605,7 @@
       </c>
       <c r="O96" s="8"/>
       <c r="P96" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="15" hidden="1">
@@ -32641,7 +32653,7 @@
       </c>
       <c r="O97" s="8"/>
       <c r="P97" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="15" hidden="1">
@@ -32689,7 +32701,7 @@
       </c>
       <c r="O98" s="8"/>
       <c r="P98" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15" hidden="1">
@@ -32737,7 +32749,7 @@
       </c>
       <c r="O99" s="8"/>
       <c r="P99" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="15" hidden="1">
@@ -32785,7 +32797,7 @@
       </c>
       <c r="O100" s="8"/>
       <c r="P100" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="15" hidden="1">
@@ -32833,7 +32845,7 @@
       </c>
       <c r="O101" s="8"/>
       <c r="P101" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="15" hidden="1">
@@ -32881,7 +32893,7 @@
       </c>
       <c r="O102" s="8"/>
       <c r="P102" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="15" hidden="1">
@@ -32929,7 +32941,7 @@
       </c>
       <c r="O103" s="8"/>
       <c r="P103" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="15" hidden="1">
@@ -32977,7 +32989,7 @@
       </c>
       <c r="O104" s="8"/>
       <c r="P104" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="15" hidden="1">
@@ -33025,7 +33037,7 @@
       </c>
       <c r="O105" s="8"/>
       <c r="P105" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="15" hidden="1">
@@ -33073,7 +33085,7 @@
       </c>
       <c r="O106" s="8"/>
       <c r="P106" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="15" hidden="1">
@@ -33121,7 +33133,7 @@
       </c>
       <c r="O107" s="8"/>
       <c r="P107" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="15" hidden="1">
@@ -33169,7 +33181,7 @@
       </c>
       <c r="O108" s="8"/>
       <c r="P108" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="15" hidden="1">
@@ -33217,7 +33229,7 @@
       </c>
       <c r="O109" s="8"/>
       <c r="P109" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="15" hidden="1">
@@ -33265,7 +33277,7 @@
       </c>
       <c r="O110" s="8"/>
       <c r="P110" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="15" hidden="1">
@@ -33313,7 +33325,7 @@
       </c>
       <c r="O111" s="8"/>
       <c r="P111" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="15" hidden="1">
@@ -33361,7 +33373,7 @@
       </c>
       <c r="O112" s="8"/>
       <c r="P112" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="15" hidden="1">
@@ -33409,7 +33421,7 @@
       </c>
       <c r="O113" s="8"/>
       <c r="P113" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="15" hidden="1">
@@ -33457,7 +33469,7 @@
       </c>
       <c r="O114" s="8"/>
       <c r="P114" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="15" hidden="1">
@@ -33505,7 +33517,7 @@
       </c>
       <c r="O115" s="8"/>
       <c r="P115" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="15" hidden="1">
@@ -33553,7 +33565,7 @@
       </c>
       <c r="O116" s="8"/>
       <c r="P116" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="15" hidden="1">
@@ -33601,7 +33613,7 @@
       </c>
       <c r="O117" s="8"/>
       <c r="P117" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="15" hidden="1">
@@ -33649,7 +33661,7 @@
       </c>
       <c r="O118" s="8"/>
       <c r="P118" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="15" hidden="1">
@@ -33697,7 +33709,7 @@
       </c>
       <c r="O119" s="8"/>
       <c r="P119" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="15" hidden="1">
@@ -33745,7 +33757,7 @@
       </c>
       <c r="O120" s="8"/>
       <c r="P120" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="15" hidden="1">
@@ -33793,7 +33805,7 @@
       </c>
       <c r="O121" s="8"/>
       <c r="P121" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="15" hidden="1">
@@ -33841,7 +33853,7 @@
       </c>
       <c r="O122" s="8"/>
       <c r="P122" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="15" hidden="1">
@@ -33889,7 +33901,7 @@
       </c>
       <c r="O123" s="8"/>
       <c r="P123" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="15" hidden="1">
@@ -33937,7 +33949,7 @@
       </c>
       <c r="O124" s="8"/>
       <c r="P124" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="15" hidden="1">
@@ -33985,7 +33997,7 @@
       </c>
       <c r="O125" s="8"/>
       <c r="P125" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="15" hidden="1">
@@ -34033,7 +34045,7 @@
       </c>
       <c r="O126" s="8"/>
       <c r="P126" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="15" hidden="1">
@@ -34081,7 +34093,7 @@
       </c>
       <c r="O127" s="8"/>
       <c r="P127" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="15" hidden="1">
@@ -34129,7 +34141,7 @@
       </c>
       <c r="O128" s="8"/>
       <c r="P128" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="15" hidden="1">
@@ -34177,7 +34189,7 @@
       </c>
       <c r="O129" s="8"/>
       <c r="P129" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="15" hidden="1">
@@ -34225,7 +34237,7 @@
       </c>
       <c r="O130" s="8"/>
       <c r="P130" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="15" hidden="1">
@@ -34273,7 +34285,7 @@
       </c>
       <c r="O131" s="8"/>
       <c r="P131" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="15" hidden="1">
@@ -34321,7 +34333,7 @@
       </c>
       <c r="O132" s="8"/>
       <c r="P132" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="15" hidden="1">
@@ -34369,7 +34381,7 @@
       </c>
       <c r="O133" s="8"/>
       <c r="P133" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="15" hidden="1">
@@ -34417,7 +34429,7 @@
       </c>
       <c r="O134" s="8"/>
       <c r="P134" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="15" hidden="1">
@@ -34465,7 +34477,7 @@
       </c>
       <c r="O135" s="8"/>
       <c r="P135" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="15" hidden="1">
@@ -34513,7 +34525,7 @@
       </c>
       <c r="O136" s="8"/>
       <c r="P136" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15" hidden="1">
@@ -34561,7 +34573,7 @@
       </c>
       <c r="O137" s="8"/>
       <c r="P137" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15" hidden="1">
@@ -34609,7 +34621,7 @@
       </c>
       <c r="O138" s="8"/>
       <c r="P138" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15" hidden="1">
@@ -34657,7 +34669,7 @@
       </c>
       <c r="O139" s="8"/>
       <c r="P139" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="15" hidden="1">
@@ -34705,7 +34717,7 @@
       </c>
       <c r="O140" s="8"/>
       <c r="P140" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15" hidden="1">
@@ -34753,7 +34765,7 @@
       </c>
       <c r="O141" s="8"/>
       <c r="P141" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="15" hidden="1">
@@ -34801,7 +34813,7 @@
       </c>
       <c r="O142" s="8"/>
       <c r="P142" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="15" hidden="1">
@@ -34849,7 +34861,7 @@
       </c>
       <c r="O143" s="8"/>
       <c r="P143" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="15" hidden="1">
@@ -34897,7 +34909,7 @@
       </c>
       <c r="O144" s="8"/>
       <c r="P144" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="15" hidden="1">
@@ -34945,7 +34957,7 @@
       </c>
       <c r="O145" s="8"/>
       <c r="P145" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="15" hidden="1">
@@ -34993,7 +35005,7 @@
       </c>
       <c r="O146" s="8"/>
       <c r="P146" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="15" hidden="1">
@@ -35041,7 +35053,7 @@
       </c>
       <c r="O147" s="8"/>
       <c r="P147" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="15" hidden="1">
@@ -35089,7 +35101,7 @@
       </c>
       <c r="O148" s="8"/>
       <c r="P148" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="15" hidden="1">
@@ -35137,7 +35149,7 @@
       </c>
       <c r="O149" s="8"/>
       <c r="P149" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="15" hidden="1">
@@ -35185,7 +35197,7 @@
       </c>
       <c r="O150" s="8"/>
       <c r="P150" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="15" hidden="1">
@@ -35233,7 +35245,7 @@
       </c>
       <c r="O151" s="8"/>
       <c r="P151" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="15" hidden="1">
@@ -35281,7 +35293,7 @@
       </c>
       <c r="O152" s="8"/>
       <c r="P152" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="15" hidden="1">
@@ -35329,7 +35341,7 @@
       </c>
       <c r="O153" s="8"/>
       <c r="P153" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="15" hidden="1">
@@ -35377,7 +35389,7 @@
       </c>
       <c r="O154" s="8"/>
       <c r="P154" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="15" hidden="1">
@@ -35425,7 +35437,7 @@
       </c>
       <c r="O155" s="8"/>
       <c r="P155" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="15" hidden="1">
@@ -35473,7 +35485,7 @@
       </c>
       <c r="O156" s="8"/>
       <c r="P156" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="15" hidden="1">
@@ -35521,7 +35533,7 @@
       </c>
       <c r="O157" s="8"/>
       <c r="P157" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="15" hidden="1">
@@ -35569,7 +35581,7 @@
       </c>
       <c r="O158" s="8"/>
       <c r="P158" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="15" hidden="1">
@@ -35617,7 +35629,7 @@
       </c>
       <c r="O159" s="8"/>
       <c r="P159" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="15" hidden="1">
@@ -35665,7 +35677,7 @@
       </c>
       <c r="O160" s="8"/>
       <c r="P160" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="161" spans="1:16" ht="15" hidden="1">
@@ -35713,7 +35725,7 @@
       </c>
       <c r="O161" s="8"/>
       <c r="P161" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="15" hidden="1">
@@ -35761,7 +35773,7 @@
       </c>
       <c r="O162" s="8"/>
       <c r="P162" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="15" hidden="1">
@@ -35809,7 +35821,7 @@
       </c>
       <c r="O163" s="8"/>
       <c r="P163" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="15" hidden="1">
@@ -35857,7 +35869,7 @@
       </c>
       <c r="O164" s="8"/>
       <c r="P164" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="15" hidden="1">
@@ -35905,7 +35917,7 @@
       </c>
       <c r="O165" s="8"/>
       <c r="P165" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="15" hidden="1">
@@ -35953,7 +35965,7 @@
       </c>
       <c r="O166" s="8"/>
       <c r="P166" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="15" hidden="1">
@@ -36001,7 +36013,7 @@
       </c>
       <c r="O167" s="8"/>
       <c r="P167" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="15" hidden="1">
@@ -36049,7 +36061,7 @@
       </c>
       <c r="O168" s="8"/>
       <c r="P168" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="15" hidden="1">
@@ -36097,7 +36109,7 @@
       </c>
       <c r="O169" s="8"/>
       <c r="P169" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="15" hidden="1">
@@ -36145,7 +36157,7 @@
       </c>
       <c r="O170" s="8"/>
       <c r="P170" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="15" hidden="1">
@@ -36193,7 +36205,7 @@
       </c>
       <c r="O171" s="8"/>
       <c r="P171" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="15" hidden="1">
@@ -36241,7 +36253,7 @@
       </c>
       <c r="O172" s="8"/>
       <c r="P172" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="15" hidden="1">
@@ -36289,7 +36301,7 @@
       </c>
       <c r="O173" s="8"/>
       <c r="P173" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="15" hidden="1">
@@ -36337,7 +36349,7 @@
       </c>
       <c r="O174" s="8"/>
       <c r="P174" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="15" hidden="1">
@@ -36385,7 +36397,7 @@
       </c>
       <c r="O175" s="8"/>
       <c r="P175" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="15" hidden="1">
@@ -36433,7 +36445,7 @@
       </c>
       <c r="O176" s="8"/>
       <c r="P176" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="15" hidden="1">
@@ -36481,7 +36493,7 @@
       </c>
       <c r="O177" s="8"/>
       <c r="P177" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="15" hidden="1">
@@ -36529,7 +36541,7 @@
       </c>
       <c r="O178" s="8"/>
       <c r="P178" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="15" hidden="1">
@@ -36577,7 +36589,7 @@
       </c>
       <c r="O179" s="8"/>
       <c r="P179" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="15" hidden="1">
@@ -36625,7 +36637,7 @@
       </c>
       <c r="O180" s="8"/>
       <c r="P180" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="15" hidden="1">
@@ -36673,7 +36685,7 @@
       </c>
       <c r="O181" s="8"/>
       <c r="P181" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="15" hidden="1">
@@ -36721,7 +36733,7 @@
       </c>
       <c r="O182" s="8"/>
       <c r="P182" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="183" spans="1:16" ht="15" hidden="1">
@@ -36769,7 +36781,7 @@
       </c>
       <c r="O183" s="8"/>
       <c r="P183" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="15" hidden="1">
@@ -36817,7 +36829,7 @@
       </c>
       <c r="O184" s="8"/>
       <c r="P184" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="15" hidden="1">
@@ -36865,7 +36877,7 @@
       </c>
       <c r="O185" s="8"/>
       <c r="P185" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="15" hidden="1">
@@ -36913,7 +36925,7 @@
       </c>
       <c r="O186" s="8"/>
       <c r="P186" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="15" hidden="1">
@@ -36961,7 +36973,7 @@
       </c>
       <c r="O187" s="8"/>
       <c r="P187" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="15" hidden="1">
@@ -37009,7 +37021,7 @@
       </c>
       <c r="O188" s="8"/>
       <c r="P188" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="15" hidden="1">
@@ -37057,7 +37069,7 @@
       </c>
       <c r="O189" s="8"/>
       <c r="P189" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="15" hidden="1">
@@ -37105,7 +37117,7 @@
       </c>
       <c r="O190" s="8"/>
       <c r="P190" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="15" hidden="1">
@@ -37153,7 +37165,7 @@
       </c>
       <c r="O191" s="8"/>
       <c r="P191" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="15" hidden="1">
@@ -37201,7 +37213,7 @@
       </c>
       <c r="O192" s="8"/>
       <c r="P192" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="15" hidden="1">
@@ -37249,7 +37261,7 @@
       </c>
       <c r="O193" s="8"/>
       <c r="P193" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="15" hidden="1">
@@ -37297,7 +37309,7 @@
       </c>
       <c r="O194" s="8"/>
       <c r="P194" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="15" hidden="1">
@@ -37345,7 +37357,7 @@
       </c>
       <c r="O195" s="8"/>
       <c r="P195" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="15" hidden="1">
@@ -37393,7 +37405,7 @@
       </c>
       <c r="O196" s="8"/>
       <c r="P196" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="15" hidden="1">
@@ -37441,7 +37453,7 @@
       </c>
       <c r="O197" s="8"/>
       <c r="P197" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="15" hidden="1">
@@ -37489,7 +37501,7 @@
       </c>
       <c r="O198" s="8"/>
       <c r="P198" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="15" hidden="1">
@@ -37537,7 +37549,7 @@
       </c>
       <c r="O199" s="8"/>
       <c r="P199" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="15" hidden="1">
@@ -37585,7 +37597,7 @@
       </c>
       <c r="O200" s="8"/>
       <c r="P200" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="15" hidden="1">
@@ -37633,7 +37645,7 @@
       </c>
       <c r="O201" s="8"/>
       <c r="P201" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="15" hidden="1">
@@ -37681,7 +37693,7 @@
       </c>
       <c r="O202" s="8"/>
       <c r="P202" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="203" spans="1:16" ht="15" hidden="1">
@@ -37729,7 +37741,7 @@
       </c>
       <c r="O203" s="8"/>
       <c r="P203" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="15" hidden="1">
@@ -37777,7 +37789,7 @@
       </c>
       <c r="O204" s="8"/>
       <c r="P204" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="205" spans="1:16" ht="15" hidden="1">
@@ -37825,7 +37837,7 @@
       </c>
       <c r="O205" s="8"/>
       <c r="P205" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="206" spans="1:16" ht="15" hidden="1">
@@ -37873,7 +37885,7 @@
       </c>
       <c r="O206" s="8"/>
       <c r="P206" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="15" hidden="1">
@@ -37921,7 +37933,7 @@
       </c>
       <c r="O207" s="8"/>
       <c r="P207" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="15" hidden="1">
@@ -37969,7 +37981,7 @@
       </c>
       <c r="O208" s="8"/>
       <c r="P208" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="15" hidden="1">
@@ -38017,7 +38029,7 @@
       </c>
       <c r="O209" s="8"/>
       <c r="P209" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="15" hidden="1">
@@ -38065,7 +38077,7 @@
       </c>
       <c r="O210" s="8"/>
       <c r="P210" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="15" hidden="1">
@@ -38113,7 +38125,7 @@
       </c>
       <c r="O211" s="8"/>
       <c r="P211" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="15" hidden="1">
@@ -38161,7 +38173,7 @@
       </c>
       <c r="O212" s="8"/>
       <c r="P212" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="15" hidden="1">
@@ -38209,7 +38221,7 @@
       </c>
       <c r="O213" s="8"/>
       <c r="P213" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="15" hidden="1">
@@ -38257,7 +38269,7 @@
       </c>
       <c r="O214" s="8"/>
       <c r="P214" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="15" hidden="1">
@@ -38305,7 +38317,7 @@
       </c>
       <c r="O215" s="8"/>
       <c r="P215" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="15" hidden="1">
@@ -38353,7 +38365,7 @@
       </c>
       <c r="O216" s="8"/>
       <c r="P216" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="15" hidden="1">
@@ -38401,7 +38413,7 @@
       </c>
       <c r="O217" s="8"/>
       <c r="P217" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="15" hidden="1">
@@ -38449,7 +38461,7 @@
       </c>
       <c r="O218" s="8"/>
       <c r="P218" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="15" hidden="1">
@@ -38497,7 +38509,7 @@
       </c>
       <c r="O219" s="8"/>
       <c r="P219" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="15" hidden="1">
@@ -38545,7 +38557,7 @@
       </c>
       <c r="O220" s="8"/>
       <c r="P220" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="15" hidden="1">
@@ -38593,7 +38605,7 @@
       </c>
       <c r="O221" s="8"/>
       <c r="P221" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="15" hidden="1">
@@ -38641,7 +38653,7 @@
       </c>
       <c r="O222" s="8"/>
       <c r="P222" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="223" spans="1:16" ht="15" hidden="1">
@@ -38689,7 +38701,7 @@
       </c>
       <c r="O223" s="8"/>
       <c r="P223" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="224" spans="1:16" ht="15" hidden="1">
@@ -38737,7 +38749,7 @@
       </c>
       <c r="O224" s="8"/>
       <c r="P224" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="225" spans="1:16" ht="15" hidden="1">
@@ -38785,7 +38797,7 @@
       </c>
       <c r="O225" s="8"/>
       <c r="P225" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="226" spans="1:16" ht="15" hidden="1">
@@ -38833,7 +38845,7 @@
       </c>
       <c r="O226" s="8"/>
       <c r="P226" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="227" spans="1:16" ht="15" hidden="1">
@@ -38881,7 +38893,7 @@
       </c>
       <c r="O227" s="8"/>
       <c r="P227" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="228" spans="1:16" ht="15" hidden="1">
@@ -38929,7 +38941,7 @@
       </c>
       <c r="O228" s="8"/>
       <c r="P228" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="229" spans="1:16" ht="15" hidden="1">
@@ -38977,7 +38989,7 @@
       </c>
       <c r="O229" s="8"/>
       <c r="P229" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="15" hidden="1">
@@ -39025,7 +39037,7 @@
       </c>
       <c r="O230" s="8"/>
       <c r="P230" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="15" hidden="1">
@@ -39073,7 +39085,7 @@
       </c>
       <c r="O231" s="8"/>
       <c r="P231" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="15" hidden="1">
@@ -39121,7 +39133,7 @@
       </c>
       <c r="O232" s="8"/>
       <c r="P232" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="15" hidden="1">
@@ -39169,7 +39181,7 @@
       </c>
       <c r="O233" s="8"/>
       <c r="P233" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="15" hidden="1">
@@ -39217,7 +39229,7 @@
       </c>
       <c r="O234" s="8"/>
       <c r="P234" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="15" hidden="1">
@@ -39265,7 +39277,7 @@
       </c>
       <c r="O235" s="8"/>
       <c r="P235" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="15" hidden="1">
@@ -39313,7 +39325,7 @@
       </c>
       <c r="O236" s="8"/>
       <c r="P236" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="15" hidden="1">
@@ -39361,7 +39373,7 @@
       </c>
       <c r="O237" s="8"/>
       <c r="P237" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="15" hidden="1">
@@ -39409,7 +39421,7 @@
       </c>
       <c r="O238" s="8"/>
       <c r="P238" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="15" hidden="1">
@@ -39457,7 +39469,7 @@
       </c>
       <c r="O239" s="8"/>
       <c r="P239" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="240" spans="1:16" ht="15" hidden="1">
@@ -39505,7 +39517,7 @@
       </c>
       <c r="O240" s="8"/>
       <c r="P240" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="241" spans="1:16" ht="15" hidden="1">
@@ -39553,7 +39565,7 @@
       </c>
       <c r="O241" s="8"/>
       <c r="P241" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="242" spans="1:16" ht="15" hidden="1">
@@ -39601,7 +39613,7 @@
       </c>
       <c r="O242" s="8"/>
       <c r="P242" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="243" spans="1:16" ht="15" hidden="1">
@@ -39649,7 +39661,7 @@
       </c>
       <c r="O243" s="8"/>
       <c r="P243" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="244" spans="1:16" ht="15" hidden="1">
@@ -39697,7 +39709,7 @@
       </c>
       <c r="O244" s="8"/>
       <c r="P244" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="245" spans="1:16" ht="15" hidden="1">
@@ -39745,7 +39757,7 @@
       </c>
       <c r="O245" s="8"/>
       <c r="P245" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="15" hidden="1">
@@ -39793,7 +39805,7 @@
       </c>
       <c r="O246" s="8"/>
       <c r="P246" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="247" spans="1:16" ht="15" hidden="1">
@@ -39841,7 +39853,7 @@
       </c>
       <c r="O247" s="8"/>
       <c r="P247" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="248" spans="1:16" ht="15" hidden="1">
@@ -39889,7 +39901,7 @@
       </c>
       <c r="O248" s="8"/>
       <c r="P248" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="249" spans="1:16" ht="15" hidden="1">
@@ -39937,7 +39949,7 @@
       </c>
       <c r="O249" s="8"/>
       <c r="P249" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="250" spans="1:16" ht="15" hidden="1">
@@ -39985,7 +39997,7 @@
       </c>
       <c r="O250" s="8"/>
       <c r="P250" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="251" spans="1:16" ht="15" hidden="1">
@@ -40033,7 +40045,7 @@
       </c>
       <c r="O251" s="8"/>
       <c r="P251" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="252" spans="1:16" ht="15" hidden="1">
@@ -40081,7 +40093,7 @@
       </c>
       <c r="O252" s="8"/>
       <c r="P252" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="15" hidden="1">
@@ -40129,7 +40141,7 @@
       </c>
       <c r="O253" s="8"/>
       <c r="P253" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="254" spans="1:16" ht="15" hidden="1">
@@ -40177,7 +40189,7 @@
       </c>
       <c r="O254" s="8"/>
       <c r="P254" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="255" spans="1:16" ht="15" hidden="1">
@@ -40225,7 +40237,7 @@
       </c>
       <c r="O255" s="8"/>
       <c r="P255" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="256" spans="1:16" ht="15" hidden="1">
@@ -40273,7 +40285,7 @@
       </c>
       <c r="O256" s="8"/>
       <c r="P256" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="257" spans="1:16" ht="15" hidden="1">
@@ -40321,7 +40333,7 @@
       </c>
       <c r="O257" s="8"/>
       <c r="P257" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="258" spans="1:16" ht="15" hidden="1">
@@ -40369,7 +40381,7 @@
       </c>
       <c r="O258" s="8"/>
       <c r="P258" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="259" spans="1:16" ht="15" hidden="1">
@@ -40417,7 +40429,7 @@
       </c>
       <c r="O259" s="8"/>
       <c r="P259" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="260" spans="1:16" ht="15" hidden="1">
@@ -40465,7 +40477,7 @@
       </c>
       <c r="O260" s="8"/>
       <c r="P260" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="261" spans="1:16" ht="15" hidden="1">
@@ -40513,7 +40525,7 @@
       </c>
       <c r="O261" s="8"/>
       <c r="P261" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="262" spans="1:16" ht="15" hidden="1">
@@ -40561,7 +40573,7 @@
       </c>
       <c r="O262" s="8"/>
       <c r="P262" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="263" spans="1:16" ht="15" hidden="1">
@@ -40609,7 +40621,7 @@
       </c>
       <c r="O263" s="8"/>
       <c r="P263" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="15" hidden="1">
@@ -40657,7 +40669,7 @@
       </c>
       <c r="O264" s="8"/>
       <c r="P264" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="265" spans="1:16" ht="15" hidden="1">
@@ -40705,7 +40717,7 @@
       </c>
       <c r="O265" s="8"/>
       <c r="P265" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="266" spans="1:16" ht="15" hidden="1">
@@ -40753,7 +40765,7 @@
       </c>
       <c r="O266" s="8"/>
       <c r="P266" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="267" spans="1:16" ht="15" hidden="1">
@@ -40801,7 +40813,7 @@
       </c>
       <c r="O267" s="8"/>
       <c r="P267" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="268" spans="1:16" ht="15" hidden="1">
@@ -40849,7 +40861,7 @@
       </c>
       <c r="O268" s="8"/>
       <c r="P268" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="269" spans="1:16" ht="15" hidden="1">
@@ -40897,7 +40909,7 @@
       </c>
       <c r="O269" s="8"/>
       <c r="P269" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="270" spans="1:16" ht="15" hidden="1">
@@ -40945,7 +40957,7 @@
       </c>
       <c r="O270" s="8"/>
       <c r="P270" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="271" spans="1:16" ht="15" hidden="1">
@@ -40993,7 +41005,7 @@
       </c>
       <c r="O271" s="8"/>
       <c r="P271" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="272" spans="1:16" ht="15" hidden="1">
@@ -41041,7 +41053,7 @@
       </c>
       <c r="O272" s="8"/>
       <c r="P272" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="273" spans="1:16" ht="15" hidden="1">
@@ -41089,7 +41101,7 @@
       </c>
       <c r="O273" s="8"/>
       <c r="P273" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="274" spans="1:16" ht="15" hidden="1">
@@ -41137,7 +41149,7 @@
       </c>
       <c r="O274" s="8"/>
       <c r="P274" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="275" spans="1:16" ht="15" hidden="1">
@@ -41185,7 +41197,7 @@
       </c>
       <c r="O275" s="8"/>
       <c r="P275" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="276" spans="1:16" ht="15" hidden="1">
@@ -41233,7 +41245,7 @@
       </c>
       <c r="O276" s="8"/>
       <c r="P276" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="277" spans="1:16" ht="15" hidden="1">
@@ -41281,7 +41293,7 @@
       </c>
       <c r="O277" s="8"/>
       <c r="P277" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="278" spans="1:16" ht="15" hidden="1">
@@ -41329,7 +41341,7 @@
       </c>
       <c r="O278" s="8"/>
       <c r="P278" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="279" spans="1:16" ht="15" hidden="1">
@@ -41377,7 +41389,7 @@
       </c>
       <c r="O279" s="8"/>
       <c r="P279" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="280" spans="1:16" ht="15" hidden="1">
@@ -41425,7 +41437,7 @@
       </c>
       <c r="O280" s="8"/>
       <c r="P280" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="281" spans="1:16" ht="15" hidden="1">
@@ -41473,7 +41485,7 @@
       </c>
       <c r="O281" s="8"/>
       <c r="P281" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="282" spans="1:16" ht="15" hidden="1">
@@ -41521,7 +41533,7 @@
       </c>
       <c r="O282" s="8"/>
       <c r="P282" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="283" spans="1:16" ht="15" hidden="1">
@@ -41569,7 +41581,7 @@
       </c>
       <c r="O283" s="8"/>
       <c r="P283" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="284" spans="1:16" ht="15" hidden="1">
@@ -41617,7 +41629,7 @@
       </c>
       <c r="O284" s="8"/>
       <c r="P284" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="285" spans="1:16" ht="15" hidden="1">
@@ -41665,7 +41677,7 @@
       </c>
       <c r="O285" s="8"/>
       <c r="P285" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="286" spans="1:16" ht="15" hidden="1">
@@ -41713,7 +41725,7 @@
       </c>
       <c r="O286" s="8"/>
       <c r="P286" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="287" spans="1:16" ht="15" hidden="1">
@@ -41761,7 +41773,7 @@
       </c>
       <c r="O287" s="8"/>
       <c r="P287" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="288" spans="1:16" ht="15" hidden="1">
@@ -41809,7 +41821,7 @@
       </c>
       <c r="O288" s="8"/>
       <c r="P288" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="289" spans="1:16" ht="15" hidden="1">
@@ -41857,7 +41869,7 @@
       </c>
       <c r="O289" s="8"/>
       <c r="P289" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="290" spans="1:16" ht="15" hidden="1">
@@ -41905,7 +41917,7 @@
       </c>
       <c r="O290" s="8"/>
       <c r="P290" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="291" spans="1:16" ht="15" hidden="1">
@@ -41953,7 +41965,7 @@
       </c>
       <c r="O291" s="8"/>
       <c r="P291" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="292" spans="1:16" ht="15" hidden="1">
@@ -42001,7 +42013,7 @@
       </c>
       <c r="O292" s="8"/>
       <c r="P292" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="293" spans="1:16" ht="15" hidden="1">
@@ -42049,7 +42061,7 @@
       </c>
       <c r="O293" s="8"/>
       <c r="P293" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="294" spans="1:16" ht="15" hidden="1">
@@ -42097,7 +42109,7 @@
       </c>
       <c r="O294" s="8"/>
       <c r="P294" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="295" spans="1:16" ht="15" hidden="1">
@@ -42145,7 +42157,7 @@
       </c>
       <c r="O295" s="8"/>
       <c r="P295" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="296" spans="1:16" ht="15" hidden="1">
@@ -42193,7 +42205,7 @@
       </c>
       <c r="O296" s="8"/>
       <c r="P296" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="297" spans="1:16" ht="15" hidden="1">
@@ -42241,7 +42253,7 @@
       </c>
       <c r="O297" s="8"/>
       <c r="P297" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="298" spans="1:16" ht="15" hidden="1">
@@ -42289,7 +42301,7 @@
       </c>
       <c r="O298" s="8"/>
       <c r="P298" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="299" spans="1:16" ht="15" hidden="1">
@@ -42337,7 +42349,7 @@
       </c>
       <c r="O299" s="8"/>
       <c r="P299" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="300" spans="1:16" ht="15" hidden="1">
@@ -42385,7 +42397,7 @@
       </c>
       <c r="O300" s="8"/>
       <c r="P300" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="301" spans="1:16" ht="15" hidden="1">
@@ -42433,7 +42445,7 @@
       </c>
       <c r="O301" s="8"/>
       <c r="P301" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="302" spans="1:16" ht="15" hidden="1">
@@ -42481,7 +42493,7 @@
       </c>
       <c r="O302" s="8"/>
       <c r="P302" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="303" spans="1:16" ht="15" hidden="1">
@@ -42529,7 +42541,7 @@
       </c>
       <c r="O303" s="8"/>
       <c r="P303" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="304" spans="1:16" ht="15" hidden="1">
@@ -42577,7 +42589,7 @@
       </c>
       <c r="O304" s="8"/>
       <c r="P304" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="305" spans="1:16" ht="15" hidden="1">
@@ -42625,7 +42637,7 @@
       </c>
       <c r="O305" s="8"/>
       <c r="P305" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="306" spans="1:16" ht="15" hidden="1">
@@ -42673,7 +42685,7 @@
       </c>
       <c r="O306" s="8"/>
       <c r="P306" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="307" spans="1:16" ht="15" hidden="1">
@@ -42721,7 +42733,7 @@
       </c>
       <c r="O307" s="8"/>
       <c r="P307" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="308" spans="1:16" ht="15" hidden="1">
@@ -42769,7 +42781,7 @@
       </c>
       <c r="O308" s="8"/>
       <c r="P308" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="309" spans="1:16" ht="15" hidden="1">
@@ -42817,7 +42829,7 @@
       </c>
       <c r="O309" s="8"/>
       <c r="P309" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="310" spans="1:16" ht="15" hidden="1">
@@ -42865,7 +42877,7 @@
       </c>
       <c r="O310" s="8"/>
       <c r="P310" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="311" spans="1:16" ht="15" hidden="1">
@@ -42913,7 +42925,7 @@
       </c>
       <c r="O311" s="8"/>
       <c r="P311" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="312" spans="1:16" ht="15" hidden="1">
@@ -42961,7 +42973,7 @@
       </c>
       <c r="O312" s="8"/>
       <c r="P312" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="313" spans="1:16" ht="15" hidden="1">
@@ -43009,7 +43021,7 @@
       </c>
       <c r="O313" s="8"/>
       <c r="P313" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="314" spans="1:16" ht="15" hidden="1">
@@ -43057,7 +43069,7 @@
       </c>
       <c r="O314" s="8"/>
       <c r="P314" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="315" spans="1:16" ht="15" hidden="1">
@@ -43105,7 +43117,7 @@
       </c>
       <c r="O315" s="8"/>
       <c r="P315" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="316" spans="1:16" ht="15" hidden="1">
@@ -43153,7 +43165,7 @@
       </c>
       <c r="O316" s="8"/>
       <c r="P316" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="317" spans="1:16" ht="15" hidden="1">
@@ -43201,7 +43213,7 @@
       </c>
       <c r="O317" s="8"/>
       <c r="P317" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="318" spans="1:16" ht="15" hidden="1">
@@ -43249,7 +43261,7 @@
       </c>
       <c r="O318" s="8"/>
       <c r="P318" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="319" spans="1:16" ht="15" hidden="1">
@@ -43297,7 +43309,7 @@
       </c>
       <c r="O319" s="8"/>
       <c r="P319" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="320" spans="1:16" ht="15" hidden="1">
@@ -43345,7 +43357,7 @@
       </c>
       <c r="O320" s="8"/>
       <c r="P320" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="321" spans="1:16" ht="15" hidden="1">
@@ -43393,7 +43405,7 @@
       </c>
       <c r="O321" s="8"/>
       <c r="P321" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="322" spans="1:16" ht="15" hidden="1">
@@ -43441,7 +43453,7 @@
       </c>
       <c r="O322" s="8"/>
       <c r="P322" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="323" spans="1:16" ht="15" hidden="1">
@@ -43489,7 +43501,7 @@
       </c>
       <c r="O323" s="8"/>
       <c r="P323" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="324" spans="1:16" ht="15" hidden="1">
@@ -43537,7 +43549,7 @@
       </c>
       <c r="O324" s="8"/>
       <c r="P324" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="325" spans="1:16" ht="15" hidden="1">
@@ -43585,7 +43597,7 @@
       </c>
       <c r="O325" s="8"/>
       <c r="P325" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="326" spans="1:16" ht="15" hidden="1">
@@ -43633,7 +43645,7 @@
       </c>
       <c r="O326" s="8"/>
       <c r="P326" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="327" spans="1:16" ht="15" hidden="1">
@@ -43681,7 +43693,7 @@
       </c>
       <c r="O327" s="8"/>
       <c r="P327" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="328" spans="1:16" ht="15" hidden="1">
@@ -43729,7 +43741,7 @@
       </c>
       <c r="O328" s="8"/>
       <c r="P328" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="329" spans="1:16" ht="15" hidden="1">
@@ -43777,7 +43789,7 @@
       </c>
       <c r="O329" s="8"/>
       <c r="P329" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="330" spans="1:16" ht="15" hidden="1">
@@ -43825,7 +43837,7 @@
       </c>
       <c r="O330" s="8"/>
       <c r="P330" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="331" spans="1:16" ht="15" hidden="1">
@@ -43873,7 +43885,7 @@
       </c>
       <c r="O331" s="8"/>
       <c r="P331" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="332" spans="1:16" ht="15" hidden="1">
@@ -43921,7 +43933,7 @@
       </c>
       <c r="O332" s="8"/>
       <c r="P332" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="333" spans="1:16" ht="15" hidden="1">
@@ -43967,7 +43979,7 @@
       </c>
       <c r="O333" s="8"/>
       <c r="P333" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="334" spans="1:16" ht="15" hidden="1">
@@ -44013,7 +44025,7 @@
       </c>
       <c r="O334" s="8"/>
       <c r="P334" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="335" spans="1:16" ht="15" hidden="1">
@@ -44061,7 +44073,7 @@
       </c>
       <c r="O335" s="8"/>
       <c r="P335" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="336" spans="1:16" ht="15" hidden="1">
@@ -44109,7 +44121,7 @@
       </c>
       <c r="O336" s="8"/>
       <c r="P336" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="337" spans="1:16" ht="15" hidden="1">
@@ -44157,7 +44169,7 @@
       </c>
       <c r="O337" s="8"/>
       <c r="P337" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="338" spans="1:16" ht="15" hidden="1">
@@ -44203,7 +44215,7 @@
       </c>
       <c r="O338" s="8"/>
       <c r="P338" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="339" spans="1:16" ht="15" hidden="1">
@@ -44249,7 +44261,7 @@
       </c>
       <c r="O339" s="8"/>
       <c r="P339" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="340" spans="1:16" ht="15" hidden="1">
@@ -44295,7 +44307,7 @@
       </c>
       <c r="O340" s="8"/>
       <c r="P340" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="341" spans="1:16" ht="15" hidden="1">
@@ -44343,7 +44355,7 @@
       </c>
       <c r="O341" s="8"/>
       <c r="P341" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="342" spans="1:16" ht="15" hidden="1">
@@ -44391,7 +44403,7 @@
       </c>
       <c r="O342" s="8"/>
       <c r="P342" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="343" spans="1:16" ht="15" hidden="1">
@@ -44437,7 +44449,7 @@
       </c>
       <c r="O343" s="8"/>
       <c r="P343" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="344" spans="1:16" ht="15" hidden="1">
@@ -44483,7 +44495,7 @@
       </c>
       <c r="O344" s="8"/>
       <c r="P344" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="345" spans="1:16" ht="15" hidden="1">
@@ -44531,7 +44543,7 @@
       </c>
       <c r="O345" s="8"/>
       <c r="P345" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="346" spans="1:16" ht="15" hidden="1">
@@ -44577,7 +44589,7 @@
       </c>
       <c r="O346" s="8"/>
       <c r="P346" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="347" spans="1:16" ht="15" hidden="1">
@@ -44625,7 +44637,7 @@
       </c>
       <c r="O347" s="8"/>
       <c r="P347" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="348" spans="1:16" ht="15" hidden="1">
@@ -44673,7 +44685,7 @@
       </c>
       <c r="O348" s="8"/>
       <c r="P348" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="349" spans="1:16" ht="15" hidden="1">
@@ -44719,7 +44731,7 @@
       </c>
       <c r="O349" s="8"/>
       <c r="P349" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="350" spans="1:16" ht="15" hidden="1">
@@ -44765,7 +44777,7 @@
       </c>
       <c r="O350" s="8"/>
       <c r="P350" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
   </sheetData>
@@ -53500,542 +53512,589 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1294EC-9649-4C59-B463-29DEC662CA00}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1904</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1902</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1873</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1874</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>1875</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1876</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15">
+    </row>
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="1">
+        <v>13.59544</v>
+      </c>
+      <c r="J2" s="1">
+        <v>103.3565</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="L2" s="8">
+        <v>45740</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>1878</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="1">
-        <v>13.59544</v>
-      </c>
-      <c r="I2" s="1">
-        <v>103.3565</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="K2" s="8">
-        <v>45740</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15">
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1880</v>
+        <v>1902</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>14.009410000000001</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>103.0998</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="K3" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="L3" s="8">
         <v>45740</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15">
+      <c r="M3" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1880</v>
+        <v>1902</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1887</v>
+        <v>1901</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>12.882910000000001</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>105.06610000000001</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="K4" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="L4" s="8">
         <v>45740</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15">
+      <c r="M4" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1880</v>
+        <v>1902</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>12.805680000000001</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>104.75239999999999</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="K5" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="L5" s="8">
         <v>45740</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15">
+      <c r="M5" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1880</v>
+        <v>1902</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1891</v>
+        <v>1901</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>13.19284</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>105.0401</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="K6" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="L6" s="8">
         <v>45740</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15">
+      <c r="M6" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1887</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>1880</v>
+        <v>1902</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>1858</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>13.806380000000001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>104.03570000000001</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="K7" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="L7" s="8">
         <v>45755</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15">
+      <c r="M7" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1383</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>1880</v>
+        <v>1902</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>1856</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>13.239610000000001</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>104.09099999999999</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="K8" s="8">
+      <c r="K8" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="L8" s="8">
         <v>45755</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="M8" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1893</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>1880</v>
+        <v>1902</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>1855</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>1854</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>13.23906</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>104.13679999999999</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="K9" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="L9" s="8">
         <v>45755</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15">
+      <c r="M9" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>1894</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>1902</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>1890</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="L10" s="8">
         <v>45755</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15">
+      <c r="M10" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>1861</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>1860</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>11.591469999999999</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>104.8608</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="K11" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="L11" s="8">
         <v>45735</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15">
+      <c r="M11" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>1894</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>1891</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>1890</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="L12" s="8">
         <v>45735</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15">
+      <c r="M12" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>1863</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>1898</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>12.49175</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>106.0177</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="K13" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="L13" s="8">
         <v>45735</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15">
+      <c r="M13" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1899</v>
+        <v>463</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>463</v>
+        <v>1895</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>1866</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>1900</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>13.734500000000001</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>106.98050000000001</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="K14" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="L14" s="8">
         <v>45735</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>1882</v>
+      <c r="M14" s="1" t="s">
+        <v>1878</v>
       </c>
     </row>
   </sheetData>

--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6065E6-8846-4BED-8085-0A3D18B8E7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10D04EA-20EE-4E9C-AD8B-1F3408B1F38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALU PROJECT_ZTE_UPGRADE(153)" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8605" uniqueCount="1909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8605" uniqueCount="1911">
   <si>
     <t>No.</t>
   </si>
@@ -5823,6 +5823,14 @@
   </si>
   <si>
     <t>New_Longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTB05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA Actual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11214,7 +11222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
@@ -27973,11 +27981,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C8140-9AB4-4766-B1A2-D91A2ABB3CF2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28042,7 +28049,7 @@
         <v>1754</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>1809</v>
+        <v>1910</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>1851</v>
@@ -28384,7 +28391,7 @@
       </c>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16" ht="15" hidden="1">
+    <row r="9" spans="1:16" ht="15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -28432,7 +28439,7 @@
       </c>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="15" hidden="1">
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -28480,7 +28487,7 @@
       </c>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" ht="15" hidden="1">
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -28528,7 +28535,7 @@
       </c>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16" ht="15" hidden="1">
+    <row r="12" spans="1:16" ht="15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -28576,7 +28583,7 @@
       </c>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16" ht="15" hidden="1">
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -28624,7 +28631,7 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="15" hidden="1">
+    <row r="14" spans="1:16" ht="15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -28672,7 +28679,7 @@
       </c>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" ht="15" hidden="1">
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -28720,7 +28727,7 @@
       </c>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:16" ht="15" hidden="1">
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -28768,7 +28775,7 @@
       </c>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:16" ht="15" hidden="1">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -28816,7 +28823,7 @@
       </c>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="15" hidden="1">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -28864,7 +28871,7 @@
       </c>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="1:16" ht="15" hidden="1">
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -28912,7 +28919,7 @@
       </c>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="1:16" ht="15" hidden="1">
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -28960,7 +28967,7 @@
       </c>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="1:16" ht="15" hidden="1">
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -29008,7 +29015,7 @@
       </c>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:16" ht="15" hidden="1">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -29056,7 +29063,7 @@
       </c>
       <c r="P22" s="16"/>
     </row>
-    <row r="23" spans="1:16" ht="15" hidden="1">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -29104,7 +29111,7 @@
       </c>
       <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="1:16" ht="15" hidden="1">
+    <row r="24" spans="1:16" ht="15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -29152,7 +29159,7 @@
       </c>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16" ht="15" hidden="1">
+    <row r="25" spans="1:16" ht="15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -29200,7 +29207,7 @@
       </c>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="1:16" ht="15" hidden="1">
+    <row r="26" spans="1:16" ht="15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -29248,7 +29255,7 @@
       </c>
       <c r="P26" s="16"/>
     </row>
-    <row r="27" spans="1:16" ht="15" hidden="1">
+    <row r="27" spans="1:16" ht="15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -29296,7 +29303,7 @@
       </c>
       <c r="P27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="15" hidden="1">
+    <row r="28" spans="1:16" ht="15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -29344,7 +29351,7 @@
       </c>
       <c r="P28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="15" hidden="1">
+    <row r="29" spans="1:16" ht="15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -29392,7 +29399,7 @@
       </c>
       <c r="P29" s="16"/>
     </row>
-    <row r="30" spans="1:16" ht="15" hidden="1">
+    <row r="30" spans="1:16" ht="15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -29440,7 +29447,7 @@
       </c>
       <c r="P30" s="16"/>
     </row>
-    <row r="31" spans="1:16" ht="15" hidden="1">
+    <row r="31" spans="1:16" ht="15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -29488,7 +29495,7 @@
       </c>
       <c r="P31" s="16"/>
     </row>
-    <row r="32" spans="1:16" ht="15" hidden="1">
+    <row r="32" spans="1:16" ht="15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -29536,7 +29543,7 @@
       </c>
       <c r="P32" s="16"/>
     </row>
-    <row r="33" spans="1:16" ht="15" hidden="1">
+    <row r="33" spans="1:16" ht="15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -29584,7 +29591,7 @@
       </c>
       <c r="P33" s="16"/>
     </row>
-    <row r="34" spans="1:16" ht="15" hidden="1">
+    <row r="34" spans="1:16" ht="15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -29632,7 +29639,7 @@
       </c>
       <c r="P34" s="16"/>
     </row>
-    <row r="35" spans="1:16" ht="15" hidden="1">
+    <row r="35" spans="1:16" ht="15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -29680,7 +29687,7 @@
       </c>
       <c r="P35" s="16"/>
     </row>
-    <row r="36" spans="1:16" ht="15" hidden="1">
+    <row r="36" spans="1:16" ht="15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -29728,7 +29735,7 @@
       </c>
       <c r="P36" s="16"/>
     </row>
-    <row r="37" spans="1:16" ht="15" hidden="1">
+    <row r="37" spans="1:16" ht="15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -29754,7 +29761,7 @@
         <v>972</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>601</v>
+        <v>1909</v>
       </c>
       <c r="J37" s="1">
         <v>5</v>
@@ -29776,7 +29783,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" hidden="1">
+    <row r="38" spans="1:16" ht="15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -29824,7 +29831,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" hidden="1">
+    <row r="39" spans="1:16" ht="15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -29872,7 +29879,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" hidden="1">
+    <row r="40" spans="1:16" ht="15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -29920,7 +29927,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" hidden="1">
+    <row r="41" spans="1:16" ht="15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -29968,7 +29975,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" hidden="1">
+    <row r="42" spans="1:16" ht="15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -30016,7 +30023,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" hidden="1">
+    <row r="43" spans="1:16" ht="15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -30064,7 +30071,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" hidden="1">
+    <row r="44" spans="1:16" ht="15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -30112,7 +30119,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" hidden="1">
+    <row r="45" spans="1:16" ht="15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -30160,7 +30167,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" hidden="1">
+    <row r="46" spans="1:16" ht="15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -30208,7 +30215,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" hidden="1">
+    <row r="47" spans="1:16" ht="15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -30256,7 +30263,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" hidden="1">
+    <row r="48" spans="1:16" ht="15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -30304,7 +30311,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" hidden="1">
+    <row r="49" spans="1:16" ht="15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -30352,7 +30359,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" hidden="1">
+    <row r="50" spans="1:16" ht="15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -30400,7 +30407,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" hidden="1">
+    <row r="51" spans="1:16" ht="15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -30448,7 +30455,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" hidden="1">
+    <row r="52" spans="1:16" ht="15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -30496,7 +30503,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" hidden="1">
+    <row r="53" spans="1:16" ht="15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -30544,7 +30551,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" hidden="1">
+    <row r="54" spans="1:16" ht="15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -30592,7 +30599,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" hidden="1">
+    <row r="55" spans="1:16" ht="15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -30640,7 +30647,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" hidden="1">
+    <row r="56" spans="1:16" ht="15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -30688,7 +30695,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" hidden="1">
+    <row r="57" spans="1:16" ht="15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -30736,7 +30743,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" hidden="1">
+    <row r="58" spans="1:16" ht="15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -30784,7 +30791,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" hidden="1">
+    <row r="59" spans="1:16" ht="15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -30832,7 +30839,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" hidden="1">
+    <row r="60" spans="1:16" ht="15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -30880,7 +30887,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" hidden="1">
+    <row r="61" spans="1:16" ht="15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -30928,7 +30935,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" hidden="1">
+    <row r="62" spans="1:16" ht="15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -30976,7 +30983,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" hidden="1">
+    <row r="63" spans="1:16" ht="15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -31024,7 +31031,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" hidden="1">
+    <row r="64" spans="1:16" ht="15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -31072,7 +31079,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" hidden="1">
+    <row r="65" spans="1:16" ht="15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -31120,7 +31127,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" hidden="1">
+    <row r="66" spans="1:16" ht="15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -31168,7 +31175,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" hidden="1">
+    <row r="67" spans="1:16" ht="15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -31216,7 +31223,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" hidden="1">
+    <row r="68" spans="1:16" ht="15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -31264,7 +31271,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" hidden="1">
+    <row r="69" spans="1:16" ht="15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -31312,7 +31319,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" hidden="1">
+    <row r="70" spans="1:16" ht="15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -31360,7 +31367,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" hidden="1">
+    <row r="71" spans="1:16" ht="15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -31408,7 +31415,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" hidden="1">
+    <row r="72" spans="1:16" ht="15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -31456,7 +31463,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" hidden="1">
+    <row r="73" spans="1:16" ht="15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -31504,7 +31511,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" hidden="1">
+    <row r="74" spans="1:16" ht="15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -31552,7 +31559,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" hidden="1">
+    <row r="75" spans="1:16" ht="15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -31600,7 +31607,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" hidden="1">
+    <row r="76" spans="1:16" ht="15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -31648,7 +31655,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" hidden="1">
+    <row r="77" spans="1:16" ht="15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -31696,7 +31703,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" hidden="1">
+    <row r="78" spans="1:16" ht="15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -31744,7 +31751,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" hidden="1">
+    <row r="79" spans="1:16" ht="15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -31792,7 +31799,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" hidden="1">
+    <row r="80" spans="1:16" ht="15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -31840,7 +31847,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" hidden="1">
+    <row r="81" spans="1:16" ht="15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -31888,7 +31895,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" hidden="1">
+    <row r="82" spans="1:16" ht="15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -31936,7 +31943,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" hidden="1">
+    <row r="83" spans="1:16" ht="15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -31984,7 +31991,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" hidden="1">
+    <row r="84" spans="1:16" ht="15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -32032,7 +32039,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" hidden="1">
+    <row r="85" spans="1:16" ht="15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -32080,7 +32087,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" hidden="1">
+    <row r="86" spans="1:16" ht="15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -32128,7 +32135,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" hidden="1">
+    <row r="87" spans="1:16" ht="15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -32176,7 +32183,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" hidden="1">
+    <row r="88" spans="1:16" ht="15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -32224,7 +32231,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" hidden="1">
+    <row r="89" spans="1:16" ht="15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -32272,7 +32279,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" hidden="1">
+    <row r="90" spans="1:16" ht="15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -32320,7 +32327,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" hidden="1">
+    <row r="91" spans="1:16" ht="15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -32368,7 +32375,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" hidden="1">
+    <row r="92" spans="1:16" ht="15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -32416,7 +32423,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" hidden="1">
+    <row r="93" spans="1:16" ht="15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -32464,7 +32471,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" hidden="1">
+    <row r="94" spans="1:16" ht="15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -32512,7 +32519,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" hidden="1">
+    <row r="95" spans="1:16" ht="15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -32560,7 +32567,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" hidden="1">
+    <row r="96" spans="1:16" ht="15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -32608,7 +32615,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" hidden="1">
+    <row r="97" spans="1:16" ht="15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -32656,7 +32663,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" hidden="1">
+    <row r="98" spans="1:16" ht="15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -32704,7 +32711,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" hidden="1">
+    <row r="99" spans="1:16" ht="15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -32752,7 +32759,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" hidden="1">
+    <row r="100" spans="1:16" ht="15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -32800,7 +32807,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" hidden="1">
+    <row r="101" spans="1:16" ht="15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -32848,7 +32855,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" hidden="1">
+    <row r="102" spans="1:16" ht="15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -32896,7 +32903,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" hidden="1">
+    <row r="103" spans="1:16" ht="15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -32944,7 +32951,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" hidden="1">
+    <row r="104" spans="1:16" ht="15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -32992,7 +32999,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" hidden="1">
+    <row r="105" spans="1:16" ht="15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -33040,7 +33047,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" hidden="1">
+    <row r="106" spans="1:16" ht="15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -33088,7 +33095,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" hidden="1">
+    <row r="107" spans="1:16" ht="15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -33136,7 +33143,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" hidden="1">
+    <row r="108" spans="1:16" ht="15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -33184,7 +33191,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" hidden="1">
+    <row r="109" spans="1:16" ht="15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -33232,7 +33239,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" hidden="1">
+    <row r="110" spans="1:16" ht="15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -33280,7 +33287,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" hidden="1">
+    <row r="111" spans="1:16" ht="15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -33328,7 +33335,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" hidden="1">
+    <row r="112" spans="1:16" ht="15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -33376,7 +33383,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" hidden="1">
+    <row r="113" spans="1:16" ht="15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -33424,7 +33431,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" hidden="1">
+    <row r="114" spans="1:16" ht="15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -33472,7 +33479,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" hidden="1">
+    <row r="115" spans="1:16" ht="15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -33520,7 +33527,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" hidden="1">
+    <row r="116" spans="1:16" ht="15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -33568,7 +33575,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" hidden="1">
+    <row r="117" spans="1:16" ht="15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -33616,7 +33623,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" hidden="1">
+    <row r="118" spans="1:16" ht="15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -33664,7 +33671,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" hidden="1">
+    <row r="119" spans="1:16" ht="15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -33712,7 +33719,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" hidden="1">
+    <row r="120" spans="1:16" ht="15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -33760,7 +33767,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" hidden="1">
+    <row r="121" spans="1:16" ht="15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -33808,7 +33815,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" hidden="1">
+    <row r="122" spans="1:16" ht="15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -33856,7 +33863,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" hidden="1">
+    <row r="123" spans="1:16" ht="15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -33904,7 +33911,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" hidden="1">
+    <row r="124" spans="1:16" ht="15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -33952,7 +33959,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" hidden="1">
+    <row r="125" spans="1:16" ht="15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -34000,7 +34007,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" hidden="1">
+    <row r="126" spans="1:16" ht="15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -34048,7 +34055,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" hidden="1">
+    <row r="127" spans="1:16" ht="15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -34096,7 +34103,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" hidden="1">
+    <row r="128" spans="1:16" ht="15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -34144,7 +34151,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" hidden="1">
+    <row r="129" spans="1:16" ht="15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -34192,7 +34199,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" hidden="1">
+    <row r="130" spans="1:16" ht="15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -34240,7 +34247,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" hidden="1">
+    <row r="131" spans="1:16" ht="15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -34288,7 +34295,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" hidden="1">
+    <row r="132" spans="1:16" ht="15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -34336,7 +34343,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" hidden="1">
+    <row r="133" spans="1:16" ht="15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -34384,7 +34391,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" hidden="1">
+    <row r="134" spans="1:16" ht="15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -34432,7 +34439,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" hidden="1">
+    <row r="135" spans="1:16" ht="15">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -34480,7 +34487,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" hidden="1">
+    <row r="136" spans="1:16" ht="15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -34528,7 +34535,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" hidden="1">
+    <row r="137" spans="1:16" ht="15">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -34576,7 +34583,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" hidden="1">
+    <row r="138" spans="1:16" ht="15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -34624,7 +34631,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" hidden="1">
+    <row r="139" spans="1:16" ht="15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -34672,7 +34679,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" hidden="1">
+    <row r="140" spans="1:16" ht="15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -34720,7 +34727,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" hidden="1">
+    <row r="141" spans="1:16" ht="15">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -34768,7 +34775,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" hidden="1">
+    <row r="142" spans="1:16" ht="15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -34816,7 +34823,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" hidden="1">
+    <row r="143" spans="1:16" ht="15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -34864,7 +34871,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" hidden="1">
+    <row r="144" spans="1:16" ht="15">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -34912,7 +34919,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" hidden="1">
+    <row r="145" spans="1:16" ht="15">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -34960,7 +34967,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" hidden="1">
+    <row r="146" spans="1:16" ht="15">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -35008,7 +35015,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" hidden="1">
+    <row r="147" spans="1:16" ht="15">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -35056,7 +35063,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" hidden="1">
+    <row r="148" spans="1:16" ht="15">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -35104,7 +35111,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" hidden="1">
+    <row r="149" spans="1:16" ht="15">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -35152,7 +35159,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" hidden="1">
+    <row r="150" spans="1:16" ht="15">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -35200,7 +35207,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" hidden="1">
+    <row r="151" spans="1:16" ht="15">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -35248,7 +35255,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" hidden="1">
+    <row r="152" spans="1:16" ht="15">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -35296,7 +35303,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" hidden="1">
+    <row r="153" spans="1:16" ht="15">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -35344,7 +35351,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" hidden="1">
+    <row r="154" spans="1:16" ht="15">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -35392,7 +35399,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" hidden="1">
+    <row r="155" spans="1:16" ht="15">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -35440,7 +35447,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" hidden="1">
+    <row r="156" spans="1:16" ht="15">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -35488,7 +35495,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" hidden="1">
+    <row r="157" spans="1:16" ht="15">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -35536,7 +35543,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" hidden="1">
+    <row r="158" spans="1:16" ht="15">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -35584,7 +35591,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" hidden="1">
+    <row r="159" spans="1:16" ht="15">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -35632,7 +35639,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" hidden="1">
+    <row r="160" spans="1:16" ht="15">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -35680,7 +35687,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" hidden="1">
+    <row r="161" spans="1:16" ht="15">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -35728,7 +35735,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" hidden="1">
+    <row r="162" spans="1:16" ht="15">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -35776,7 +35783,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" hidden="1">
+    <row r="163" spans="1:16" ht="15">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -35824,7 +35831,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" hidden="1">
+    <row r="164" spans="1:16" ht="15">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -35872,7 +35879,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" hidden="1">
+    <row r="165" spans="1:16" ht="15">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -35920,7 +35927,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" hidden="1">
+    <row r="166" spans="1:16" ht="15">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -35968,7 +35975,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" hidden="1">
+    <row r="167" spans="1:16" ht="15">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -36016,7 +36023,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" hidden="1">
+    <row r="168" spans="1:16" ht="15">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -36064,7 +36071,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" hidden="1">
+    <row r="169" spans="1:16" ht="15">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -36112,7 +36119,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" hidden="1">
+    <row r="170" spans="1:16" ht="15">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -36160,7 +36167,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" hidden="1">
+    <row r="171" spans="1:16" ht="15">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -36208,7 +36215,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" hidden="1">
+    <row r="172" spans="1:16" ht="15">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -36256,7 +36263,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" hidden="1">
+    <row r="173" spans="1:16" ht="15">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -36304,7 +36311,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" hidden="1">
+    <row r="174" spans="1:16" ht="15">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -36352,7 +36359,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" hidden="1">
+    <row r="175" spans="1:16" ht="15">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -36400,7 +36407,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" hidden="1">
+    <row r="176" spans="1:16" ht="15">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -36448,7 +36455,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" hidden="1">
+    <row r="177" spans="1:16" ht="15">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -36496,7 +36503,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" hidden="1">
+    <row r="178" spans="1:16" ht="15">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -36544,7 +36551,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" hidden="1">
+    <row r="179" spans="1:16" ht="15">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -36592,7 +36599,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" hidden="1">
+    <row r="180" spans="1:16" ht="15">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -36640,7 +36647,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" hidden="1">
+    <row r="181" spans="1:16" ht="15">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -36688,7 +36695,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" hidden="1">
+    <row r="182" spans="1:16" ht="15">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -36736,7 +36743,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" hidden="1">
+    <row r="183" spans="1:16" ht="15">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -36784,7 +36791,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" hidden="1">
+    <row r="184" spans="1:16" ht="15">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -36832,7 +36839,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" hidden="1">
+    <row r="185" spans="1:16" ht="15">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -36880,7 +36887,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" hidden="1">
+    <row r="186" spans="1:16" ht="15">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -36928,7 +36935,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" hidden="1">
+    <row r="187" spans="1:16" ht="15">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -36976,7 +36983,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" hidden="1">
+    <row r="188" spans="1:16" ht="15">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -37024,7 +37031,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" hidden="1">
+    <row r="189" spans="1:16" ht="15">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -37072,7 +37079,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" hidden="1">
+    <row r="190" spans="1:16" ht="15">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -37120,7 +37127,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" hidden="1">
+    <row r="191" spans="1:16" ht="15">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -37168,7 +37175,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" hidden="1">
+    <row r="192" spans="1:16" ht="15">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -37216,7 +37223,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" hidden="1">
+    <row r="193" spans="1:16" ht="15">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -37264,7 +37271,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" hidden="1">
+    <row r="194" spans="1:16" ht="15">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -37312,7 +37319,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" hidden="1">
+    <row r="195" spans="1:16" ht="15">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -37360,7 +37367,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" hidden="1">
+    <row r="196" spans="1:16" ht="15">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -37408,7 +37415,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" hidden="1">
+    <row r="197" spans="1:16" ht="15">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -37456,7 +37463,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" hidden="1">
+    <row r="198" spans="1:16" ht="15">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -37504,7 +37511,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" hidden="1">
+    <row r="199" spans="1:16" ht="15">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -37552,7 +37559,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" hidden="1">
+    <row r="200" spans="1:16" ht="15">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -37600,7 +37607,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" hidden="1">
+    <row r="201" spans="1:16" ht="15">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -37648,7 +37655,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" hidden="1">
+    <row r="202" spans="1:16" ht="15">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -37696,7 +37703,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" hidden="1">
+    <row r="203" spans="1:16" ht="15">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -37744,7 +37751,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" hidden="1">
+    <row r="204" spans="1:16" ht="15">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -37792,7 +37799,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" hidden="1">
+    <row r="205" spans="1:16" ht="15">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -37840,7 +37847,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" hidden="1">
+    <row r="206" spans="1:16" ht="15">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -37888,7 +37895,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" hidden="1">
+    <row r="207" spans="1:16" ht="15">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -37936,7 +37943,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" hidden="1">
+    <row r="208" spans="1:16" ht="15">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -37984,7 +37991,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" hidden="1">
+    <row r="209" spans="1:16" ht="15">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -38032,7 +38039,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" hidden="1">
+    <row r="210" spans="1:16" ht="15">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -38080,7 +38087,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" hidden="1">
+    <row r="211" spans="1:16" ht="15">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -38128,7 +38135,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" hidden="1">
+    <row r="212" spans="1:16" ht="15">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -38176,7 +38183,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" hidden="1">
+    <row r="213" spans="1:16" ht="15">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -38224,7 +38231,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" hidden="1">
+    <row r="214" spans="1:16" ht="15">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -38272,7 +38279,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" hidden="1">
+    <row r="215" spans="1:16" ht="15">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -38320,7 +38327,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" hidden="1">
+    <row r="216" spans="1:16" ht="15">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -38368,7 +38375,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" hidden="1">
+    <row r="217" spans="1:16" ht="15">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -38416,7 +38423,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" hidden="1">
+    <row r="218" spans="1:16" ht="15">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -38464,7 +38471,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" hidden="1">
+    <row r="219" spans="1:16" ht="15">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -38512,7 +38519,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" hidden="1">
+    <row r="220" spans="1:16" ht="15">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -38560,7 +38567,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" hidden="1">
+    <row r="221" spans="1:16" ht="15">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -38608,7 +38615,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" hidden="1">
+    <row r="222" spans="1:16" ht="15">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -38656,7 +38663,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" hidden="1">
+    <row r="223" spans="1:16" ht="15">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -38704,7 +38711,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" hidden="1">
+    <row r="224" spans="1:16" ht="15">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -38752,7 +38759,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" hidden="1">
+    <row r="225" spans="1:16" ht="15">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -38800,7 +38807,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" hidden="1">
+    <row r="226" spans="1:16" ht="15">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -38848,7 +38855,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" hidden="1">
+    <row r="227" spans="1:16" ht="15">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -38896,7 +38903,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" hidden="1">
+    <row r="228" spans="1:16" ht="15">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -38944,7 +38951,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" hidden="1">
+    <row r="229" spans="1:16" ht="15">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -38992,7 +38999,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" hidden="1">
+    <row r="230" spans="1:16" ht="15">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -39040,7 +39047,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" hidden="1">
+    <row r="231" spans="1:16" ht="15">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -39088,7 +39095,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" hidden="1">
+    <row r="232" spans="1:16" ht="15">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -39136,7 +39143,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" hidden="1">
+    <row r="233" spans="1:16" ht="15">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -39184,7 +39191,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" hidden="1">
+    <row r="234" spans="1:16" ht="15">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -39232,7 +39239,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" hidden="1">
+    <row r="235" spans="1:16" ht="15">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -39280,7 +39287,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" hidden="1">
+    <row r="236" spans="1:16" ht="15">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -39328,7 +39335,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" hidden="1">
+    <row r="237" spans="1:16" ht="15">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -39376,7 +39383,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" hidden="1">
+    <row r="238" spans="1:16" ht="15">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -39424,7 +39431,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" hidden="1">
+    <row r="239" spans="1:16" ht="15">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -39472,7 +39479,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" hidden="1">
+    <row r="240" spans="1:16" ht="15">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -39520,7 +39527,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" hidden="1">
+    <row r="241" spans="1:16" ht="15">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -39568,7 +39575,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" hidden="1">
+    <row r="242" spans="1:16" ht="15">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -39616,7 +39623,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" hidden="1">
+    <row r="243" spans="1:16" ht="15">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -39664,7 +39671,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" hidden="1">
+    <row r="244" spans="1:16" ht="15">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -39712,7 +39719,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="15" hidden="1">
+    <row r="245" spans="1:16" ht="15">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -39760,7 +39767,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="15" hidden="1">
+    <row r="246" spans="1:16" ht="15">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -39808,7 +39815,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="15" hidden="1">
+    <row r="247" spans="1:16" ht="15">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -39856,7 +39863,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="15" hidden="1">
+    <row r="248" spans="1:16" ht="15">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -39904,7 +39911,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="15" hidden="1">
+    <row r="249" spans="1:16" ht="15">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -39952,7 +39959,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="15" hidden="1">
+    <row r="250" spans="1:16" ht="15">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -40000,7 +40007,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="15" hidden="1">
+    <row r="251" spans="1:16" ht="15">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -40048,7 +40055,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="15" hidden="1">
+    <row r="252" spans="1:16" ht="15">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -40096,7 +40103,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="15" hidden="1">
+    <row r="253" spans="1:16" ht="15">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -40144,7 +40151,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="15" hidden="1">
+    <row r="254" spans="1:16" ht="15">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -40192,7 +40199,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="15" hidden="1">
+    <row r="255" spans="1:16" ht="15">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -40240,7 +40247,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="15" hidden="1">
+    <row r="256" spans="1:16" ht="15">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -40288,7 +40295,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="15" hidden="1">
+    <row r="257" spans="1:16" ht="15">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -40336,7 +40343,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="15" hidden="1">
+    <row r="258" spans="1:16" ht="15">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -40384,7 +40391,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="15" hidden="1">
+    <row r="259" spans="1:16" ht="15">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -40432,7 +40439,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="15" hidden="1">
+    <row r="260" spans="1:16" ht="15">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -40480,7 +40487,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="15" hidden="1">
+    <row r="261" spans="1:16" ht="15">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -40528,7 +40535,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="15" hidden="1">
+    <row r="262" spans="1:16" ht="15">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -40576,7 +40583,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="15" hidden="1">
+    <row r="263" spans="1:16" ht="15">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -40624,7 +40631,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="15" hidden="1">
+    <row r="264" spans="1:16" ht="15">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -40672,7 +40679,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="15" hidden="1">
+    <row r="265" spans="1:16" ht="15">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -40720,7 +40727,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="15" hidden="1">
+    <row r="266" spans="1:16" ht="15">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -40768,7 +40775,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="15" hidden="1">
+    <row r="267" spans="1:16" ht="15">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -40816,7 +40823,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="15" hidden="1">
+    <row r="268" spans="1:16" ht="15">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -40864,7 +40871,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="15" hidden="1">
+    <row r="269" spans="1:16" ht="15">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -40912,7 +40919,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="15" hidden="1">
+    <row r="270" spans="1:16" ht="15">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -40960,7 +40967,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="15" hidden="1">
+    <row r="271" spans="1:16" ht="15">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -41008,7 +41015,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="15" hidden="1">
+    <row r="272" spans="1:16" ht="15">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -41056,7 +41063,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="15" hidden="1">
+    <row r="273" spans="1:16" ht="15">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -41104,7 +41111,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="15" hidden="1">
+    <row r="274" spans="1:16" ht="15">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -41152,7 +41159,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="15" hidden="1">
+    <row r="275" spans="1:16" ht="15">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -41200,7 +41207,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="15" hidden="1">
+    <row r="276" spans="1:16" ht="15">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -41248,7 +41255,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="15" hidden="1">
+    <row r="277" spans="1:16" ht="15">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -41296,7 +41303,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="15" hidden="1">
+    <row r="278" spans="1:16" ht="15">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -41344,7 +41351,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="15" hidden="1">
+    <row r="279" spans="1:16" ht="15">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -41392,7 +41399,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="15" hidden="1">
+    <row r="280" spans="1:16" ht="15">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -41440,7 +41447,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="15" hidden="1">
+    <row r="281" spans="1:16" ht="15">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -41488,7 +41495,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="15" hidden="1">
+    <row r="282" spans="1:16" ht="15">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -41536,7 +41543,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="15" hidden="1">
+    <row r="283" spans="1:16" ht="15">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -41584,7 +41591,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="15" hidden="1">
+    <row r="284" spans="1:16" ht="15">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -41632,7 +41639,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="15" hidden="1">
+    <row r="285" spans="1:16" ht="15">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -41680,7 +41687,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="15" hidden="1">
+    <row r="286" spans="1:16" ht="15">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -41728,7 +41735,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="15" hidden="1">
+    <row r="287" spans="1:16" ht="15">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -41776,7 +41783,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="15" hidden="1">
+    <row r="288" spans="1:16" ht="15">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -41824,7 +41831,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="15" hidden="1">
+    <row r="289" spans="1:16" ht="15">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -41872,7 +41879,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="15" hidden="1">
+    <row r="290" spans="1:16" ht="15">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -41920,7 +41927,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="15" hidden="1">
+    <row r="291" spans="1:16" ht="15">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -41968,7 +41975,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="15" hidden="1">
+    <row r="292" spans="1:16" ht="15">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -42016,7 +42023,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="15" hidden="1">
+    <row r="293" spans="1:16" ht="15">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -42064,7 +42071,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="15" hidden="1">
+    <row r="294" spans="1:16" ht="15">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -42112,7 +42119,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="15" hidden="1">
+    <row r="295" spans="1:16" ht="15">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -42160,7 +42167,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="15" hidden="1">
+    <row r="296" spans="1:16" ht="15">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -42208,7 +42215,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="15" hidden="1">
+    <row r="297" spans="1:16" ht="15">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -42256,7 +42263,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="15" hidden="1">
+    <row r="298" spans="1:16" ht="15">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -42304,7 +42311,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="15" hidden="1">
+    <row r="299" spans="1:16" ht="15">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -42352,7 +42359,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="15" hidden="1">
+    <row r="300" spans="1:16" ht="15">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -42400,7 +42407,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15" hidden="1">
+    <row r="301" spans="1:16" ht="15">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -42448,7 +42455,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="15" hidden="1">
+    <row r="302" spans="1:16" ht="15">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -42496,7 +42503,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="15" hidden="1">
+    <row r="303" spans="1:16" ht="15">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -42544,7 +42551,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="15" hidden="1">
+    <row r="304" spans="1:16" ht="15">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -42592,7 +42599,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="15" hidden="1">
+    <row r="305" spans="1:16" ht="15">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -42640,7 +42647,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="15" hidden="1">
+    <row r="306" spans="1:16" ht="15">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -42688,7 +42695,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="15" hidden="1">
+    <row r="307" spans="1:16" ht="15">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -42736,7 +42743,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="15" hidden="1">
+    <row r="308" spans="1:16" ht="15">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -42784,7 +42791,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="15" hidden="1">
+    <row r="309" spans="1:16" ht="15">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -42832,7 +42839,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15" hidden="1">
+    <row r="310" spans="1:16" ht="15">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -42880,7 +42887,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15" hidden="1">
+    <row r="311" spans="1:16" ht="15">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -42928,7 +42935,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="15" hidden="1">
+    <row r="312" spans="1:16" ht="15">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -42976,7 +42983,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="15" hidden="1">
+    <row r="313" spans="1:16" ht="15">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -43024,7 +43031,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="15" hidden="1">
+    <row r="314" spans="1:16" ht="15">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -43072,7 +43079,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="15" hidden="1">
+    <row r="315" spans="1:16" ht="15">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -43120,7 +43127,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="15" hidden="1">
+    <row r="316" spans="1:16" ht="15">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -43168,7 +43175,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="15" hidden="1">
+    <row r="317" spans="1:16" ht="15">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -43216,7 +43223,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="15" hidden="1">
+    <row r="318" spans="1:16" ht="15">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -43264,7 +43271,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="15" hidden="1">
+    <row r="319" spans="1:16" ht="15">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -43312,7 +43319,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="15" hidden="1">
+    <row r="320" spans="1:16" ht="15">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -43360,7 +43367,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="15" hidden="1">
+    <row r="321" spans="1:16" ht="15">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -43408,7 +43415,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="15" hidden="1">
+    <row r="322" spans="1:16" ht="15">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -43456,7 +43463,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="15" hidden="1">
+    <row r="323" spans="1:16" ht="15">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -43504,7 +43511,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="15" hidden="1">
+    <row r="324" spans="1:16" ht="15">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -43552,7 +43559,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="15" hidden="1">
+    <row r="325" spans="1:16" ht="15">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -43600,7 +43607,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="15" hidden="1">
+    <row r="326" spans="1:16" ht="15">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -43648,7 +43655,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="15" hidden="1">
+    <row r="327" spans="1:16" ht="15">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -43696,7 +43703,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="15" hidden="1">
+    <row r="328" spans="1:16" ht="15">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -43744,7 +43751,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="15" hidden="1">
+    <row r="329" spans="1:16" ht="15">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -43792,7 +43799,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="15" hidden="1">
+    <row r="330" spans="1:16" ht="15">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -43840,7 +43847,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="15" hidden="1">
+    <row r="331" spans="1:16" ht="15">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -43888,7 +43895,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="15" hidden="1">
+    <row r="332" spans="1:16" ht="15">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -43936,7 +43943,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="15" hidden="1">
+    <row r="333" spans="1:16" ht="15">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -43982,7 +43989,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="15" hidden="1">
+    <row r="334" spans="1:16" ht="15">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -44028,7 +44035,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="15" hidden="1">
+    <row r="335" spans="1:16" ht="15">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -44076,7 +44083,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="15" hidden="1">
+    <row r="336" spans="1:16" ht="15">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -44124,7 +44131,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="15" hidden="1">
+    <row r="337" spans="1:16" ht="15">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -44172,7 +44179,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="15" hidden="1">
+    <row r="338" spans="1:16" ht="15">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -44218,7 +44225,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="15" hidden="1">
+    <row r="339" spans="1:16" ht="15">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -44264,7 +44271,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="15" hidden="1">
+    <row r="340" spans="1:16" ht="15">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -44310,7 +44317,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="15" hidden="1">
+    <row r="341" spans="1:16" ht="15">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -44358,7 +44365,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="15" hidden="1">
+    <row r="342" spans="1:16" ht="15">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -44406,7 +44413,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="15" hidden="1">
+    <row r="343" spans="1:16" ht="15">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -44452,7 +44459,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="15" hidden="1">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -44498,7 +44505,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="15" hidden="1">
+    <row r="345" spans="1:16" ht="15">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -44546,7 +44553,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="15" hidden="1">
+    <row r="346" spans="1:16" ht="15">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -44592,7 +44599,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="15" hidden="1">
+    <row r="347" spans="1:16" ht="15">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -44640,7 +44647,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="15" hidden="1">
+    <row r="348" spans="1:16" ht="15">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -44688,7 +44695,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="15" hidden="1">
+    <row r="349" spans="1:16" ht="15">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -44734,7 +44741,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="15" hidden="1">
+    <row r="350" spans="1:16" ht="15">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -44781,13 +44788,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N350" xr:uid="{BD5C8140-9AB4-4766-B1A2-D91A2ABB3CF2}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N350" xr:uid="{BD5C8140-9AB4-4766-B1A2-D91A2ABB3CF2}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B073917E-F848-4C7D-8FFC-DF36DF99AE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE47E42-33F8-4AE4-A3B7-FAC4CC1D6A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALU PROJECT_ZTE_UPGRADE(153)" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8456" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8444" uniqueCount="1871">
   <si>
     <t>No.</t>
   </si>
@@ -5685,6 +5685,22 @@
   </si>
   <si>
     <t>OA Actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRT3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTK2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTK2_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11074,7 +11090,7 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12532,10 +12548,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K39" s="8">
+        <v>45771</v>
+      </c>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="15">
       <c r="A40" s="1">
@@ -13309,10 +13325,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K60" s="8">
+        <v>45770</v>
+      </c>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="15">
       <c r="A61" s="1">
@@ -13383,10 +13399,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K62" s="8">
+        <v>45772</v>
+      </c>
+      <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" ht="15">
       <c r="A63" s="1">
@@ -13457,10 +13473,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K64" s="8">
+        <v>45771</v>
+      </c>
+      <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:12" ht="15">
       <c r="A65" s="1">
@@ -13531,10 +13547,10 @@
         <f t="shared" si="0"/>
         <v>April</v>
       </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K66" s="8">
+        <v>45771</v>
+      </c>
+      <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:12" ht="15">
       <c r="A67" s="1">
@@ -13568,10 +13584,10 @@
         <f t="shared" ref="J67:J130" si="1">TEXT(H67,"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K67" s="8">
+        <v>45770</v>
+      </c>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" ht="15">
       <c r="A68" s="1">
@@ -13679,10 +13695,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K70" s="8">
+        <v>45772</v>
+      </c>
+      <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:12" ht="15">
       <c r="A71" s="1">
@@ -13753,10 +13769,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K72" s="8"/>
-      <c r="L72" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K72" s="8">
+        <v>45771</v>
+      </c>
+      <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" ht="15">
       <c r="A73" s="1">
@@ -13790,10 +13806,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K73" s="8">
+        <v>45772</v>
+      </c>
+      <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:12" ht="15">
       <c r="A74" s="1">
@@ -13901,10 +13917,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K76" s="8">
+        <v>45772</v>
+      </c>
+      <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" ht="15">
       <c r="A77" s="1">
@@ -13938,10 +13954,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K77" s="8"/>
-      <c r="L77" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K77" s="8">
+        <v>45770</v>
+      </c>
+      <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" ht="15">
       <c r="A78" s="1">
@@ -14197,10 +14213,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K84" s="8">
+        <v>45770</v>
+      </c>
+      <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" ht="15">
       <c r="A85" s="1">
@@ -14382,10 +14398,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K89" s="8">
+        <v>45770</v>
+      </c>
+      <c r="L89" s="1"/>
     </row>
     <row r="90" spans="1:12" ht="15">
       <c r="A90" s="1">
@@ -14456,10 +14472,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K91" s="8">
+        <v>45772</v>
+      </c>
+      <c r="L91" s="1"/>
     </row>
     <row r="92" spans="1:12" ht="15">
       <c r="A92" s="1">
@@ -14567,10 +14583,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K94" s="8">
+        <v>45770</v>
+      </c>
+      <c r="L94" s="1"/>
     </row>
     <row r="95" spans="1:12" ht="15">
       <c r="A95" s="1">
@@ -14900,10 +14916,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K103" s="8">
+        <v>45770</v>
+      </c>
+      <c r="L103" s="1"/>
     </row>
     <row r="104" spans="1:12" ht="15">
       <c r="A104" s="1">
@@ -16810,8 +16826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89E02D6-4111-4531-B9F3-268755ADB59C}">
   <dimension ref="A1:R186"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16943,10 +16959,10 @@
       <c r="P2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>1860</v>
-      </c>
+      <c r="Q2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3">
@@ -16998,10 +17014,10 @@
       <c r="P3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
-        <v>1860</v>
-      </c>
+      <c r="Q3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3">
@@ -17053,10 +17069,10 @@
       <c r="P4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
-        <v>1860</v>
-      </c>
+      <c r="Q4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3">
@@ -17108,10 +17124,10 @@
       <c r="P5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
-        <v>1860</v>
-      </c>
+      <c r="Q5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3">
@@ -17163,10 +17179,10 @@
       <c r="P6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
-        <v>1860</v>
-      </c>
+      <c r="Q6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="3">
@@ -17218,10 +17234,10 @@
       <c r="P7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
-        <v>1860</v>
-      </c>
+      <c r="Q7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="3">
@@ -21867,10 +21883,14 @@
         <f>VLOOKUP(D92,'[1]185_ALU&amp;HW_SWAP(ALU)'!$D$2:$I$186,6,0)</f>
         <v>B2</v>
       </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="J92" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>1868</v>
+      </c>
       <c r="L92" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>1813</v>
@@ -26153,8 +26173,12 @@
         <f>VLOOKUP(D170,'[1]185_ALU&amp;HW_SWAP(ALU)'!$D$2:$I$186,6,0)</f>
         <v>B2</v>
       </c>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
+      <c r="J170" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>1870</v>
+      </c>
       <c r="L170" s="3">
         <v>14</v>
       </c>
@@ -44649,8 +44673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57047C20-427F-4634-B09D-E225BFE2B37C}">
   <dimension ref="A1:Y131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V94" sqref="V94"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE47E42-33F8-4AE4-A3B7-FAC4CC1D6A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F5EABC-A02E-410D-A7DD-46EA1A0926D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8444" uniqueCount="1871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8443" uniqueCount="1871">
   <si>
     <t>No.</t>
   </si>
@@ -16827,7 +16827,7 @@
   <dimension ref="A1:R186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q7"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17014,9 +17014,7 @@
       <c r="P3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18">

--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F5EABC-A02E-410D-A7DD-46EA1A0926D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEBB11A-7289-4C15-AEEF-30EF976F69AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALU PROJECT_ZTE_UPGRADE(153)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BTB PROJECT_NOKIA_SWAP(349)'!$A$1:$N$350</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'BTB PROJECT-NEWSITE(130)'!$A$1:$W$131</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8443" uniqueCount="1871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8439" uniqueCount="1871">
   <si>
     <t>No.</t>
   </si>
@@ -11089,8 +11089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13658,10 +13658,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K69" s="8">
+        <v>45773</v>
+      </c>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" ht="15">
       <c r="A70" s="1">
@@ -13732,10 +13732,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K71" s="8">
+        <v>45773</v>
+      </c>
+      <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12" ht="15">
       <c r="A72" s="1">
@@ -13843,10 +13843,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K74" s="8">
+        <v>45773</v>
+      </c>
+      <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12" ht="15">
       <c r="A75" s="1">
@@ -14065,10 +14065,10 @@
         <f t="shared" si="1"/>
         <v>April</v>
       </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="1" t="s">
-        <v>1845</v>
-      </c>
+      <c r="K80" s="8">
+        <v>45773</v>
+      </c>
+      <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:12" ht="15">
       <c r="A81" s="1">
@@ -16826,8 +16826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89E02D6-4111-4531-B9F3-268755ADB59C}">
   <dimension ref="A1:R186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17014,7 +17014,9 @@
       <c r="P3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="8">
+        <v>45773</v>
+      </c>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18">

--- a/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
+++ b/Cellcard Project_Overall_Implementation_Plan(Sitewise)_V2.2_20250409.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\streamlit-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6011E6-A90A-4B10-98F8-C85932E4C5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA0555-0156-4F05-B8E5-0F562AC75264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALU PROJECT_ZTE_UPGRADE(153)" sheetId="1" r:id="rId1"/>
@@ -11103,8 +11103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13747,7 +13747,7 @@
         <v>April</v>
       </c>
       <c r="K71" s="8">
-        <v>45774</v>
+        <v>45775</v>
       </c>
       <c r="L71" s="1"/>
     </row>
@@ -16840,8 +16840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89E02D6-4111-4531-B9F3-268755ADB59C}">
   <dimension ref="A1:R186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17303,10 +17303,10 @@
       <c r="P8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>1859</v>
-      </c>
+      <c r="Q8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="3">
@@ -17358,10 +17358,10 @@
       <c r="P9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
-        <v>1859</v>
-      </c>
+      <c r="Q9" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="3">
@@ -17413,10 +17413,10 @@
       <c r="P10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="s">
-        <v>1859</v>
-      </c>
+      <c r="Q10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="3">
@@ -17468,10 +17468,10 @@
       <c r="P11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="s">
-        <v>1859</v>
-      </c>
+      <c r="Q11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="3">
@@ -17523,10 +17523,10 @@
       <c r="P12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
-        <v>1859</v>
-      </c>
+      <c r="Q12" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="3">
@@ -17578,10 +17578,10 @@
       <c r="P13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3" t="s">
-        <v>1859</v>
-      </c>
+      <c r="Q13" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="3">
@@ -17633,10 +17633,10 @@
       <c r="P14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3" t="s">
-        <v>1859</v>
-      </c>
+      <c r="Q14" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="3">
@@ -27872,8 +27872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C8140-9AB4-4766-B1A2-D91A2ABB3CF2}">
   <dimension ref="A1:P350"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -44687,7 +44687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57047C20-427F-4634-B09D-E225BFE2B37C}">
   <dimension ref="A1:Y131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25:Y131"/>
     </sheetView>
   </sheetViews>
